--- a/data/processed/stateness_2020-05-23.xlsx
+++ b/data/processed/stateness_2020-05-23.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E436"/>
+  <dimension ref="A1:D436"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -384,11 +384,6 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>scode</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
           <t>polity2_norm</t>
         </is>
       </c>
@@ -405,13 +400,8 @@
       <c r="C2" t="n">
         <v>-6.367963666535656</v>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>ARM</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>1</v>
+      <c r="D2" t="n">
+        <v>7.894736842105264</v>
       </c>
     </row>
     <row r="3">
@@ -426,13 +416,8 @@
       <c r="C3" t="n">
         <v>-16.19110004803703</v>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>AZE</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>0.4</v>
+      <c r="D3" t="n">
+        <v>3.157894736842105</v>
       </c>
     </row>
     <row r="4">
@@ -447,13 +432,8 @@
       <c r="C4" t="n">
         <v>0</v>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>BLR</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>1</v>
+      <c r="D4" t="n">
+        <v>7.894736842105264</v>
       </c>
     </row>
     <row r="5">
@@ -468,13 +448,8 @@
       <c r="C5" t="n">
         <v>-0.4620289095593695</v>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>EST</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>1</v>
+      <c r="D5" t="n">
+        <v>7.894736842105264</v>
       </c>
     </row>
     <row r="6">
@@ -489,8 +464,9 @@
       <c r="C6" t="n">
         <v>-6.488492947290274</v>
       </c>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
+      <c r="D6" t="n">
+        <v>6.315789473684211</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -504,8 +480,9 @@
       <c r="C7" t="n">
         <v>-7.412550766409014</v>
       </c>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
+      <c r="D7" t="n">
+        <v>3.157894736842105</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -519,8 +496,9 @@
       <c r="C8" t="n">
         <v>-9.903489235337789</v>
       </c>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
+      <c r="D8" t="n">
+        <v>3.157894736842105</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -534,8 +512,9 @@
       <c r="C9" t="n">
         <v>-0.3013232018865453</v>
       </c>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
+      <c r="D9" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -549,8 +528,9 @@
       <c r="C10" t="n">
         <v>-0.6428228306912964</v>
       </c>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
+      <c r="D10" t="n">
+        <v>8.947368421052632</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -564,8 +544,9 @@
       <c r="C11" t="n">
         <v>-3.676143063015852</v>
       </c>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
+      <c r="D11" t="n">
+        <v>7.368421052631579</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -580,7 +561,6 @@
         <v>-1.26555744792349</v>
       </c>
       <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -594,8 +574,9 @@
       <c r="C13" t="n">
         <v>-18.03921568627451</v>
       </c>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
+      <c r="D13" t="n">
+        <v>3.684210526315789</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -609,13 +590,8 @@
       <c r="C14" t="n">
         <v>-13.76042621948557</v>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>TKM</t>
-        </is>
-      </c>
-      <c r="E14" t="n">
-        <v>0.06666666666666667</v>
+      <c r="D14" t="n">
+        <v>0.5263157894736842</v>
       </c>
     </row>
     <row r="15">
@@ -630,13 +606,8 @@
       <c r="C15" t="n">
         <v>-0.8437049652823265</v>
       </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>UKR</t>
-        </is>
-      </c>
-      <c r="E15" t="n">
-        <v>1</v>
+      <c r="D15" t="n">
+        <v>7.894736842105264</v>
       </c>
     </row>
     <row r="16">
@@ -651,12 +622,7 @@
       <c r="C16" t="n">
         <v>-11.45028167168872</v>
       </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>UZB</t>
-        </is>
-      </c>
-      <c r="E16" t="n">
+      <c r="D16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -672,13 +638,8 @@
       <c r="C17" t="n">
         <v>12.06617700032973</v>
       </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>ARM</t>
-        </is>
-      </c>
-      <c r="E17" t="n">
-        <v>1</v>
+      <c r="D17" t="n">
+        <v>7.894736842105264</v>
       </c>
     </row>
     <row r="18">
@@ -693,13 +654,8 @@
       <c r="C18" t="n">
         <v>2.577846272274839</v>
       </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>AZE</t>
-        </is>
-      </c>
-      <c r="E18" t="n">
-        <v>0.6666666666666666</v>
+      <c r="D18" t="n">
+        <v>5.263157894736842</v>
       </c>
     </row>
     <row r="19">
@@ -714,13 +670,8 @@
       <c r="C19" t="n">
         <v>29.38343756579082</v>
       </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>BLR</t>
-        </is>
-      </c>
-      <c r="E19" t="n">
-        <v>1</v>
+      <c r="D19" t="n">
+        <v>7.894736842105264</v>
       </c>
     </row>
     <row r="20">
@@ -735,13 +686,8 @@
       <c r="C20" t="n">
         <v>2.138418559832807</v>
       </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>EST</t>
-        </is>
-      </c>
-      <c r="E20" t="n">
-        <v>1</v>
+      <c r="D20" t="n">
+        <v>7.894736842105264</v>
       </c>
     </row>
     <row r="21">
@@ -756,8 +702,9 @@
       <c r="C21" t="n">
         <v>-6.115313287908148</v>
       </c>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
+      <c r="D21" t="n">
+        <v>4.736842105263158</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -771,8 +718,9 @@
       <c r="C22" t="n">
         <v>-7.092996603529827</v>
       </c>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
+      <c r="D22" t="n">
+        <v>3.157894736842105</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -786,8 +734,9 @@
       <c r="C23" t="n">
         <v>-2.700466672364366</v>
       </c>
-      <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr"/>
+      <c r="D23" t="n">
+        <v>3.157894736842105</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -801,8 +750,9 @@
       <c r="C24" t="n">
         <v>4.434425094158013</v>
       </c>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
+      <c r="D24" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -816,8 +766,9 @@
       <c r="C25" t="n">
         <v>1.755876033457886</v>
       </c>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr"/>
+      <c r="D25" t="n">
+        <v>8.947368421052632</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -831,8 +782,9 @@
       <c r="C26" t="n">
         <v>2.965197037611203</v>
       </c>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr"/>
+      <c r="D26" t="n">
+        <v>7.368421052631579</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -846,13 +798,8 @@
       <c r="C27" t="n">
         <v>33.10599904148695</v>
       </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>RUS</t>
-        </is>
-      </c>
-      <c r="E27" t="n">
-        <v>0.9333333333333333</v>
+      <c r="D27" t="n">
+        <v>7.368421052631579</v>
       </c>
     </row>
     <row r="28">
@@ -867,8 +814,9 @@
       <c r="C28" t="n">
         <v>-18.03921568627451</v>
       </c>
-      <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr"/>
+      <c r="D28" t="n">
+        <v>1.578947368421053</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -882,12 +830,7 @@
       <c r="C29" t="n">
         <v>12.81157905360636</v>
       </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>TKM</t>
-        </is>
-      </c>
-      <c r="E29" t="n">
+      <c r="D29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -903,13 +846,8 @@
       <c r="C30" t="n">
         <v>22.06683717490765</v>
       </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>UKR</t>
-        </is>
-      </c>
-      <c r="E30" t="n">
-        <v>1</v>
+      <c r="D30" t="n">
+        <v>7.894736842105264</v>
       </c>
     </row>
     <row r="31">
@@ -924,12 +862,7 @@
       <c r="C31" t="n">
         <v>-6.787786015710131</v>
       </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>UZB</t>
-        </is>
-      </c>
-      <c r="E31" t="n">
+      <c r="D31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -945,13 +878,8 @@
       <c r="C32" t="n">
         <v>15.08722798352633</v>
       </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>ARM</t>
-        </is>
-      </c>
-      <c r="E32" t="n">
-        <v>1</v>
+      <c r="D32" t="n">
+        <v>7.894736842105264</v>
       </c>
     </row>
     <row r="33">
@@ -966,13 +894,8 @@
       <c r="C33" t="n">
         <v>4.247998300305097</v>
       </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>AZE</t>
-        </is>
-      </c>
-      <c r="E33" t="n">
-        <v>0.4</v>
+      <c r="D33" t="n">
+        <v>3.157894736842105</v>
       </c>
     </row>
     <row r="34">
@@ -987,13 +910,8 @@
       <c r="C34" t="n">
         <v>64.50980392156862</v>
       </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>BLR</t>
-        </is>
-      </c>
-      <c r="E34" t="n">
-        <v>1</v>
+      <c r="D34" t="n">
+        <v>7.894736842105264</v>
       </c>
     </row>
     <row r="35">
@@ -1008,13 +926,8 @@
       <c r="C35" t="n">
         <v>7.290624723684688</v>
       </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>EST</t>
-        </is>
-      </c>
-      <c r="E35" t="n">
-        <v>1</v>
+      <c r="D35" t="n">
+        <v>7.894736842105264</v>
       </c>
     </row>
     <row r="36">
@@ -1029,8 +942,9 @@
       <c r="C36" t="n">
         <v>6.442581320496579</v>
       </c>
-      <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr"/>
+      <c r="D36" t="n">
+        <v>4.736842105263158</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -1044,8 +958,9 @@
       <c r="C37" t="n">
         <v>-6.90115635997989</v>
       </c>
-      <c r="D37" t="inlineStr"/>
-      <c r="E37" t="inlineStr"/>
+      <c r="D37" t="n">
+        <v>3.157894736842105</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -1059,8 +974,9 @@
       <c r="C38" t="n">
         <v>-1.7289728434814</v>
       </c>
-      <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr"/>
+      <c r="D38" t="n">
+        <v>3.157894736842105</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -1074,8 +990,9 @@
       <c r="C39" t="n">
         <v>5.279041594729275</v>
       </c>
-      <c r="D39" t="inlineStr"/>
-      <c r="E39" t="inlineStr"/>
+      <c r="D39" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -1089,8 +1006,9 @@
       <c r="C40" t="n">
         <v>2.550030365806163</v>
       </c>
-      <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr"/>
+      <c r="D40" t="n">
+        <v>8.947368421052632</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -1104,8 +1022,9 @@
       <c r="C41" t="n">
         <v>8.117577560755452</v>
       </c>
-      <c r="D41" t="inlineStr"/>
-      <c r="E41" t="inlineStr"/>
+      <c r="D41" t="n">
+        <v>7.368421052631579</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -1119,13 +1038,8 @@
       <c r="C42" t="n">
         <v>26.75954275999322</v>
       </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>RUS</t>
-        </is>
-      </c>
-      <c r="E42" t="n">
-        <v>0.8</v>
+      <c r="D42" t="n">
+        <v>6.315789473684211</v>
       </c>
     </row>
     <row r="43">
@@ -1140,8 +1054,9 @@
       <c r="C43" t="n">
         <v>-17.39034134777499</v>
       </c>
-      <c r="D43" t="inlineStr"/>
-      <c r="E43" t="inlineStr"/>
+      <c r="D43" t="n">
+        <v>1.578947368421053</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -1155,12 +1070,7 @@
       <c r="C44" t="n">
         <v>13.05757700583964</v>
       </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>TKM</t>
-        </is>
-      </c>
-      <c r="E44" t="n">
+      <c r="D44" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1176,13 +1086,8 @@
       <c r="C45" t="n">
         <v>19.76384479591412</v>
       </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>UKR</t>
-        </is>
-      </c>
-      <c r="E45" t="n">
-        <v>0.9333333333333333</v>
+      <c r="D45" t="n">
+        <v>7.368421052631579</v>
       </c>
     </row>
     <row r="46">
@@ -1197,12 +1102,7 @@
       <c r="C46" t="n">
         <v>-5.600566912654729</v>
       </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>UZB</t>
-        </is>
-      </c>
-      <c r="E46" t="n">
+      <c r="D46" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1218,13 +1118,8 @@
       <c r="C47" t="n">
         <v>29.65190570610267</v>
       </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>ARM</t>
-        </is>
-      </c>
-      <c r="E47" t="n">
-        <v>0.8823529411764706</v>
+      <c r="D47" t="n">
+        <v>7.894736842105264</v>
       </c>
     </row>
     <row r="48">
@@ -1239,13 +1134,8 @@
       <c r="C48" t="n">
         <v>30.2857694322024</v>
       </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>AZE</t>
-        </is>
-      </c>
-      <c r="E48" t="n">
-        <v>0.3529411764705883</v>
+      <c r="D48" t="n">
+        <v>3.157894736842105</v>
       </c>
     </row>
     <row r="49">
@@ -1260,13 +1150,8 @@
       <c r="C49" t="n">
         <v>41.96413676372367</v>
       </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>BLR</t>
-        </is>
-      </c>
-      <c r="E49" t="n">
-        <v>1</v>
+      <c r="D49" t="n">
+        <v>8.947368421052632</v>
       </c>
     </row>
     <row r="50">
@@ -1281,13 +1166,8 @@
       <c r="C50" t="n">
         <v>3.564136124295984</v>
       </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>EST</t>
-        </is>
-      </c>
-      <c r="E50" t="n">
-        <v>0.8823529411764706</v>
+      <c r="D50" t="n">
+        <v>7.894736842105264</v>
       </c>
     </row>
     <row r="51">
@@ -1302,8 +1182,9 @@
       <c r="C51" t="n">
         <v>-5.017639249294909</v>
       </c>
-      <c r="D51" t="inlineStr"/>
-      <c r="E51" t="inlineStr"/>
+      <c r="D51" t="n">
+        <v>5.789473684210527</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -1317,8 +1198,9 @@
       <c r="C52" t="n">
         <v>-6.891385767790265</v>
       </c>
-      <c r="D52" t="inlineStr"/>
-      <c r="E52" t="inlineStr"/>
+      <c r="D52" t="n">
+        <v>3.157894736842105</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -1332,8 +1214,9 @@
       <c r="C53" t="n">
         <v>-3.484141505727131</v>
       </c>
-      <c r="D53" t="inlineStr"/>
-      <c r="E53" t="inlineStr"/>
+      <c r="D53" t="n">
+        <v>3.157894736842105</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -1347,8 +1230,9 @@
       <c r="C54" t="n">
         <v>3.585618261316423</v>
       </c>
-      <c r="D54" t="inlineStr"/>
-      <c r="E54" t="inlineStr"/>
+      <c r="D54" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -1362,8 +1246,9 @@
       <c r="C55" t="n">
         <v>15.812650982095</v>
       </c>
-      <c r="D55" t="inlineStr"/>
-      <c r="E55" t="inlineStr"/>
+      <c r="D55" t="n">
+        <v>8.947368421052632</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -1377,8 +1262,9 @@
       <c r="C56" t="n">
         <v>2.296779851819496</v>
       </c>
-      <c r="D56" t="inlineStr"/>
-      <c r="E56" t="inlineStr"/>
+      <c r="D56" t="n">
+        <v>8.421052631578947</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -1392,13 +1278,8 @@
       <c r="C57" t="n">
         <v>17.85477143703816</v>
       </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>RUS</t>
-        </is>
-      </c>
-      <c r="E57" t="n">
-        <v>0.7058823529411765</v>
+      <c r="D57" t="n">
+        <v>6.315789473684211</v>
       </c>
     </row>
     <row r="58">
@@ -1413,8 +1294,9 @@
       <c r="C58" t="n">
         <v>-18.03247131964422</v>
       </c>
-      <c r="D58" t="inlineStr"/>
-      <c r="E58" t="inlineStr"/>
+      <c r="D58" t="n">
+        <v>1.578947368421053</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -1428,12 +1310,7 @@
       <c r="C59" t="n">
         <v>-4.455845755896081</v>
       </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>TKM</t>
-        </is>
-      </c>
-      <c r="E59" t="n">
+      <c r="D59" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1449,13 +1326,8 @@
       <c r="C60" t="n">
         <v>12.37793126396974</v>
       </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>UKR</t>
-        </is>
-      </c>
-      <c r="E60" t="n">
-        <v>0.9411764705882353</v>
+      <c r="D60" t="n">
+        <v>8.421052631578947</v>
       </c>
     </row>
     <row r="61">
@@ -1470,12 +1342,7 @@
       <c r="C61" t="n">
         <v>-10.08857876358261</v>
       </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>UZB</t>
-        </is>
-      </c>
-      <c r="E61" t="n">
+      <c r="D61" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1491,13 +1358,8 @@
       <c r="C62" t="n">
         <v>29.83193277310925</v>
       </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>ARM</t>
-        </is>
-      </c>
-      <c r="E62" t="n">
-        <v>0.625</v>
+      <c r="D62" t="n">
+        <v>5.263157894736842</v>
       </c>
     </row>
     <row r="63">
@@ -1512,13 +1374,8 @@
       <c r="C63" t="n">
         <v>13.65072716101228</v>
       </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>AZE</t>
-        </is>
-      </c>
-      <c r="E63" t="n">
-        <v>0.1875</v>
+      <c r="D63" t="n">
+        <v>1.578947368421053</v>
       </c>
     </row>
     <row r="64">
@@ -1533,13 +1390,8 @@
       <c r="C64" t="n">
         <v>51.32200893874547</v>
       </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>BLR</t>
-        </is>
-      </c>
-      <c r="E64" t="n">
-        <v>0.5625</v>
+      <c r="D64" t="n">
+        <v>4.736842105263158</v>
       </c>
     </row>
     <row r="65">
@@ -1554,13 +1406,8 @@
       <c r="C65" t="n">
         <v>57.70705158999714</v>
       </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>EST</t>
-        </is>
-      </c>
-      <c r="E65" t="n">
-        <v>0.9375</v>
+      <c r="D65" t="n">
+        <v>7.894736842105264</v>
       </c>
     </row>
     <row r="66">
@@ -1575,8 +1422,9 @@
       <c r="C66" t="n">
         <v>-4.067882424131189</v>
       </c>
-      <c r="D66" t="inlineStr"/>
-      <c r="E66" t="inlineStr"/>
+      <c r="D66" t="n">
+        <v>6.842105263157895</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -1590,8 +1438,9 @@
       <c r="C67" t="n">
         <v>-2.523000677312331</v>
       </c>
-      <c r="D67" t="inlineStr"/>
-      <c r="E67" t="inlineStr"/>
+      <c r="D67" t="n">
+        <v>1.578947368421053</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -1605,8 +1454,9 @@
       <c r="C68" t="n">
         <v>-8.907563025210083</v>
       </c>
-      <c r="D68" t="inlineStr"/>
-      <c r="E68" t="inlineStr"/>
+      <c r="D68" t="n">
+        <v>3.157894736842105</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -1620,8 +1470,9 @@
       <c r="C69" t="n">
         <v>36.83465800661262</v>
       </c>
-      <c r="D69" t="inlineStr"/>
-      <c r="E69" t="inlineStr"/>
+      <c r="D69" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -1635,8 +1486,9 @@
       <c r="C70" t="n">
         <v>37.04300809529716</v>
       </c>
-      <c r="D70" t="inlineStr"/>
-      <c r="E70" t="inlineStr"/>
+      <c r="D70" t="n">
+        <v>8.947368421052632</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -1650,8 +1502,9 @@
       <c r="C71" t="n">
         <v>25.86260339592634</v>
       </c>
-      <c r="D71" t="inlineStr"/>
-      <c r="E71" t="inlineStr"/>
+      <c r="D71" t="n">
+        <v>8.421052631578947</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -1665,13 +1518,8 @@
       <c r="C72" t="n">
         <v>40.34966380419985</v>
       </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>RUS</t>
-        </is>
-      </c>
-      <c r="E72" t="n">
-        <v>0.75</v>
+      <c r="D72" t="n">
+        <v>6.315789473684211</v>
       </c>
     </row>
     <row r="73">
@@ -1686,8 +1534,9 @@
       <c r="C73" t="n">
         <v>-10.36857277758354</v>
       </c>
-      <c r="D73" t="inlineStr"/>
-      <c r="E73" t="inlineStr"/>
+      <c r="D73" t="n">
+        <v>1.578947368421053</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -1701,12 +1550,7 @@
       <c r="C74" t="n">
         <v>-10.62867820167286</v>
       </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>TKM</t>
-        </is>
-      </c>
-      <c r="E74" t="n">
+      <c r="D74" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1722,13 +1566,8 @@
       <c r="C75" t="n">
         <v>19.30457835840407</v>
       </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>UKR</t>
-        </is>
-      </c>
-      <c r="E75" t="n">
-        <v>1</v>
+      <c r="D75" t="n">
+        <v>8.421052631578947</v>
       </c>
     </row>
     <row r="76">
@@ -1743,12 +1582,7 @@
       <c r="C76" t="n">
         <v>-9.485687749544876</v>
       </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>UZB</t>
-        </is>
-      </c>
-      <c r="E76" t="n">
+      <c r="D76" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1764,13 +1598,8 @@
       <c r="C77" t="n">
         <v>29.76570289132603</v>
       </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>ARM</t>
-        </is>
-      </c>
-      <c r="E77" t="n">
-        <v>0.1875</v>
+      <c r="D77" t="n">
+        <v>1.578947368421053</v>
       </c>
     </row>
     <row r="78">
@@ -1785,13 +1614,8 @@
       <c r="C78" t="n">
         <v>9.508444057506749</v>
       </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>AZE</t>
-        </is>
-      </c>
-      <c r="E78" t="n">
-        <v>0.1875</v>
+      <c r="D78" t="n">
+        <v>1.578947368421053</v>
       </c>
     </row>
     <row r="79">
@@ -1806,13 +1630,8 @@
       <c r="C79" t="n">
         <v>59.04174466952075</v>
       </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>BLR</t>
-        </is>
-      </c>
-      <c r="E79" t="n">
-        <v>0.125</v>
+      <c r="D79" t="n">
+        <v>1.052631578947368</v>
       </c>
     </row>
     <row r="80">
@@ -1827,13 +1646,8 @@
       <c r="C80" t="n">
         <v>56.64753462126971</v>
       </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>EST</t>
-        </is>
-      </c>
-      <c r="E80" t="n">
-        <v>0.9375</v>
+      <c r="D80" t="n">
+        <v>7.894736842105264</v>
       </c>
     </row>
     <row r="81">
@@ -1848,8 +1662,9 @@
       <c r="C81" t="n">
         <v>-4.842117478748508</v>
       </c>
-      <c r="D81" t="inlineStr"/>
-      <c r="E81" t="inlineStr"/>
+      <c r="D81" t="n">
+        <v>6.842105263157895</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -1863,8 +1678,9 @@
       <c r="C82" t="n">
         <v>-3.63901683029547</v>
       </c>
-      <c r="D82" t="inlineStr"/>
-      <c r="E82" t="inlineStr"/>
+      <c r="D82" t="n">
+        <v>1.578947368421053</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -1878,8 +1694,9 @@
       <c r="C83" t="n">
         <v>-7.967085230685934</v>
       </c>
-      <c r="D83" t="inlineStr"/>
-      <c r="E83" t="inlineStr"/>
+      <c r="D83" t="n">
+        <v>3.157894736842105</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -1893,8 +1710,9 @@
       <c r="C84" t="n">
         <v>47.47672718205288</v>
       </c>
-      <c r="D84" t="inlineStr"/>
-      <c r="E84" t="inlineStr"/>
+      <c r="D84" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -1908,8 +1726,9 @@
       <c r="C85" t="n">
         <v>50.1270831116463</v>
       </c>
-      <c r="D85" t="inlineStr"/>
-      <c r="E85" t="inlineStr"/>
+      <c r="D85" t="n">
+        <v>8.947368421052632</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -1923,8 +1742,9 @@
       <c r="C86" t="n">
         <v>30.12700479316965</v>
       </c>
-      <c r="D86" t="inlineStr"/>
-      <c r="E86" t="inlineStr"/>
+      <c r="D86" t="n">
+        <v>8.421052631578947</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -1938,13 +1758,8 @@
       <c r="C87" t="n">
         <v>38.09331625474439</v>
       </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>RUS</t>
-        </is>
-      </c>
-      <c r="E87" t="n">
-        <v>0.75</v>
+      <c r="D87" t="n">
+        <v>6.315789473684211</v>
       </c>
     </row>
     <row r="88">
@@ -1959,8 +1774,9 @@
       <c r="C88" t="n">
         <v>-7.859976609663562</v>
       </c>
-      <c r="D88" t="inlineStr"/>
-      <c r="E88" t="inlineStr"/>
+      <c r="D88" t="n">
+        <v>1.578947368421053</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -1974,12 +1790,7 @@
       <c r="C89" t="n">
         <v>-8.846825346241161</v>
       </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>TKM</t>
-        </is>
-      </c>
-      <c r="E89" t="n">
+      <c r="D89" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1995,13 +1806,8 @@
       <c r="C90" t="n">
         <v>17.11822512703538</v>
       </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>UKR</t>
-        </is>
-      </c>
-      <c r="E90" t="n">
-        <v>1</v>
+      <c r="D90" t="n">
+        <v>8.421052631578947</v>
       </c>
     </row>
     <row r="91">
@@ -2016,12 +1822,7 @@
       <c r="C91" t="n">
         <v>7.149299233352103</v>
       </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>UZB</t>
-        </is>
-      </c>
-      <c r="E91" t="n">
+      <c r="D91" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2037,13 +1838,8 @@
       <c r="C92" t="n">
         <v>29.66937493229336</v>
       </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>ARM</t>
-        </is>
-      </c>
-      <c r="E92" t="n">
-        <v>0.1875</v>
+      <c r="D92" t="n">
+        <v>1.578947368421053</v>
       </c>
     </row>
     <row r="93">
@@ -2058,13 +1854,8 @@
       <c r="C93" t="n">
         <v>13.96191440827229</v>
       </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>AZE</t>
-        </is>
-      </c>
-      <c r="E93" t="n">
-        <v>0.1875</v>
+      <c r="D93" t="n">
+        <v>1.578947368421053</v>
       </c>
     </row>
     <row r="94">
@@ -2079,13 +1870,8 @@
       <c r="C94" t="n">
         <v>61.82404830181611</v>
       </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>BLR</t>
-        </is>
-      </c>
-      <c r="E94" t="n">
-        <v>0.125</v>
+      <c r="D94" t="n">
+        <v>1.052631578947368</v>
       </c>
     </row>
     <row r="95">
@@ -2100,13 +1886,8 @@
       <c r="C95" t="n">
         <v>56.3058473391398</v>
       </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>EST</t>
-        </is>
-      </c>
-      <c r="E95" t="n">
-        <v>0.9375</v>
+      <c r="D95" t="n">
+        <v>7.894736842105264</v>
       </c>
     </row>
     <row r="96">
@@ -2121,8 +1902,9 @@
       <c r="C96" t="n">
         <v>6.550261947521976</v>
       </c>
-      <c r="D96" t="inlineStr"/>
-      <c r="E96" t="inlineStr"/>
+      <c r="D96" t="n">
+        <v>6.842105263157895</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -2136,8 +1918,9 @@
       <c r="C97" t="n">
         <v>-4.913322906473725</v>
       </c>
-      <c r="D97" t="inlineStr"/>
-      <c r="E97" t="inlineStr"/>
+      <c r="D97" t="n">
+        <v>1.578947368421053</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -2151,8 +1934,9 @@
       <c r="C98" t="n">
         <v>13.59562250145308</v>
       </c>
-      <c r="D98" t="inlineStr"/>
-      <c r="E98" t="inlineStr"/>
+      <c r="D98" t="n">
+        <v>3.157894736842105</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -2166,8 +1950,9 @@
       <c r="C99" t="n">
         <v>53.23736181664064</v>
       </c>
-      <c r="D99" t="inlineStr"/>
-      <c r="E99" t="inlineStr"/>
+      <c r="D99" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -2181,8 +1966,9 @@
       <c r="C100" t="n">
         <v>54.33015747692558</v>
       </c>
-      <c r="D100" t="inlineStr"/>
-      <c r="E100" t="inlineStr"/>
+      <c r="D100" t="n">
+        <v>8.947368421052632</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
@@ -2196,8 +1982,9 @@
       <c r="C101" t="n">
         <v>39.31767991373134</v>
       </c>
-      <c r="D101" t="inlineStr"/>
-      <c r="E101" t="inlineStr"/>
+      <c r="D101" t="n">
+        <v>8.421052631578947</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
@@ -2211,13 +1998,8 @@
       <c r="C102" t="n">
         <v>39.44423931437469</v>
       </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>RUS</t>
-        </is>
-      </c>
-      <c r="E102" t="n">
-        <v>0.75</v>
+      <c r="D102" t="n">
+        <v>6.315789473684211</v>
       </c>
     </row>
     <row r="103">
@@ -2232,8 +2014,9 @@
       <c r="C103" t="n">
         <v>-16.88457584443223</v>
       </c>
-      <c r="D103" t="inlineStr"/>
-      <c r="E103" t="inlineStr"/>
+      <c r="D103" t="n">
+        <v>2.105263157894737</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
@@ -2247,12 +2030,7 @@
       <c r="C104" t="n">
         <v>-10.62548120542097</v>
       </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>TKM</t>
-        </is>
-      </c>
-      <c r="E104" t="n">
+      <c r="D104" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2268,13 +2046,8 @@
       <c r="C105" t="n">
         <v>15.66160961180648</v>
       </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>UKR</t>
-        </is>
-      </c>
-      <c r="E105" t="n">
-        <v>1</v>
+      <c r="D105" t="n">
+        <v>8.421052631578947</v>
       </c>
     </row>
     <row r="106">
@@ -2289,12 +2062,7 @@
       <c r="C106" t="n">
         <v>6.75753508670149</v>
       </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>UZB</t>
-        </is>
-      </c>
-      <c r="E106" t="n">
+      <c r="D106" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2310,13 +2078,8 @@
       <c r="C107" t="n">
         <v>29.59219368498573</v>
       </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>ARM</t>
-        </is>
-      </c>
-      <c r="E107" t="n">
-        <v>0.875</v>
+      <c r="D107" t="n">
+        <v>7.368421052631579</v>
       </c>
     </row>
     <row r="108">
@@ -2331,13 +2094,8 @@
       <c r="C108" t="n">
         <v>12.65883418351695</v>
       </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>AZE</t>
-        </is>
-      </c>
-      <c r="E108" t="n">
-        <v>0.125</v>
+      <c r="D108" t="n">
+        <v>1.052631578947368</v>
       </c>
     </row>
     <row r="109">
@@ -2352,13 +2110,8 @@
       <c r="C109" t="n">
         <v>53.6507596679146</v>
       </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>BLR</t>
-        </is>
-      </c>
-      <c r="E109" t="n">
-        <v>0.125</v>
+      <c r="D109" t="n">
+        <v>1.052631578947368</v>
       </c>
     </row>
     <row r="110">
@@ -2373,13 +2126,8 @@
       <c r="C110" t="n">
         <v>54.71030576232899</v>
       </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>EST</t>
-        </is>
-      </c>
-      <c r="E110" t="n">
-        <v>0.9375</v>
+      <c r="D110" t="n">
+        <v>7.894736842105264</v>
       </c>
     </row>
     <row r="111">
@@ -2394,8 +2142,9 @@
       <c r="C111" t="n">
         <v>4.270691079999959</v>
       </c>
-      <c r="D111" t="inlineStr"/>
-      <c r="E111" t="inlineStr"/>
+      <c r="D111" t="n">
+        <v>6.842105263157895</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
@@ -2409,8 +2158,9 @@
       <c r="C112" t="n">
         <v>-3.10967304986716</v>
       </c>
-      <c r="D112" t="inlineStr"/>
-      <c r="E112" t="inlineStr"/>
+      <c r="D112" t="n">
+        <v>1.578947368421053</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
@@ -2424,8 +2174,9 @@
       <c r="C113" t="n">
         <v>9.251323957560386</v>
       </c>
-      <c r="D113" t="inlineStr"/>
-      <c r="E113" t="inlineStr"/>
+      <c r="D113" t="n">
+        <v>3.157894736842105</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
@@ -2439,8 +2190,9 @@
       <c r="C114" t="n">
         <v>53.38748046606941</v>
       </c>
-      <c r="D114" t="inlineStr"/>
-      <c r="E114" t="inlineStr"/>
+      <c r="D114" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
@@ -2454,8 +2206,9 @@
       <c r="C115" t="n">
         <v>53.96727969459677</v>
       </c>
-      <c r="D115" t="inlineStr"/>
-      <c r="E115" t="inlineStr"/>
+      <c r="D115" t="n">
+        <v>8.947368421052632</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
@@ -2469,8 +2222,9 @@
       <c r="C116" t="n">
         <v>33.02673254708883</v>
       </c>
-      <c r="D116" t="inlineStr"/>
-      <c r="E116" t="inlineStr"/>
+      <c r="D116" t="n">
+        <v>8.421052631578947</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
@@ -2484,13 +2238,8 @@
       <c r="C117" t="n">
         <v>39.59424534545348</v>
       </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>RUS</t>
-        </is>
-      </c>
-      <c r="E117" t="n">
-        <v>0.75</v>
+      <c r="D117" t="n">
+        <v>6.315789473684211</v>
       </c>
     </row>
     <row r="118">
@@ -2505,8 +2254,9 @@
       <c r="C118" t="n">
         <v>-17.22051515509202</v>
       </c>
-      <c r="D118" t="inlineStr"/>
-      <c r="E118" t="inlineStr"/>
+      <c r="D118" t="n">
+        <v>4.210526315789473</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
@@ -2520,12 +2270,7 @@
       <c r="C119" t="n">
         <v>-11.68808848191284</v>
       </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>TKM</t>
-        </is>
-      </c>
-      <c r="E119" t="n">
+      <c r="D119" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2541,13 +2286,8 @@
       <c r="C120" t="n">
         <v>16.37920889575978</v>
       </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>UKR</t>
-        </is>
-      </c>
-      <c r="E120" t="n">
-        <v>1</v>
+      <c r="D120" t="n">
+        <v>8.421052631578947</v>
       </c>
     </row>
     <row r="121">
@@ -2562,12 +2302,7 @@
       <c r="C121" t="n">
         <v>6.777747344815602</v>
       </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>UZB</t>
-        </is>
-      </c>
-      <c r="E121" t="n">
+      <c r="D121" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2583,13 +2318,8 @@
       <c r="C122" t="n">
         <v>29.50782333135275</v>
       </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>ARM</t>
-        </is>
-      </c>
-      <c r="E122" t="n">
-        <v>0.875</v>
+      <c r="D122" t="n">
+        <v>7.368421052631579</v>
       </c>
     </row>
     <row r="123">
@@ -2604,13 +2334,8 @@
       <c r="C123" t="n">
         <v>13.49689742230152</v>
       </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>AZE</t>
-        </is>
-      </c>
-      <c r="E123" t="n">
-        <v>0.125</v>
+      <c r="D123" t="n">
+        <v>1.052631578947368</v>
       </c>
     </row>
     <row r="124">
@@ -2625,13 +2350,8 @@
       <c r="C124" t="n">
         <v>56.71858219927757</v>
       </c>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>BLR</t>
-        </is>
-      </c>
-      <c r="E124" t="n">
-        <v>0.125</v>
+      <c r="D124" t="n">
+        <v>1.052631578947368</v>
       </c>
     </row>
     <row r="125">
@@ -2646,13 +2366,8 @@
       <c r="C125" t="n">
         <v>52.05301882171619</v>
       </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>EST</t>
-        </is>
-      </c>
-      <c r="E125" t="n">
-        <v>1</v>
+      <c r="D125" t="n">
+        <v>8.421052631578947</v>
       </c>
     </row>
     <row r="126">
@@ -2667,8 +2382,9 @@
       <c r="C126" t="n">
         <v>2.64446018486836</v>
       </c>
-      <c r="D126" t="inlineStr"/>
-      <c r="E126" t="inlineStr"/>
+      <c r="D126" t="n">
+        <v>6.842105263157895</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
@@ -2682,8 +2398,9 @@
       <c r="C127" t="n">
         <v>-1.122021628949754</v>
       </c>
-      <c r="D127" t="inlineStr"/>
-      <c r="E127" t="inlineStr"/>
+      <c r="D127" t="n">
+        <v>1.578947368421053</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
@@ -2697,8 +2414,9 @@
       <c r="C128" t="n">
         <v>13.07111058794599</v>
       </c>
-      <c r="D128" t="inlineStr"/>
-      <c r="E128" t="inlineStr"/>
+      <c r="D128" t="n">
+        <v>3.157894736842105</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
@@ -2712,8 +2430,9 @@
       <c r="C129" t="n">
         <v>56.632443606371</v>
       </c>
-      <c r="D129" t="inlineStr"/>
-      <c r="E129" t="inlineStr"/>
+      <c r="D129" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
@@ -2727,8 +2446,9 @@
       <c r="C130" t="n">
         <v>52.20458956427719</v>
       </c>
-      <c r="D130" t="inlineStr"/>
-      <c r="E130" t="inlineStr"/>
+      <c r="D130" t="n">
+        <v>8.947368421052632</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
@@ -2742,8 +2462,9 @@
       <c r="C131" t="n">
         <v>30.27251183293977</v>
       </c>
-      <c r="D131" t="inlineStr"/>
-      <c r="E131" t="inlineStr"/>
+      <c r="D131" t="n">
+        <v>8.421052631578947</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
@@ -2757,13 +2478,8 @@
       <c r="C132" t="n">
         <v>42.83044525795717</v>
       </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>RUS</t>
-        </is>
-      </c>
-      <c r="E132" t="n">
-        <v>0.75</v>
+      <c r="D132" t="n">
+        <v>6.315789473684211</v>
       </c>
     </row>
     <row r="133">
@@ -2778,8 +2494,9 @@
       <c r="C133" t="n">
         <v>-8.375095636276381</v>
       </c>
-      <c r="D133" t="inlineStr"/>
-      <c r="E133" t="inlineStr"/>
+      <c r="D133" t="n">
+        <v>4.210526315789473</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
@@ -2793,12 +2510,7 @@
       <c r="C134" t="n">
         <v>-11.99376487915243</v>
       </c>
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>TKM</t>
-        </is>
-      </c>
-      <c r="E134" t="n">
+      <c r="D134" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2814,13 +2526,8 @@
       <c r="C135" t="n">
         <v>26.95562108311358</v>
       </c>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>UKR</t>
-        </is>
-      </c>
-      <c r="E135" t="n">
-        <v>1</v>
+      <c r="D135" t="n">
+        <v>8.421052631578947</v>
       </c>
     </row>
     <row r="136">
@@ -2835,12 +2542,7 @@
       <c r="C136" t="n">
         <v>12.59044323995289</v>
       </c>
-      <c r="D136" t="inlineStr">
-        <is>
-          <t>UZB</t>
-        </is>
-      </c>
-      <c r="E136" t="n">
+      <c r="D136" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2856,13 +2558,8 @@
       <c r="C137" t="n">
         <v>35.63449466219708</v>
       </c>
-      <c r="D137" t="inlineStr">
-        <is>
-          <t>ARM</t>
-        </is>
-      </c>
-      <c r="E137" t="n">
-        <v>0.7777777777777778</v>
+      <c r="D137" t="n">
+        <v>7.368421052631579</v>
       </c>
     </row>
     <row r="138">
@@ -2877,13 +2574,8 @@
       <c r="C138" t="n">
         <v>9.19046883564261</v>
       </c>
-      <c r="D138" t="inlineStr">
-        <is>
-          <t>AZE</t>
-        </is>
-      </c>
-      <c r="E138" t="n">
-        <v>0.1111111111111111</v>
+      <c r="D138" t="n">
+        <v>1.052631578947368</v>
       </c>
     </row>
     <row r="139">
@@ -2898,13 +2590,8 @@
       <c r="C139" t="n">
         <v>61.78348237446229</v>
       </c>
-      <c r="D139" t="inlineStr">
-        <is>
-          <t>BLR</t>
-        </is>
-      </c>
-      <c r="E139" t="n">
-        <v>0.1111111111111111</v>
+      <c r="D139" t="n">
+        <v>1.052631578947368</v>
       </c>
     </row>
     <row r="140">
@@ -2919,13 +2606,8 @@
       <c r="C140" t="n">
         <v>48.93128579018828</v>
       </c>
-      <c r="D140" t="inlineStr">
-        <is>
-          <t>EST</t>
-        </is>
-      </c>
-      <c r="E140" t="n">
-        <v>1</v>
+      <c r="D140" t="n">
+        <v>9.473684210526315</v>
       </c>
     </row>
     <row r="141">
@@ -2940,8 +2622,9 @@
       <c r="C141" t="n">
         <v>7.615063552643528</v>
       </c>
-      <c r="D141" t="inlineStr"/>
-      <c r="E141" t="inlineStr"/>
+      <c r="D141" t="n">
+        <v>5.789473684210527</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
@@ -2955,8 +2638,9 @@
       <c r="C142" t="n">
         <v>10.81445806105198</v>
       </c>
-      <c r="D142" t="inlineStr"/>
-      <c r="E142" t="inlineStr"/>
+      <c r="D142" t="n">
+        <v>1.578947368421053</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
@@ -2970,8 +2654,9 @@
       <c r="C143" t="n">
         <v>12.24727015304525</v>
       </c>
-      <c r="D143" t="inlineStr"/>
-      <c r="E143" t="inlineStr"/>
+      <c r="D143" t="n">
+        <v>3.157894736842105</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
@@ -2985,8 +2670,9 @@
       <c r="C144" t="n">
         <v>59.60840297947753</v>
       </c>
-      <c r="D144" t="inlineStr"/>
-      <c r="E144" t="inlineStr"/>
+      <c r="D144" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
@@ -3000,8 +2686,9 @@
       <c r="C145" t="n">
         <v>53.77669860606782</v>
       </c>
-      <c r="D145" t="inlineStr"/>
-      <c r="E145" t="inlineStr"/>
+      <c r="D145" t="n">
+        <v>8.947368421052632</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
@@ -3015,8 +2702,9 @@
       <c r="C146" t="n">
         <v>33.55273744125673</v>
       </c>
-      <c r="D146" t="inlineStr"/>
-      <c r="E146" t="inlineStr"/>
+      <c r="D146" t="n">
+        <v>8.421052631578947</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
@@ -3030,13 +2718,8 @@
       <c r="C147" t="n">
         <v>54.07195880035005</v>
       </c>
-      <c r="D147" t="inlineStr">
-        <is>
-          <t>RUS</t>
-        </is>
-      </c>
-      <c r="E147" t="n">
-        <v>0.8333333333333334</v>
+      <c r="D147" t="n">
+        <v>7.894736842105264</v>
       </c>
     </row>
     <row r="148">
@@ -3051,8 +2734,9 @@
       <c r="C148" t="n">
         <v>-17.92102800594672</v>
       </c>
-      <c r="D148" t="inlineStr"/>
-      <c r="E148" t="inlineStr"/>
+      <c r="D148" t="n">
+        <v>4.210526315789473</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
@@ -3066,12 +2750,7 @@
       <c r="C149" t="n">
         <v>4.964715032206549</v>
       </c>
-      <c r="D149" t="inlineStr">
-        <is>
-          <t>TKM</t>
-        </is>
-      </c>
-      <c r="E149" t="n">
+      <c r="D149" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3087,13 +2766,8 @@
       <c r="C150" t="n">
         <v>35.50511331824693</v>
       </c>
-      <c r="D150" t="inlineStr">
-        <is>
-          <t>UKR</t>
-        </is>
-      </c>
-      <c r="E150" t="n">
-        <v>0.8333333333333334</v>
+      <c r="D150" t="n">
+        <v>7.894736842105264</v>
       </c>
     </row>
     <row r="151">
@@ -3108,12 +2782,7 @@
       <c r="C151" t="n">
         <v>7.469874342018132</v>
       </c>
-      <c r="D151" t="inlineStr">
-        <is>
-          <t>UZB</t>
-        </is>
-      </c>
-      <c r="E151" t="n">
+      <c r="D151" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3129,13 +2798,8 @@
       <c r="C152" t="n">
         <v>47.28741049867832</v>
       </c>
-      <c r="D152" t="inlineStr">
-        <is>
-          <t>ARM</t>
-        </is>
-      </c>
-      <c r="E152" t="n">
-        <v>0.7777777777777778</v>
+      <c r="D152" t="n">
+        <v>7.368421052631579</v>
       </c>
     </row>
     <row r="153">
@@ -3150,13 +2814,8 @@
       <c r="C153" t="n">
         <v>3.617984867565495</v>
       </c>
-      <c r="D153" t="inlineStr">
-        <is>
-          <t>AZE</t>
-        </is>
-      </c>
-      <c r="E153" t="n">
-        <v>0.1111111111111111</v>
+      <c r="D153" t="n">
+        <v>1.052631578947368</v>
       </c>
     </row>
     <row r="154">
@@ -3171,13 +2830,8 @@
       <c r="C154" t="n">
         <v>77.18773950137764</v>
       </c>
-      <c r="D154" t="inlineStr">
-        <is>
-          <t>BLR</t>
-        </is>
-      </c>
-      <c r="E154" t="n">
-        <v>0.1111111111111111</v>
+      <c r="D154" t="n">
+        <v>1.052631578947368</v>
       </c>
     </row>
     <row r="155">
@@ -3192,13 +2846,8 @@
       <c r="C155" t="n">
         <v>39.19451090291866</v>
       </c>
-      <c r="D155" t="inlineStr">
-        <is>
-          <t>EST</t>
-        </is>
-      </c>
-      <c r="E155" t="n">
-        <v>1</v>
+      <c r="D155" t="n">
+        <v>9.473684210526315</v>
       </c>
     </row>
     <row r="156">
@@ -3213,8 +2862,9 @@
       <c r="C156" t="n">
         <v>2.353521688477131</v>
       </c>
-      <c r="D156" t="inlineStr"/>
-      <c r="E156" t="inlineStr"/>
+      <c r="D156" t="n">
+        <v>5.789473684210527</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
@@ -3228,8 +2878,9 @@
       <c r="C157" t="n">
         <v>14.33907856839032</v>
       </c>
-      <c r="D157" t="inlineStr"/>
-      <c r="E157" t="inlineStr"/>
+      <c r="D157" t="n">
+        <v>1.578947368421053</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
@@ -3243,8 +2894,9 @@
       <c r="C158" t="n">
         <v>13.14104609223054</v>
       </c>
-      <c r="D158" t="inlineStr"/>
-      <c r="E158" t="inlineStr"/>
+      <c r="D158" t="n">
+        <v>3.157894736842105</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
@@ -3258,8 +2910,9 @@
       <c r="C159" t="n">
         <v>57.13728286308818</v>
       </c>
-      <c r="D159" t="inlineStr"/>
-      <c r="E159" t="inlineStr"/>
+      <c r="D159" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
@@ -3273,8 +2926,9 @@
       <c r="C160" t="n">
         <v>55.1262589336087</v>
       </c>
-      <c r="D160" t="inlineStr"/>
-      <c r="E160" t="inlineStr"/>
+      <c r="D160" t="n">
+        <v>8.947368421052632</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
@@ -3288,8 +2942,9 @@
       <c r="C161" t="n">
         <v>24.84206753946236</v>
       </c>
-      <c r="D161" t="inlineStr"/>
-      <c r="E161" t="inlineStr"/>
+      <c r="D161" t="n">
+        <v>8.947368421052632</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
@@ -3303,13 +2958,8 @@
       <c r="C162" t="n">
         <v>55.43179468096666</v>
       </c>
-      <c r="D162" t="inlineStr">
-        <is>
-          <t>RUS</t>
-        </is>
-      </c>
-      <c r="E162" t="n">
-        <v>0.8333333333333334</v>
+      <c r="D162" t="n">
+        <v>7.894736842105264</v>
       </c>
     </row>
     <row r="163">
@@ -3324,8 +2974,9 @@
       <c r="C163" t="n">
         <v>-10.02659637226525</v>
       </c>
-      <c r="D163" t="inlineStr"/>
-      <c r="E163" t="inlineStr"/>
+      <c r="D163" t="n">
+        <v>4.210526315789473</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
@@ -3339,12 +2990,7 @@
       <c r="C164" t="n">
         <v>6.850704255844539</v>
       </c>
-      <c r="D164" t="inlineStr">
-        <is>
-          <t>TKM</t>
-        </is>
-      </c>
-      <c r="E164" t="n">
+      <c r="D164" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3360,13 +3006,8 @@
       <c r="C165" t="n">
         <v>28.47652674018615</v>
       </c>
-      <c r="D165" t="inlineStr">
-        <is>
-          <t>UKR</t>
-        </is>
-      </c>
-      <c r="E165" t="n">
-        <v>0.8333333333333334</v>
+      <c r="D165" t="n">
+        <v>7.894736842105264</v>
       </c>
     </row>
     <row r="166">
@@ -3381,12 +3022,7 @@
       <c r="C166" t="n">
         <v>7.992296829870238</v>
       </c>
-      <c r="D166" t="inlineStr">
-        <is>
-          <t>UZB</t>
-        </is>
-      </c>
-      <c r="E166" t="n">
+      <c r="D166" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3402,13 +3038,8 @@
       <c r="C167" t="n">
         <v>25.65360205334688</v>
       </c>
-      <c r="D167" t="inlineStr">
-        <is>
-          <t>ARM</t>
-        </is>
-      </c>
-      <c r="E167" t="n">
-        <v>0.7777777777777778</v>
+      <c r="D167" t="n">
+        <v>7.368421052631579</v>
       </c>
     </row>
     <row r="168">
@@ -3423,13 +3054,8 @@
       <c r="C168" t="n">
         <v>28.84577365693811</v>
       </c>
-      <c r="D168" t="inlineStr">
-        <is>
-          <t>AZE</t>
-        </is>
-      </c>
-      <c r="E168" t="n">
-        <v>0.1111111111111111</v>
+      <c r="D168" t="n">
+        <v>1.052631578947368</v>
       </c>
     </row>
     <row r="169">
@@ -3444,13 +3070,8 @@
       <c r="C169" t="n">
         <v>74.26954001133447</v>
       </c>
-      <c r="D169" t="inlineStr">
-        <is>
-          <t>BLR</t>
-        </is>
-      </c>
-      <c r="E169" t="n">
-        <v>0.1111111111111111</v>
+      <c r="D169" t="n">
+        <v>1.052631578947368</v>
       </c>
     </row>
     <row r="170">
@@ -3465,13 +3086,8 @@
       <c r="C170" t="n">
         <v>45.97900671956249</v>
       </c>
-      <c r="D170" t="inlineStr">
-        <is>
-          <t>EST</t>
-        </is>
-      </c>
-      <c r="E170" t="n">
-        <v>1</v>
+      <c r="D170" t="n">
+        <v>9.473684210526315</v>
       </c>
     </row>
     <row r="171">
@@ -3486,8 +3102,9 @@
       <c r="C171" t="n">
         <v>27.05568103624845</v>
       </c>
-      <c r="D171" t="inlineStr"/>
-      <c r="E171" t="inlineStr"/>
+      <c r="D171" t="n">
+        <v>5.789473684210527</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
@@ -3501,8 +3118,9 @@
       <c r="C172" t="n">
         <v>28.34677475895946</v>
       </c>
-      <c r="D172" t="inlineStr"/>
-      <c r="E172" t="inlineStr"/>
+      <c r="D172" t="n">
+        <v>1.578947368421053</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
@@ -3516,8 +3134,9 @@
       <c r="C173" t="n">
         <v>17.76195013564583</v>
       </c>
-      <c r="D173" t="inlineStr"/>
-      <c r="E173" t="inlineStr"/>
+      <c r="D173" t="n">
+        <v>3.157894736842105</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
@@ -3531,8 +3150,9 @@
       <c r="C174" t="n">
         <v>64.56839528974747</v>
       </c>
-      <c r="D174" t="inlineStr"/>
-      <c r="E174" t="inlineStr"/>
+      <c r="D174" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
@@ -3546,8 +3166,9 @@
       <c r="C175" t="n">
         <v>54.37116919284024</v>
       </c>
-      <c r="D175" t="inlineStr"/>
-      <c r="E175" t="inlineStr"/>
+      <c r="D175" t="n">
+        <v>8.947368421052632</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
@@ -3561,8 +3182,9 @@
       <c r="C176" t="n">
         <v>28.01907225685156</v>
       </c>
-      <c r="D176" t="inlineStr"/>
-      <c r="E176" t="inlineStr"/>
+      <c r="D176" t="n">
+        <v>8.947368421052632</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
@@ -3576,13 +3198,8 @@
       <c r="C177" t="n">
         <v>51.43988108098891</v>
       </c>
-      <c r="D177" t="inlineStr">
-        <is>
-          <t>RUS</t>
-        </is>
-      </c>
-      <c r="E177" t="n">
-        <v>0.8333333333333334</v>
+      <c r="D177" t="n">
+        <v>7.894736842105264</v>
       </c>
     </row>
     <row r="178">
@@ -3597,8 +3214,9 @@
       <c r="C178" t="n">
         <v>0.6117300634264775</v>
       </c>
-      <c r="D178" t="inlineStr"/>
-      <c r="E178" t="inlineStr"/>
+      <c r="D178" t="n">
+        <v>4.210526315789473</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
@@ -3612,12 +3230,7 @@
       <c r="C179" t="n">
         <v>9.405237520294619</v>
       </c>
-      <c r="D179" t="inlineStr">
-        <is>
-          <t>TKM</t>
-        </is>
-      </c>
-      <c r="E179" t="n">
+      <c r="D179" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3633,13 +3246,8 @@
       <c r="C180" t="n">
         <v>31.5202064767768</v>
       </c>
-      <c r="D180" t="inlineStr">
-        <is>
-          <t>UKR</t>
-        </is>
-      </c>
-      <c r="E180" t="n">
-        <v>0.8333333333333334</v>
+      <c r="D180" t="n">
+        <v>7.894736842105264</v>
       </c>
     </row>
     <row r="181">
@@ -3654,12 +3262,7 @@
       <c r="C181" t="n">
         <v>11.27987470666112</v>
       </c>
-      <c r="D181" t="inlineStr">
-        <is>
-          <t>UZB</t>
-        </is>
-      </c>
-      <c r="E181" t="n">
+      <c r="D181" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3675,13 +3278,8 @@
       <c r="C182" t="n">
         <v>37.65292932722776</v>
       </c>
-      <c r="D182" t="inlineStr">
-        <is>
-          <t>ARM</t>
-        </is>
-      </c>
-      <c r="E182" t="n">
-        <v>0.7777777777777778</v>
+      <c r="D182" t="n">
+        <v>7.368421052631579</v>
       </c>
     </row>
     <row r="183">
@@ -3696,13 +3294,8 @@
       <c r="C183" t="n">
         <v>4.17300866098816</v>
       </c>
-      <c r="D183" t="inlineStr">
-        <is>
-          <t>AZE</t>
-        </is>
-      </c>
-      <c r="E183" t="n">
-        <v>0.1111111111111111</v>
+      <c r="D183" t="n">
+        <v>1.052631578947368</v>
       </c>
     </row>
     <row r="184">
@@ -3717,13 +3310,8 @@
       <c r="C184" t="n">
         <v>82.55583372523975</v>
       </c>
-      <c r="D184" t="inlineStr">
-        <is>
-          <t>BLR</t>
-        </is>
-      </c>
-      <c r="E184" t="n">
-        <v>0.1111111111111111</v>
+      <c r="D184" t="n">
+        <v>1.052631578947368</v>
       </c>
     </row>
     <row r="185">
@@ -3738,13 +3326,8 @@
       <c r="C185" t="n">
         <v>45.99476810724752</v>
       </c>
-      <c r="D185" t="inlineStr">
-        <is>
-          <t>EST</t>
-        </is>
-      </c>
-      <c r="E185" t="n">
-        <v>1</v>
+      <c r="D185" t="n">
+        <v>9.473684210526315</v>
       </c>
     </row>
     <row r="186">
@@ -3759,8 +3342,9 @@
       <c r="C186" t="n">
         <v>8.861340948728509</v>
       </c>
-      <c r="D186" t="inlineStr"/>
-      <c r="E186" t="inlineStr"/>
+      <c r="D186" t="n">
+        <v>5.789473684210527</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
@@ -3774,8 +3358,9 @@
       <c r="C187" t="n">
         <v>22.89241171672663</v>
       </c>
-      <c r="D187" t="inlineStr"/>
-      <c r="E187" t="inlineStr"/>
+      <c r="D187" t="n">
+        <v>1.578947368421053</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
@@ -3789,8 +3374,9 @@
       <c r="C188" t="n">
         <v>13.74996996952848</v>
       </c>
-      <c r="D188" t="inlineStr"/>
-      <c r="E188" t="inlineStr"/>
+      <c r="D188" t="n">
+        <v>3.157894736842105</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
@@ -3804,8 +3390,9 @@
       <c r="C189" t="n">
         <v>63.8163669597952</v>
       </c>
-      <c r="D189" t="inlineStr"/>
-      <c r="E189" t="inlineStr"/>
+      <c r="D189" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
@@ -3819,8 +3406,9 @@
       <c r="C190" t="n">
         <v>54.22780954303355</v>
       </c>
-      <c r="D190" t="inlineStr"/>
-      <c r="E190" t="inlineStr"/>
+      <c r="D190" t="n">
+        <v>8.947368421052632</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
@@ -3834,8 +3422,9 @@
       <c r="C191" t="n">
         <v>33.02871406388397</v>
       </c>
-      <c r="D191" t="inlineStr"/>
-      <c r="E191" t="inlineStr"/>
+      <c r="D191" t="n">
+        <v>8.947368421052632</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
@@ -3849,13 +3438,8 @@
       <c r="C192" t="n">
         <v>51.66693614132563</v>
       </c>
-      <c r="D192" t="inlineStr">
-        <is>
-          <t>RUS</t>
-        </is>
-      </c>
-      <c r="E192" t="n">
-        <v>0.8333333333333334</v>
+      <c r="D192" t="n">
+        <v>7.894736842105264</v>
       </c>
     </row>
     <row r="193">
@@ -3870,8 +3454,9 @@
       <c r="C193" t="n">
         <v>14.7516726845671</v>
       </c>
-      <c r="D193" t="inlineStr"/>
-      <c r="E193" t="inlineStr"/>
+      <c r="D193" t="n">
+        <v>3.157894736842105</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
@@ -3885,12 +3470,7 @@
       <c r="C194" t="n">
         <v>14.10275384178381</v>
       </c>
-      <c r="D194" t="inlineStr">
-        <is>
-          <t>TKM</t>
-        </is>
-      </c>
-      <c r="E194" t="n">
+      <c r="D194" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3906,13 +3486,8 @@
       <c r="C195" t="n">
         <v>33.61167162322367</v>
       </c>
-      <c r="D195" t="inlineStr">
-        <is>
-          <t>UKR</t>
-        </is>
-      </c>
-      <c r="E195" t="n">
-        <v>0.8333333333333334</v>
+      <c r="D195" t="n">
+        <v>7.894736842105264</v>
       </c>
     </row>
     <row r="196">
@@ -3927,12 +3502,7 @@
       <c r="C196" t="n">
         <v>7.429420510305384</v>
       </c>
-      <c r="D196" t="inlineStr">
-        <is>
-          <t>UZB</t>
-        </is>
-      </c>
-      <c r="E196" t="n">
+      <c r="D196" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3948,13 +3518,8 @@
       <c r="C197" t="n">
         <v>53.02971507074423</v>
       </c>
-      <c r="D197" t="inlineStr">
-        <is>
-          <t>ARM</t>
-        </is>
-      </c>
-      <c r="E197" t="n">
-        <v>0.7777777777777778</v>
+      <c r="D197" t="n">
+        <v>7.368421052631579</v>
       </c>
     </row>
     <row r="198">
@@ -3969,13 +3534,8 @@
       <c r="C198" t="n">
         <v>8.091649034594184</v>
       </c>
-      <c r="D198" t="inlineStr">
-        <is>
-          <t>AZE</t>
-        </is>
-      </c>
-      <c r="E198" t="n">
-        <v>0.1111111111111111</v>
+      <c r="D198" t="n">
+        <v>1.052631578947368</v>
       </c>
     </row>
     <row r="199">
@@ -3990,13 +3550,8 @@
       <c r="C199" t="n">
         <v>81.81412579486134</v>
       </c>
-      <c r="D199" t="inlineStr">
-        <is>
-          <t>BLR</t>
-        </is>
-      </c>
-      <c r="E199" t="n">
-        <v>0.1111111111111111</v>
+      <c r="D199" t="n">
+        <v>1.052631578947368</v>
       </c>
     </row>
     <row r="200">
@@ -4011,13 +3566,8 @@
       <c r="C200" t="n">
         <v>42.9489100001971</v>
       </c>
-      <c r="D200" t="inlineStr">
-        <is>
-          <t>EST</t>
-        </is>
-      </c>
-      <c r="E200" t="n">
-        <v>1</v>
+      <c r="D200" t="n">
+        <v>9.473684210526315</v>
       </c>
     </row>
     <row r="201">
@@ -4032,8 +3582,9 @@
       <c r="C201" t="n">
         <v>7.291056029648919</v>
       </c>
-      <c r="D201" t="inlineStr"/>
-      <c r="E201" t="inlineStr"/>
+      <c r="D201" t="n">
+        <v>7.894736842105264</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
@@ -4047,8 +3598,9 @@
       <c r="C202" t="n">
         <v>21.56705779206542</v>
       </c>
-      <c r="D202" t="inlineStr"/>
-      <c r="E202" t="inlineStr"/>
+      <c r="D202" t="n">
+        <v>1.578947368421053</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
@@ -4062,8 +3614,9 @@
       <c r="C203" t="n">
         <v>13.41251455314646</v>
       </c>
-      <c r="D203" t="inlineStr"/>
-      <c r="E203" t="inlineStr"/>
+      <c r="D203" t="n">
+        <v>3.157894736842105</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
@@ -4077,8 +3630,9 @@
       <c r="C204" t="n">
         <v>64.50536812077274</v>
       </c>
-      <c r="D204" t="inlineStr"/>
-      <c r="E204" t="inlineStr"/>
+      <c r="D204" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
@@ -4092,8 +3646,9 @@
       <c r="C205" t="n">
         <v>51.02255639097744</v>
       </c>
-      <c r="D205" t="inlineStr"/>
-      <c r="E205" t="inlineStr"/>
+      <c r="D205" t="n">
+        <v>8.947368421052632</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
@@ -4107,8 +3662,9 @@
       <c r="C206" t="n">
         <v>33.21491918332234</v>
       </c>
-      <c r="D206" t="inlineStr"/>
-      <c r="E206" t="inlineStr"/>
+      <c r="D206" t="n">
+        <v>8.947368421052632</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
@@ -4122,13 +3678,8 @@
       <c r="C207" t="n">
         <v>47.83131713299524</v>
       </c>
-      <c r="D207" t="inlineStr">
-        <is>
-          <t>RUS</t>
-        </is>
-      </c>
-      <c r="E207" t="n">
-        <v>0.8333333333333334</v>
+      <c r="D207" t="n">
+        <v>7.894736842105264</v>
       </c>
     </row>
     <row r="208">
@@ -4143,8 +3694,9 @@
       <c r="C208" t="n">
         <v>-12.28621006703385</v>
       </c>
-      <c r="D208" t="inlineStr"/>
-      <c r="E208" t="inlineStr"/>
+      <c r="D208" t="n">
+        <v>3.157894736842105</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
@@ -4158,12 +3710,7 @@
       <c r="C209" t="n">
         <v>12.16063964906313</v>
       </c>
-      <c r="D209" t="inlineStr">
-        <is>
-          <t>TKM</t>
-        </is>
-      </c>
-      <c r="E209" t="n">
+      <c r="D209" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4179,13 +3726,8 @@
       <c r="C210" t="n">
         <v>22.0267319696206</v>
       </c>
-      <c r="D210" t="inlineStr">
-        <is>
-          <t>UKR</t>
-        </is>
-      </c>
-      <c r="E210" t="n">
-        <v>0.8333333333333334</v>
+      <c r="D210" t="n">
+        <v>7.894736842105264</v>
       </c>
     </row>
     <row r="211">
@@ -4200,12 +3742,7 @@
       <c r="C211" t="n">
         <v>7.033870981699427</v>
       </c>
-      <c r="D211" t="inlineStr">
-        <is>
-          <t>UZB</t>
-        </is>
-      </c>
-      <c r="E211" t="n">
+      <c r="D211" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4221,13 +3758,8 @@
       <c r="C212" t="n">
         <v>57.31392382715325</v>
       </c>
-      <c r="D212" t="inlineStr">
-        <is>
-          <t>ARM</t>
-        </is>
-      </c>
-      <c r="E212" t="n">
-        <v>0.7777777777777778</v>
+      <c r="D212" t="n">
+        <v>7.368421052631579</v>
       </c>
     </row>
     <row r="213">
@@ -4242,13 +3774,8 @@
       <c r="C213" t="n">
         <v>18.6166540612599</v>
       </c>
-      <c r="D213" t="inlineStr">
-        <is>
-          <t>AZE</t>
-        </is>
-      </c>
-      <c r="E213" t="n">
-        <v>0.1111111111111111</v>
+      <c r="D213" t="n">
+        <v>1.052631578947368</v>
       </c>
     </row>
     <row r="214">
@@ -4263,13 +3790,8 @@
       <c r="C214" t="n">
         <v>83.33985587468746</v>
       </c>
-      <c r="D214" t="inlineStr">
-        <is>
-          <t>BLR</t>
-        </is>
-      </c>
-      <c r="E214" t="n">
-        <v>0.1111111111111111</v>
+      <c r="D214" t="n">
+        <v>1.052631578947368</v>
       </c>
     </row>
     <row r="215">
@@ -4284,13 +3806,8 @@
       <c r="C215" t="n">
         <v>40.81636684837027</v>
       </c>
-      <c r="D215" t="inlineStr">
-        <is>
-          <t>EST</t>
-        </is>
-      </c>
-      <c r="E215" t="n">
-        <v>1</v>
+      <c r="D215" t="n">
+        <v>9.473684210526315</v>
       </c>
     </row>
     <row r="216">
@@ -4305,8 +3822,9 @@
       <c r="C216" t="n">
         <v>2.466615290544414</v>
       </c>
-      <c r="D216" t="inlineStr"/>
-      <c r="E216" t="inlineStr"/>
+      <c r="D216" t="n">
+        <v>8.421052631578947</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
@@ -4320,8 +3838,9 @@
       <c r="C217" t="n">
         <v>16.57401419851015</v>
       </c>
-      <c r="D217" t="inlineStr"/>
-      <c r="E217" t="inlineStr"/>
+      <c r="D217" t="n">
+        <v>1.578947368421053</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
@@ -4335,8 +3854,9 @@
       <c r="C218" t="n">
         <v>11.34314763883826</v>
       </c>
-      <c r="D218" t="inlineStr"/>
-      <c r="E218" t="inlineStr"/>
+      <c r="D218" t="n">
+        <v>6.315789473684211</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
@@ -4350,8 +3870,9 @@
       <c r="C219" t="n">
         <v>62.87719390177411</v>
       </c>
-      <c r="D219" t="inlineStr"/>
-      <c r="E219" t="inlineStr"/>
+      <c r="D219" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
@@ -4365,8 +3886,9 @@
       <c r="C220" t="n">
         <v>49.06721357322645</v>
       </c>
-      <c r="D220" t="inlineStr"/>
-      <c r="E220" t="inlineStr"/>
+      <c r="D220" t="n">
+        <v>8.947368421052632</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
@@ -4380,8 +3902,9 @@
       <c r="C221" t="n">
         <v>36.94826877160295</v>
       </c>
-      <c r="D221" t="inlineStr"/>
-      <c r="E221" t="inlineStr"/>
+      <c r="D221" t="n">
+        <v>9.473684210526315</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
@@ -4395,13 +3918,8 @@
       <c r="C222" t="n">
         <v>52.5277907298962</v>
       </c>
-      <c r="D222" t="inlineStr">
-        <is>
-          <t>RUS</t>
-        </is>
-      </c>
-      <c r="E222" t="n">
-        <v>0.8333333333333334</v>
+      <c r="D222" t="n">
+        <v>7.894736842105264</v>
       </c>
     </row>
     <row r="223">
@@ -4416,8 +3934,9 @@
       <c r="C223" t="n">
         <v>4.929154040164961</v>
       </c>
-      <c r="D223" t="inlineStr"/>
-      <c r="E223" t="inlineStr"/>
+      <c r="D223" t="n">
+        <v>3.157894736842105</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
@@ -4431,12 +3950,7 @@
       <c r="C224" t="n">
         <v>12.65991458451861</v>
       </c>
-      <c r="D224" t="inlineStr">
-        <is>
-          <t>TKM</t>
-        </is>
-      </c>
-      <c r="E224" t="n">
+      <c r="D224" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4452,13 +3966,8 @@
       <c r="C225" t="n">
         <v>28.35343280374618</v>
       </c>
-      <c r="D225" t="inlineStr">
-        <is>
-          <t>UKR</t>
-        </is>
-      </c>
-      <c r="E225" t="n">
-        <v>0.8333333333333334</v>
+      <c r="D225" t="n">
+        <v>7.894736842105264</v>
       </c>
     </row>
     <row r="226">
@@ -4473,12 +3982,7 @@
       <c r="C226" t="n">
         <v>10.71140750065024</v>
       </c>
-      <c r="D226" t="inlineStr">
-        <is>
-          <t>UZB</t>
-        </is>
-      </c>
-      <c r="E226" t="n">
+      <c r="D226" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4494,13 +3998,8 @@
       <c r="C227" t="n">
         <v>37.17734274486563</v>
       </c>
-      <c r="D227" t="inlineStr">
-        <is>
-          <t>ARM</t>
-        </is>
-      </c>
-      <c r="E227" t="n">
-        <v>0.7777777777777778</v>
+      <c r="D227" t="n">
+        <v>7.368421052631579</v>
       </c>
     </row>
     <row r="228">
@@ -4515,13 +4014,8 @@
       <c r="C228" t="n">
         <v>15.04066744513833</v>
       </c>
-      <c r="D228" t="inlineStr">
-        <is>
-          <t>AZE</t>
-        </is>
-      </c>
-      <c r="E228" t="n">
-        <v>0.1111111111111111</v>
+      <c r="D228" t="n">
+        <v>1.052631578947368</v>
       </c>
     </row>
     <row r="229">
@@ -4536,13 +4030,8 @@
       <c r="C229" t="n">
         <v>88.33886109232333</v>
       </c>
-      <c r="D229" t="inlineStr">
-        <is>
-          <t>BLR</t>
-        </is>
-      </c>
-      <c r="E229" t="n">
-        <v>0.1111111111111111</v>
+      <c r="D229" t="n">
+        <v>1.052631578947368</v>
       </c>
     </row>
     <row r="230">
@@ -4557,13 +4046,8 @@
       <c r="C230" t="n">
         <v>37.00342871506527</v>
       </c>
-      <c r="D230" t="inlineStr">
-        <is>
-          <t>EST</t>
-        </is>
-      </c>
-      <c r="E230" t="n">
-        <v>1</v>
+      <c r="D230" t="n">
+        <v>9.473684210526315</v>
       </c>
     </row>
     <row r="231">
@@ -4578,8 +4062,9 @@
       <c r="C231" t="n">
         <v>17.98258152861374</v>
       </c>
-      <c r="D231" t="inlineStr"/>
-      <c r="E231" t="inlineStr"/>
+      <c r="D231" t="n">
+        <v>8.421052631578947</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
@@ -4593,8 +4078,9 @@
       <c r="C232" t="n">
         <v>17.43489218187464</v>
       </c>
-      <c r="D232" t="inlineStr"/>
-      <c r="E232" t="inlineStr"/>
+      <c r="D232" t="n">
+        <v>1.578947368421053</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
@@ -4608,8 +4094,9 @@
       <c r="C233" t="n">
         <v>10.75296918714737</v>
       </c>
-      <c r="D233" t="inlineStr"/>
-      <c r="E233" t="inlineStr"/>
+      <c r="D233" t="n">
+        <v>6.842105263157895</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
@@ -4623,8 +4110,9 @@
       <c r="C234" t="n">
         <v>58.20940688739127</v>
       </c>
-      <c r="D234" t="inlineStr"/>
-      <c r="E234" t="inlineStr"/>
+      <c r="D234" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
@@ -4638,8 +4126,9 @@
       <c r="C235" t="n">
         <v>59.4867402059932</v>
       </c>
-      <c r="D235" t="inlineStr"/>
-      <c r="E235" t="inlineStr"/>
+      <c r="D235" t="n">
+        <v>8.947368421052632</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
@@ -4653,8 +4142,9 @@
       <c r="C236" t="n">
         <v>33.8916570315004</v>
       </c>
-      <c r="D236" t="inlineStr"/>
-      <c r="E236" t="inlineStr"/>
+      <c r="D236" t="n">
+        <v>9.473684210526315</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
@@ -4668,13 +4158,8 @@
       <c r="C237" t="n">
         <v>45.94918496828573</v>
       </c>
-      <c r="D237" t="inlineStr">
-        <is>
-          <t>RUS</t>
-        </is>
-      </c>
-      <c r="E237" t="n">
-        <v>0.8333333333333334</v>
+      <c r="D237" t="n">
+        <v>7.894736842105264</v>
       </c>
     </row>
     <row r="238">
@@ -4689,8 +4174,9 @@
       <c r="C238" t="n">
         <v>-9.6465391515534</v>
       </c>
-      <c r="D238" t="inlineStr"/>
-      <c r="E238" t="inlineStr"/>
+      <c r="D238" t="n">
+        <v>3.157894736842105</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
@@ -4704,12 +4190,7 @@
       <c r="C239" t="n">
         <v>8.739082183890369</v>
       </c>
-      <c r="D239" t="inlineStr">
-        <is>
-          <t>TKM</t>
-        </is>
-      </c>
-      <c r="E239" t="n">
+      <c r="D239" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4725,13 +4206,8 @@
       <c r="C240" t="n">
         <v>21.48286735749966</v>
       </c>
-      <c r="D240" t="inlineStr">
-        <is>
-          <t>UKR</t>
-        </is>
-      </c>
-      <c r="E240" t="n">
-        <v>0.8888888888888888</v>
+      <c r="D240" t="n">
+        <v>8.421052631578947</v>
       </c>
     </row>
     <row r="241">
@@ -4746,12 +4222,7 @@
       <c r="C241" t="n">
         <v>1.901755822490008</v>
       </c>
-      <c r="D241" t="inlineStr">
-        <is>
-          <t>UZB</t>
-        </is>
-      </c>
-      <c r="E241" t="n">
+      <c r="D241" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4767,13 +4238,8 @@
       <c r="C242" t="n">
         <v>31.69439327970501</v>
       </c>
-      <c r="D242" t="inlineStr">
-        <is>
-          <t>ARM</t>
-        </is>
-      </c>
-      <c r="E242" t="n">
-        <v>0.7777777777777778</v>
+      <c r="D242" t="n">
+        <v>7.368421052631579</v>
       </c>
     </row>
     <row r="243">
@@ -4788,13 +4254,8 @@
       <c r="C243" t="n">
         <v>17.51343116442987</v>
       </c>
-      <c r="D243" t="inlineStr">
-        <is>
-          <t>AZE</t>
-        </is>
-      </c>
-      <c r="E243" t="n">
-        <v>0.1111111111111111</v>
+      <c r="D243" t="n">
+        <v>1.052631578947368</v>
       </c>
     </row>
     <row r="244">
@@ -4809,13 +4270,8 @@
       <c r="C244" t="n">
         <v>88.47254575707154</v>
       </c>
-      <c r="D244" t="inlineStr">
-        <is>
-          <t>BLR</t>
-        </is>
-      </c>
-      <c r="E244" t="n">
-        <v>0.1111111111111111</v>
+      <c r="D244" t="n">
+        <v>1.052631578947368</v>
       </c>
     </row>
     <row r="245">
@@ -4830,13 +4286,8 @@
       <c r="C245" t="n">
         <v>31.33708723198735</v>
       </c>
-      <c r="D245" t="inlineStr">
-        <is>
-          <t>EST</t>
-        </is>
-      </c>
-      <c r="E245" t="n">
-        <v>1</v>
+      <c r="D245" t="n">
+        <v>9.473684210526315</v>
       </c>
     </row>
     <row r="246">
@@ -4851,8 +4302,9 @@
       <c r="C246" t="n">
         <v>20.47774259351383</v>
       </c>
-      <c r="D246" t="inlineStr"/>
-      <c r="E246" t="inlineStr"/>
+      <c r="D246" t="n">
+        <v>7.894736842105264</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
@@ -4866,8 +4318,9 @@
       <c r="C247" t="n">
         <v>5.340321666856537</v>
       </c>
-      <c r="D247" t="inlineStr"/>
-      <c r="E247" t="inlineStr"/>
+      <c r="D247" t="n">
+        <v>1.578947368421053</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
@@ -4881,8 +4334,9 @@
       <c r="C248" t="n">
         <v>8.13037478669755</v>
       </c>
-      <c r="D248" t="inlineStr"/>
-      <c r="E248" t="inlineStr"/>
+      <c r="D248" t="n">
+        <v>6.315789473684211</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
@@ -4896,8 +4350,9 @@
       <c r="C249" t="n">
         <v>51.33590293177757</v>
       </c>
-      <c r="D249" t="inlineStr"/>
-      <c r="E249" t="inlineStr"/>
+      <c r="D249" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
@@ -4911,8 +4366,9 @@
       <c r="C250" t="n">
         <v>50.71286783427047</v>
       </c>
-      <c r="D250" t="inlineStr"/>
-      <c r="E250" t="inlineStr"/>
+      <c r="D250" t="n">
+        <v>8.947368421052632</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
@@ -4926,8 +4382,9 @@
       <c r="C251" t="n">
         <v>29.57716498686093</v>
       </c>
-      <c r="D251" t="inlineStr"/>
-      <c r="E251" t="inlineStr"/>
+      <c r="D251" t="n">
+        <v>9.473684210526315</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
@@ -4941,13 +4398,8 @@
       <c r="C252" t="n">
         <v>39.61151008149227</v>
       </c>
-      <c r="D252" t="inlineStr">
-        <is>
-          <t>RUS</t>
-        </is>
-      </c>
-      <c r="E252" t="n">
-        <v>0.7222222222222222</v>
+      <c r="D252" t="n">
+        <v>6.842105263157895</v>
       </c>
     </row>
     <row r="253">
@@ -4962,8 +4414,9 @@
       <c r="C253" t="n">
         <v>-12.73906604634116</v>
       </c>
-      <c r="D253" t="inlineStr"/>
-      <c r="E253" t="inlineStr"/>
+      <c r="D253" t="n">
+        <v>3.157894736842105</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
@@ -4977,12 +4430,7 @@
       <c r="C254" t="n">
         <v>4.007308762105055</v>
       </c>
-      <c r="D254" t="inlineStr">
-        <is>
-          <t>TKM</t>
-        </is>
-      </c>
-      <c r="E254" t="n">
+      <c r="D254" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4998,13 +4446,8 @@
       <c r="C255" t="n">
         <v>9.738865125571724</v>
       </c>
-      <c r="D255" t="inlineStr">
-        <is>
-          <t>UKR</t>
-        </is>
-      </c>
-      <c r="E255" t="n">
-        <v>0.8888888888888888</v>
+      <c r="D255" t="n">
+        <v>8.421052631578947</v>
       </c>
     </row>
     <row r="256">
@@ -5019,12 +4462,7 @@
       <c r="C256" t="n">
         <v>1.655082542121267</v>
       </c>
-      <c r="D256" t="inlineStr">
-        <is>
-          <t>UZB</t>
-        </is>
-      </c>
-      <c r="E256" t="n">
+      <c r="D256" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5040,13 +4478,8 @@
       <c r="C257" t="n">
         <v>35.96216561888605</v>
       </c>
-      <c r="D257" t="inlineStr">
-        <is>
-          <t>ARM</t>
-        </is>
-      </c>
-      <c r="E257" t="n">
-        <v>0.7777777777777778</v>
+      <c r="D257" t="n">
+        <v>7.368421052631579</v>
       </c>
     </row>
     <row r="258">
@@ -5061,13 +4494,8 @@
       <c r="C258" t="n">
         <v>23.69479393605545</v>
       </c>
-      <c r="D258" t="inlineStr">
-        <is>
-          <t>AZE</t>
-        </is>
-      </c>
-      <c r="E258" t="n">
-        <v>0.1111111111111111</v>
+      <c r="D258" t="n">
+        <v>1.052631578947368</v>
       </c>
     </row>
     <row r="259">
@@ -5082,13 +4510,8 @@
       <c r="C259" t="n">
         <v>86.23780794369029</v>
       </c>
-      <c r="D259" t="inlineStr">
-        <is>
-          <t>BLR</t>
-        </is>
-      </c>
-      <c r="E259" t="n">
-        <v>0.1111111111111111</v>
+      <c r="D259" t="n">
+        <v>1.052631578947368</v>
       </c>
     </row>
     <row r="260">
@@ -5103,13 +4526,8 @@
       <c r="C260" t="n">
         <v>27.87818777423208</v>
       </c>
-      <c r="D260" t="inlineStr">
-        <is>
-          <t>EST</t>
-        </is>
-      </c>
-      <c r="E260" t="n">
-        <v>1</v>
+      <c r="D260" t="n">
+        <v>9.473684210526315</v>
       </c>
     </row>
     <row r="261">
@@ -5124,8 +4542,9 @@
       <c r="C261" t="n">
         <v>38.7331928208925</v>
       </c>
-      <c r="D261" t="inlineStr"/>
-      <c r="E261" t="inlineStr"/>
+      <c r="D261" t="n">
+        <v>7.894736842105264</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
@@ -5139,8 +4558,9 @@
       <c r="C262" t="n">
         <v>7.255651052284037</v>
       </c>
-      <c r="D262" t="inlineStr"/>
-      <c r="E262" t="inlineStr"/>
+      <c r="D262" t="n">
+        <v>1.578947368421053</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
@@ -5154,8 +4574,9 @@
       <c r="C263" t="n">
         <v>9.03687984231096</v>
       </c>
-      <c r="D263" t="inlineStr"/>
-      <c r="E263" t="inlineStr"/>
+      <c r="D263" t="n">
+        <v>6.315789473684211</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
@@ -5169,8 +4590,9 @@
       <c r="C264" t="n">
         <v>50.78997675712891</v>
       </c>
-      <c r="D264" t="inlineStr"/>
-      <c r="E264" t="inlineStr"/>
+      <c r="D264" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
@@ -5184,8 +4606,9 @@
       <c r="C265" t="n">
         <v>34.55971379068345</v>
       </c>
-      <c r="D265" t="inlineStr"/>
-      <c r="E265" t="inlineStr"/>
+      <c r="D265" t="n">
+        <v>8.947368421052632</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
@@ -5199,8 +4622,9 @@
       <c r="C266" t="n">
         <v>28.10385244527541</v>
       </c>
-      <c r="D266" t="inlineStr"/>
-      <c r="E266" t="inlineStr"/>
+      <c r="D266" t="n">
+        <v>9.473684210526315</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
@@ -5214,13 +4638,8 @@
       <c r="C267" t="n">
         <v>38.71957993151572</v>
       </c>
-      <c r="D267" t="inlineStr">
-        <is>
-          <t>RUS</t>
-        </is>
-      </c>
-      <c r="E267" t="n">
-        <v>0.7222222222222222</v>
+      <c r="D267" t="n">
+        <v>6.842105263157895</v>
       </c>
     </row>
     <row r="268">
@@ -5235,8 +4654,9 @@
       <c r="C268" t="n">
         <v>-10.42286092934071</v>
       </c>
-      <c r="D268" t="inlineStr"/>
-      <c r="E268" t="inlineStr"/>
+      <c r="D268" t="n">
+        <v>3.157894736842105</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
@@ -5250,12 +4670,7 @@
       <c r="C269" t="n">
         <v>4.560109410896066</v>
       </c>
-      <c r="D269" t="inlineStr">
-        <is>
-          <t>TKM</t>
-        </is>
-      </c>
-      <c r="E269" t="n">
+      <c r="D269" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5271,13 +4686,8 @@
       <c r="C270" t="n">
         <v>16.44588902641755</v>
       </c>
-      <c r="D270" t="inlineStr">
-        <is>
-          <t>UKR</t>
-        </is>
-      </c>
-      <c r="E270" t="n">
-        <v>0.8888888888888888</v>
+      <c r="D270" t="n">
+        <v>8.421052631578947</v>
       </c>
     </row>
     <row r="271">
@@ -5292,12 +4702,7 @@
       <c r="C271" t="n">
         <v>3.096590373233205</v>
       </c>
-      <c r="D271" t="inlineStr">
-        <is>
-          <t>UZB</t>
-        </is>
-      </c>
-      <c r="E271" t="n">
+      <c r="D271" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5313,13 +4718,8 @@
       <c r="C272" t="n">
         <v>40.360778253597</v>
       </c>
-      <c r="D272" t="inlineStr">
-        <is>
-          <t>ARM</t>
-        </is>
-      </c>
-      <c r="E272" t="n">
-        <v>0.7777777777777778</v>
+      <c r="D272" t="n">
+        <v>7.368421052631579</v>
       </c>
     </row>
     <row r="273">
@@ -5334,13 +4734,8 @@
       <c r="C273" t="n">
         <v>24.63339036515893</v>
       </c>
-      <c r="D273" t="inlineStr">
-        <is>
-          <t>AZE</t>
-        </is>
-      </c>
-      <c r="E273" t="n">
-        <v>0.1111111111111111</v>
+      <c r="D273" t="n">
+        <v>1.052631578947368</v>
       </c>
     </row>
     <row r="274">
@@ -5355,13 +4750,8 @@
       <c r="C274" t="n">
         <v>67.47908923487208</v>
       </c>
-      <c r="D274" t="inlineStr">
-        <is>
-          <t>BLR</t>
-        </is>
-      </c>
-      <c r="E274" t="n">
-        <v>0.1111111111111111</v>
+      <c r="D274" t="n">
+        <v>1.052631578947368</v>
       </c>
     </row>
     <row r="275">
@@ -5376,13 +4766,8 @@
       <c r="C275" t="n">
         <v>38.38601246046218</v>
       </c>
-      <c r="D275" t="inlineStr">
-        <is>
-          <t>EST</t>
-        </is>
-      </c>
-      <c r="E275" t="n">
-        <v>1</v>
+      <c r="D275" t="n">
+        <v>9.473684210526315</v>
       </c>
     </row>
     <row r="276">
@@ -5397,8 +4782,9 @@
       <c r="C276" t="n">
         <v>35.72542831090649</v>
       </c>
-      <c r="D276" t="inlineStr"/>
-      <c r="E276" t="inlineStr"/>
+      <c r="D276" t="n">
+        <v>7.894736842105264</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
@@ -5412,8 +4798,9 @@
       <c r="C277" t="n">
         <v>22.76009531127883</v>
       </c>
-      <c r="D277" t="inlineStr"/>
-      <c r="E277" t="inlineStr"/>
+      <c r="D277" t="n">
+        <v>1.578947368421053</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
@@ -5427,8 +4814,9 @@
       <c r="C278" t="n">
         <v>2.299341431387641</v>
       </c>
-      <c r="D278" t="inlineStr"/>
-      <c r="E278" t="inlineStr"/>
+      <c r="D278" t="n">
+        <v>5.263157894736842</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
@@ -5442,8 +4830,9 @@
       <c r="C279" t="n">
         <v>46.48678381140824</v>
       </c>
-      <c r="D279" t="inlineStr"/>
-      <c r="E279" t="inlineStr"/>
+      <c r="D279" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
@@ -5457,8 +4846,9 @@
       <c r="C280" t="n">
         <v>36.08175076368898</v>
       </c>
-      <c r="D280" t="inlineStr"/>
-      <c r="E280" t="inlineStr"/>
+      <c r="D280" t="n">
+        <v>8.947368421052632</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
@@ -5472,8 +4862,9 @@
       <c r="C281" t="n">
         <v>26.28123706511536</v>
       </c>
-      <c r="D281" t="inlineStr"/>
-      <c r="E281" t="inlineStr"/>
+      <c r="D281" t="n">
+        <v>9.473684210526315</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
@@ -5487,13 +4878,8 @@
       <c r="C282" t="n">
         <v>36.04675023397176</v>
       </c>
-      <c r="D282" t="inlineStr">
-        <is>
-          <t>RUS</t>
-        </is>
-      </c>
-      <c r="E282" t="n">
-        <v>0.7222222222222222</v>
+      <c r="D282" t="n">
+        <v>6.842105263157895</v>
       </c>
     </row>
     <row r="283">
@@ -5508,8 +4894,9 @@
       <c r="C283" t="n">
         <v>-12.23023562087879</v>
       </c>
-      <c r="D283" t="inlineStr"/>
-      <c r="E283" t="inlineStr"/>
+      <c r="D283" t="n">
+        <v>3.157894736842105</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="n">
@@ -5523,12 +4910,7 @@
       <c r="C284" t="n">
         <v>-1.112374712662654</v>
       </c>
-      <c r="D284" t="inlineStr">
-        <is>
-          <t>TKM</t>
-        </is>
-      </c>
-      <c r="E284" t="n">
+      <c r="D284" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5544,13 +4926,8 @@
       <c r="C285" t="n">
         <v>18.55580627689087</v>
       </c>
-      <c r="D285" t="inlineStr">
-        <is>
-          <t>UKR</t>
-        </is>
-      </c>
-      <c r="E285" t="n">
-        <v>0.8888888888888888</v>
+      <c r="D285" t="n">
+        <v>8.421052631578947</v>
       </c>
     </row>
     <row r="286">
@@ -5565,12 +4942,7 @@
       <c r="C286" t="n">
         <v>-2.888560933986964</v>
       </c>
-      <c r="D286" t="inlineStr">
-        <is>
-          <t>UZB</t>
-        </is>
-      </c>
-      <c r="E286" t="n">
+      <c r="D286" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5586,13 +4958,8 @@
       <c r="C287" t="n">
         <v>68.12441270054747</v>
       </c>
-      <c r="D287" t="inlineStr">
-        <is>
-          <t>ARM</t>
-        </is>
-      </c>
-      <c r="E287" t="n">
-        <v>0.7777777777777778</v>
+      <c r="D287" t="n">
+        <v>7.368421052631579</v>
       </c>
     </row>
     <row r="288">
@@ -5607,13 +4974,8 @@
       <c r="C288" t="n">
         <v>25.71258936726611</v>
       </c>
-      <c r="D288" t="inlineStr">
-        <is>
-          <t>AZE</t>
-        </is>
-      </c>
-      <c r="E288" t="n">
-        <v>0.1111111111111111</v>
+      <c r="D288" t="n">
+        <v>1.052631578947368</v>
       </c>
     </row>
     <row r="289">
@@ -5628,13 +4990,8 @@
       <c r="C289" t="n">
         <v>64.7904020716899</v>
       </c>
-      <c r="D289" t="inlineStr">
-        <is>
-          <t>BLR</t>
-        </is>
-      </c>
-      <c r="E289" t="n">
-        <v>0.1111111111111111</v>
+      <c r="D289" t="n">
+        <v>1.052631578947368</v>
       </c>
     </row>
     <row r="290">
@@ -5649,13 +5006,8 @@
       <c r="C290" t="n">
         <v>40.21474249002686</v>
       </c>
-      <c r="D290" t="inlineStr">
-        <is>
-          <t>EST</t>
-        </is>
-      </c>
-      <c r="E290" t="n">
-        <v>1</v>
+      <c r="D290" t="n">
+        <v>9.473684210526315</v>
       </c>
     </row>
     <row r="291">
@@ -5670,8 +5022,9 @@
       <c r="C291" t="n">
         <v>43.37565443553555</v>
       </c>
-      <c r="D291" t="inlineStr"/>
-      <c r="E291" t="inlineStr"/>
+      <c r="D291" t="n">
+        <v>7.894736842105264</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="n">
@@ -5685,8 +5038,9 @@
       <c r="C292" t="n">
         <v>19.32402614939342</v>
       </c>
-      <c r="D292" t="inlineStr"/>
-      <c r="E292" t="inlineStr"/>
+      <c r="D292" t="n">
+        <v>1.578947368421053</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="n">
@@ -5700,8 +5054,9 @@
       <c r="C293" t="n">
         <v>-3.969403805148255</v>
       </c>
-      <c r="D293" t="inlineStr"/>
-      <c r="E293" t="inlineStr"/>
+      <c r="D293" t="n">
+        <v>6.842105263157895</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="n">
@@ -5715,8 +5070,9 @@
       <c r="C294" t="n">
         <v>48.88462774113889</v>
       </c>
-      <c r="D294" t="inlineStr"/>
-      <c r="E294" t="inlineStr"/>
+      <c r="D294" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="n">
@@ -5730,8 +5086,9 @@
       <c r="C295" t="n">
         <v>44.73073740423983</v>
       </c>
-      <c r="D295" t="inlineStr"/>
-      <c r="E295" t="inlineStr"/>
+      <c r="D295" t="n">
+        <v>8.947368421052632</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="n">
@@ -5745,8 +5102,9 @@
       <c r="C296" t="n">
         <v>23.244708352081</v>
       </c>
-      <c r="D296" t="inlineStr"/>
-      <c r="E296" t="inlineStr"/>
+      <c r="D296" t="n">
+        <v>9.473684210526315</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="n">
@@ -5760,13 +5118,8 @@
       <c r="C297" t="n">
         <v>39.37632349360715</v>
       </c>
-      <c r="D297" t="inlineStr">
-        <is>
-          <t>RUS</t>
-        </is>
-      </c>
-      <c r="E297" t="n">
-        <v>0.7222222222222222</v>
+      <c r="D297" t="n">
+        <v>6.842105263157895</v>
       </c>
     </row>
     <row r="298">
@@ -5781,8 +5134,9 @@
       <c r="C298" t="n">
         <v>-11.54258515914679</v>
       </c>
-      <c r="D298" t="inlineStr"/>
-      <c r="E298" t="inlineStr"/>
+      <c r="D298" t="n">
+        <v>3.157894736842105</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="n">
@@ -5796,12 +5150,7 @@
       <c r="C299" t="n">
         <v>11.34273524511335</v>
       </c>
-      <c r="D299" t="inlineStr">
-        <is>
-          <t>TKM</t>
-        </is>
-      </c>
-      <c r="E299" t="n">
+      <c r="D299" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5817,13 +5166,8 @@
       <c r="C300" t="n">
         <v>20.9311776016462</v>
       </c>
-      <c r="D300" t="inlineStr">
-        <is>
-          <t>UKR</t>
-        </is>
-      </c>
-      <c r="E300" t="n">
-        <v>0.8333333333333334</v>
+      <c r="D300" t="n">
+        <v>7.894736842105264</v>
       </c>
     </row>
     <row r="301">
@@ -5838,12 +5182,7 @@
       <c r="C301" t="n">
         <v>2.768615864872559</v>
       </c>
-      <c r="D301" t="inlineStr">
-        <is>
-          <t>UZB</t>
-        </is>
-      </c>
-      <c r="E301" t="n">
+      <c r="D301" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5859,13 +5198,8 @@
       <c r="C302" t="n">
         <v>64.8150534122211</v>
       </c>
-      <c r="D302" t="inlineStr">
-        <is>
-          <t>ARM</t>
-        </is>
-      </c>
-      <c r="E302" t="n">
-        <v>0.7777777777777778</v>
+      <c r="D302" t="n">
+        <v>7.368421052631579</v>
       </c>
     </row>
     <row r="303">
@@ -5880,13 +5214,8 @@
       <c r="C303" t="n">
         <v>25.10051255649519</v>
       </c>
-      <c r="D303" t="inlineStr">
-        <is>
-          <t>AZE</t>
-        </is>
-      </c>
-      <c r="E303" t="n">
-        <v>0.1111111111111111</v>
+      <c r="D303" t="n">
+        <v>1.052631578947368</v>
       </c>
     </row>
     <row r="304">
@@ -5901,13 +5230,8 @@
       <c r="C304" t="n">
         <v>51.87302299783453</v>
       </c>
-      <c r="D304" t="inlineStr">
-        <is>
-          <t>BLR</t>
-        </is>
-      </c>
-      <c r="E304" t="n">
-        <v>0.1111111111111111</v>
+      <c r="D304" t="n">
+        <v>1.052631578947368</v>
       </c>
     </row>
     <row r="305">
@@ -5922,13 +5246,8 @@
       <c r="C305" t="n">
         <v>31.43579565009922</v>
       </c>
-      <c r="D305" t="inlineStr">
-        <is>
-          <t>EST</t>
-        </is>
-      </c>
-      <c r="E305" t="n">
-        <v>1</v>
+      <c r="D305" t="n">
+        <v>9.473684210526315</v>
       </c>
     </row>
     <row r="306">
@@ -5943,8 +5262,9 @@
       <c r="C306" t="n">
         <v>48.90275322952397</v>
       </c>
-      <c r="D306" t="inlineStr"/>
-      <c r="E306" t="inlineStr"/>
+      <c r="D306" t="n">
+        <v>7.894736842105264</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="n">
@@ -5958,8 +5278,9 @@
       <c r="C307" t="n">
         <v>32.24629611030598</v>
       </c>
-      <c r="D307" t="inlineStr"/>
-      <c r="E307" t="inlineStr"/>
+      <c r="D307" t="n">
+        <v>1.578947368421053</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="n">
@@ -5973,8 +5294,9 @@
       <c r="C308" t="n">
         <v>5.964445862869361</v>
       </c>
-      <c r="D308" t="inlineStr"/>
-      <c r="E308" t="inlineStr"/>
+      <c r="D308" t="n">
+        <v>8.421052631578947</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="n">
@@ -5988,8 +5310,9 @@
       <c r="C309" t="n">
         <v>43.85010070189863</v>
       </c>
-      <c r="D309" t="inlineStr"/>
-      <c r="E309" t="inlineStr"/>
+      <c r="D309" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="n">
@@ -6003,8 +5326,9 @@
       <c r="C310" t="n">
         <v>41.28442497451222</v>
       </c>
-      <c r="D310" t="inlineStr"/>
-      <c r="E310" t="inlineStr"/>
+      <c r="D310" t="n">
+        <v>8.947368421052632</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="n">
@@ -6018,8 +5342,9 @@
       <c r="C311" t="n">
         <v>18.47494300905738</v>
       </c>
-      <c r="D311" t="inlineStr"/>
-      <c r="E311" t="inlineStr"/>
+      <c r="D311" t="n">
+        <v>9.473684210526315</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="n">
@@ -6033,13 +5358,8 @@
       <c r="C312" t="n">
         <v>40.00715869028912</v>
       </c>
-      <c r="D312" t="inlineStr">
-        <is>
-          <t>RUS</t>
-        </is>
-      </c>
-      <c r="E312" t="n">
-        <v>0.7222222222222222</v>
+      <c r="D312" t="n">
+        <v>6.842105263157895</v>
       </c>
     </row>
     <row r="313">
@@ -6054,8 +5374,9 @@
       <c r="C313" t="n">
         <v>-12.41681996232959</v>
       </c>
-      <c r="D313" t="inlineStr"/>
-      <c r="E313" t="inlineStr"/>
+      <c r="D313" t="n">
+        <v>3.157894736842105</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="n">
@@ -6069,12 +5390,7 @@
       <c r="C314" t="n">
         <v>8.901402093040703</v>
       </c>
-      <c r="D314" t="inlineStr">
-        <is>
-          <t>TKM</t>
-        </is>
-      </c>
-      <c r="E314" t="n">
+      <c r="D314" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6090,13 +5406,8 @@
       <c r="C315" t="n">
         <v>26.80911164113662</v>
       </c>
-      <c r="D315" t="inlineStr">
-        <is>
-          <t>UKR</t>
-        </is>
-      </c>
-      <c r="E315" t="n">
-        <v>0.8333333333333334</v>
+      <c r="D315" t="n">
+        <v>7.894736842105264</v>
       </c>
     </row>
     <row r="316">
@@ -6111,12 +5422,7 @@
       <c r="C316" t="n">
         <v>3.3419076940013</v>
       </c>
-      <c r="D316" t="inlineStr">
-        <is>
-          <t>UZB</t>
-        </is>
-      </c>
-      <c r="E316" t="n">
+      <c r="D316" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6132,13 +5438,8 @@
       <c r="C317" t="n">
         <v>65.66396430665155</v>
       </c>
-      <c r="D317" t="inlineStr">
-        <is>
-          <t>ARM</t>
-        </is>
-      </c>
-      <c r="E317" t="n">
-        <v>0.7777777777777778</v>
+      <c r="D317" t="n">
+        <v>7.368421052631579</v>
       </c>
     </row>
     <row r="318">
@@ -6153,13 +5454,8 @@
       <c r="C318" t="n">
         <v>28.94040226329016</v>
       </c>
-      <c r="D318" t="inlineStr">
-        <is>
-          <t>AZE</t>
-        </is>
-      </c>
-      <c r="E318" t="n">
-        <v>0.1111111111111111</v>
+      <c r="D318" t="n">
+        <v>1.052631578947368</v>
       </c>
     </row>
     <row r="319">
@@ -6174,13 +5470,8 @@
       <c r="C319" t="n">
         <v>54.66632082240126</v>
       </c>
-      <c r="D319" t="inlineStr">
-        <is>
-          <t>BLR</t>
-        </is>
-      </c>
-      <c r="E319" t="n">
-        <v>0.1111111111111111</v>
+      <c r="D319" t="n">
+        <v>1.052631578947368</v>
       </c>
     </row>
     <row r="320">
@@ -6195,13 +5486,8 @@
       <c r="C320" t="n">
         <v>32.88386298907461</v>
       </c>
-      <c r="D320" t="inlineStr">
-        <is>
-          <t>EST</t>
-        </is>
-      </c>
-      <c r="E320" t="n">
-        <v>1</v>
+      <c r="D320" t="n">
+        <v>9.473684210526315</v>
       </c>
     </row>
     <row r="321">
@@ -6216,8 +5502,9 @@
       <c r="C321" t="n">
         <v>59.55242993061521</v>
       </c>
-      <c r="D321" t="inlineStr"/>
-      <c r="E321" t="inlineStr"/>
+      <c r="D321" t="n">
+        <v>7.894736842105264</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="n">
@@ -6231,8 +5518,9 @@
       <c r="C322" t="n">
         <v>19.92031728232141</v>
       </c>
-      <c r="D322" t="inlineStr"/>
-      <c r="E322" t="inlineStr"/>
+      <c r="D322" t="n">
+        <v>1.578947368421053</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" t="n">
@@ -6246,8 +5534,9 @@
       <c r="C323" t="n">
         <v>13.86059711268876</v>
       </c>
-      <c r="D323" t="inlineStr"/>
-      <c r="E323" t="inlineStr"/>
+      <c r="D323" t="n">
+        <v>8.421052631578947</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="n">
@@ -6261,8 +5550,9 @@
       <c r="C324" t="n">
         <v>44.28125457937939</v>
       </c>
-      <c r="D324" t="inlineStr"/>
-      <c r="E324" t="inlineStr"/>
+      <c r="D324" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" t="n">
@@ -6276,8 +5566,9 @@
       <c r="C325" t="n">
         <v>40.89087217991504</v>
       </c>
-      <c r="D325" t="inlineStr"/>
-      <c r="E325" t="inlineStr"/>
+      <c r="D325" t="n">
+        <v>8.947368421052632</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" t="n">
@@ -6291,8 +5582,9 @@
       <c r="C326" t="n">
         <v>18.39687611366344</v>
       </c>
-      <c r="D326" t="inlineStr"/>
-      <c r="E326" t="inlineStr"/>
+      <c r="D326" t="n">
+        <v>9.473684210526315</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="n">
@@ -6306,13 +5598,8 @@
       <c r="C327" t="n">
         <v>39.96844691398413</v>
       </c>
-      <c r="D327" t="inlineStr">
-        <is>
-          <t>RUS</t>
-        </is>
-      </c>
-      <c r="E327" t="n">
-        <v>0.7222222222222222</v>
+      <c r="D327" t="n">
+        <v>6.842105263157895</v>
       </c>
     </row>
     <row r="328">
@@ -6327,8 +5614,9 @@
       <c r="C328" t="n">
         <v>-12.19176711321771</v>
       </c>
-      <c r="D328" t="inlineStr"/>
-      <c r="E328" t="inlineStr"/>
+      <c r="D328" t="n">
+        <v>3.157894736842105</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" t="n">
@@ -6342,12 +5630,7 @@
       <c r="C329" t="n">
         <v>10.72403348003162</v>
       </c>
-      <c r="D329" t="inlineStr">
-        <is>
-          <t>TKM</t>
-        </is>
-      </c>
-      <c r="E329" t="n">
+      <c r="D329" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6363,13 +5646,8 @@
       <c r="C330" t="n">
         <v>25.87070642289325</v>
       </c>
-      <c r="D330" t="inlineStr">
-        <is>
-          <t>UKR</t>
-        </is>
-      </c>
-      <c r="E330" t="n">
-        <v>0.8333333333333334</v>
+      <c r="D330" t="n">
+        <v>7.894736842105264</v>
       </c>
     </row>
     <row r="331">
@@ -6384,12 +5662,7 @@
       <c r="C331" t="n">
         <v>7.694550745279059</v>
       </c>
-      <c r="D331" t="inlineStr">
-        <is>
-          <t>UZB</t>
-        </is>
-      </c>
-      <c r="E331" t="n">
+      <c r="D331" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6405,13 +5678,8 @@
       <c r="C332" t="n">
         <v>80.87929993579083</v>
       </c>
-      <c r="D332" t="inlineStr">
-        <is>
-          <t>ARM</t>
-        </is>
-      </c>
-      <c r="E332" t="n">
-        <v>0.7777777777777778</v>
+      <c r="D332" t="n">
+        <v>7.368421052631579</v>
       </c>
     </row>
     <row r="333">
@@ -6426,13 +5694,8 @@
       <c r="C333" t="n">
         <v>30.80690511370581</v>
       </c>
-      <c r="D333" t="inlineStr">
-        <is>
-          <t>AZE</t>
-        </is>
-      </c>
-      <c r="E333" t="n">
-        <v>0.1111111111111111</v>
+      <c r="D333" t="n">
+        <v>1.052631578947368</v>
       </c>
     </row>
     <row r="334">
@@ -6447,13 +5710,8 @@
       <c r="C334" t="n">
         <v>50.9878280350602</v>
       </c>
-      <c r="D334" t="inlineStr">
-        <is>
-          <t>BLR</t>
-        </is>
-      </c>
-      <c r="E334" t="n">
-        <v>0.1111111111111111</v>
+      <c r="D334" t="n">
+        <v>1.052631578947368</v>
       </c>
     </row>
     <row r="335">
@@ -6468,13 +5726,8 @@
       <c r="C335" t="n">
         <v>36.3993360674683</v>
       </c>
-      <c r="D335" t="inlineStr">
-        <is>
-          <t>EST</t>
-        </is>
-      </c>
-      <c r="E335" t="n">
-        <v>1</v>
+      <c r="D335" t="n">
+        <v>9.473684210526315</v>
       </c>
     </row>
     <row r="336">
@@ -6489,8 +5742,9 @@
       <c r="C336" t="n">
         <v>57.04689129935008</v>
       </c>
-      <c r="D336" t="inlineStr"/>
-      <c r="E336" t="inlineStr"/>
+      <c r="D336" t="n">
+        <v>8.421052631578947</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" t="n">
@@ -6504,8 +5758,9 @@
       <c r="C337" t="n">
         <v>28.60762923795459</v>
       </c>
-      <c r="D337" t="inlineStr"/>
-      <c r="E337" t="inlineStr"/>
+      <c r="D337" t="n">
+        <v>1.578947368421053</v>
+      </c>
     </row>
     <row r="338">
       <c r="A338" t="n">
@@ -6519,8 +5774,9 @@
       <c r="C338" t="n">
         <v>12.20488036720892</v>
       </c>
-      <c r="D338" t="inlineStr"/>
-      <c r="E338" t="inlineStr"/>
+      <c r="D338" t="n">
+        <v>8.421052631578947</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" t="n">
@@ -6534,8 +5790,9 @@
       <c r="C339" t="n">
         <v>44.3983792978619</v>
       </c>
-      <c r="D339" t="inlineStr"/>
-      <c r="E339" t="inlineStr"/>
+      <c r="D339" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" t="n">
@@ -6549,8 +5806,9 @@
       <c r="C340" t="n">
         <v>46.34533700400269</v>
       </c>
-      <c r="D340" t="inlineStr"/>
-      <c r="E340" t="inlineStr"/>
+      <c r="D340" t="n">
+        <v>8.947368421052632</v>
+      </c>
     </row>
     <row r="341">
       <c r="A341" t="n">
@@ -6564,8 +5822,9 @@
       <c r="C341" t="n">
         <v>18.56409992760575</v>
       </c>
-      <c r="D341" t="inlineStr"/>
-      <c r="E341" t="inlineStr"/>
+      <c r="D341" t="n">
+        <v>9.473684210526315</v>
+      </c>
     </row>
     <row r="342">
       <c r="A342" t="n">
@@ -6579,13 +5838,8 @@
       <c r="C342" t="n">
         <v>35.85569273719916</v>
       </c>
-      <c r="D342" t="inlineStr">
-        <is>
-          <t>RUS</t>
-        </is>
-      </c>
-      <c r="E342" t="n">
-        <v>0.7222222222222222</v>
+      <c r="D342" t="n">
+        <v>6.842105263157895</v>
       </c>
     </row>
     <row r="343">
@@ -6600,8 +5854,9 @@
       <c r="C343" t="n">
         <v>-12.40143044025761</v>
       </c>
-      <c r="D343" t="inlineStr"/>
-      <c r="E343" t="inlineStr"/>
+      <c r="D343" t="n">
+        <v>3.157894736842105</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" t="n">
@@ -6615,13 +5870,8 @@
       <c r="C344" t="n">
         <v>11.10619502955764</v>
       </c>
-      <c r="D344" t="inlineStr">
-        <is>
-          <t>TKM</t>
-        </is>
-      </c>
-      <c r="E344" t="n">
-        <v>0.05555555555555555</v>
+      <c r="D344" t="n">
+        <v>0.5263157894736842</v>
       </c>
     </row>
     <row r="345">
@@ -6636,13 +5886,8 @@
       <c r="C345" t="n">
         <v>20.33803402822821</v>
       </c>
-      <c r="D345" t="inlineStr">
-        <is>
-          <t>UKR</t>
-        </is>
-      </c>
-      <c r="E345" t="n">
-        <v>0.8333333333333334</v>
+      <c r="D345" t="n">
+        <v>7.894736842105264</v>
       </c>
     </row>
     <row r="346">
@@ -6657,12 +5902,7 @@
       <c r="C346" t="n">
         <v>14.14347906181439</v>
       </c>
-      <c r="D346" t="inlineStr">
-        <is>
-          <t>UZB</t>
-        </is>
-      </c>
-      <c r="E346" t="n">
+      <c r="D346" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6678,13 +5918,8 @@
       <c r="C347" t="n">
         <v>83.20208756475679</v>
       </c>
-      <c r="D347" t="inlineStr">
-        <is>
-          <t>ARM</t>
-        </is>
-      </c>
-      <c r="E347" t="n">
-        <v>0.7777777777777778</v>
+      <c r="D347" t="n">
+        <v>7.368421052631579</v>
       </c>
     </row>
     <row r="348">
@@ -6699,13 +5934,8 @@
       <c r="C348" t="n">
         <v>34.21231566291419</v>
       </c>
-      <c r="D348" t="inlineStr">
-        <is>
-          <t>AZE</t>
-        </is>
-      </c>
-      <c r="E348" t="n">
-        <v>0.1111111111111111</v>
+      <c r="D348" t="n">
+        <v>1.052631578947368</v>
       </c>
     </row>
     <row r="349">
@@ -6720,13 +5950,8 @@
       <c r="C349" t="n">
         <v>48.78991489145199</v>
       </c>
-      <c r="D349" t="inlineStr">
-        <is>
-          <t>BLR</t>
-        </is>
-      </c>
-      <c r="E349" t="n">
-        <v>0.1111111111111111</v>
+      <c r="D349" t="n">
+        <v>1.052631578947368</v>
       </c>
     </row>
     <row r="350">
@@ -6741,13 +5966,8 @@
       <c r="C350" t="n">
         <v>38.82819321765425</v>
       </c>
-      <c r="D350" t="inlineStr">
-        <is>
-          <t>EST</t>
-        </is>
-      </c>
-      <c r="E350" t="n">
-        <v>1</v>
+      <c r="D350" t="n">
+        <v>9.473684210526315</v>
       </c>
     </row>
     <row r="351">
@@ -6762,8 +5982,9 @@
       <c r="C351" t="n">
         <v>61.93554102564307</v>
       </c>
-      <c r="D351" t="inlineStr"/>
-      <c r="E351" t="inlineStr"/>
+      <c r="D351" t="n">
+        <v>8.421052631578947</v>
+      </c>
     </row>
     <row r="352">
       <c r="A352" t="n">
@@ -6777,8 +5998,9 @@
       <c r="C352" t="n">
         <v>27.15644673520332</v>
       </c>
-      <c r="D352" t="inlineStr"/>
-      <c r="E352" t="inlineStr"/>
+      <c r="D352" t="n">
+        <v>1.578947368421053</v>
+      </c>
     </row>
     <row r="353">
       <c r="A353" t="n">
@@ -6792,8 +6014,9 @@
       <c r="C353" t="n">
         <v>26.67471953732011</v>
       </c>
-      <c r="D353" t="inlineStr"/>
-      <c r="E353" t="inlineStr"/>
+      <c r="D353" t="n">
+        <v>8.421052631578947</v>
+      </c>
     </row>
     <row r="354">
       <c r="A354" t="n">
@@ -6807,8 +6030,9 @@
       <c r="C354" t="n">
         <v>49.69645840165633</v>
       </c>
-      <c r="D354" t="inlineStr"/>
-      <c r="E354" t="inlineStr"/>
+      <c r="D354" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="355">
       <c r="A355" t="n">
@@ -6822,8 +6046,9 @@
       <c r="C355" t="n">
         <v>49.21247626051596</v>
       </c>
-      <c r="D355" t="inlineStr"/>
-      <c r="E355" t="inlineStr"/>
+      <c r="D355" t="n">
+        <v>8.947368421052632</v>
+      </c>
     </row>
     <row r="356">
       <c r="A356" t="n">
@@ -6837,8 +6062,9 @@
       <c r="C356" t="n">
         <v>23.76275759502418</v>
       </c>
-      <c r="D356" t="inlineStr"/>
-      <c r="E356" t="inlineStr"/>
+      <c r="D356" t="n">
+        <v>9.473684210526315</v>
+      </c>
     </row>
     <row r="357">
       <c r="A357" t="n">
@@ -6852,13 +6078,8 @@
       <c r="C357" t="n">
         <v>38.18784183278481</v>
       </c>
-      <c r="D357" t="inlineStr">
-        <is>
-          <t>RUS</t>
-        </is>
-      </c>
-      <c r="E357" t="n">
-        <v>0.7222222222222222</v>
+      <c r="D357" t="n">
+        <v>6.842105263157895</v>
       </c>
     </row>
     <row r="358">
@@ -6873,8 +6094,9 @@
       <c r="C358" t="n">
         <v>-10.35503816784775</v>
       </c>
-      <c r="D358" t="inlineStr"/>
-      <c r="E358" t="inlineStr"/>
+      <c r="D358" t="n">
+        <v>3.157894736842105</v>
+      </c>
     </row>
     <row r="359">
       <c r="A359" t="n">
@@ -6888,13 +6110,8 @@
       <c r="C359" t="n">
         <v>17.7063512218336</v>
       </c>
-      <c r="D359" t="inlineStr">
-        <is>
-          <t>TKM</t>
-        </is>
-      </c>
-      <c r="E359" t="n">
-        <v>0.05555555555555555</v>
+      <c r="D359" t="n">
+        <v>0.5263157894736842</v>
       </c>
     </row>
     <row r="360">
@@ -6909,13 +6126,8 @@
       <c r="C360" t="n">
         <v>24.58187135582346</v>
       </c>
-      <c r="D360" t="inlineStr">
-        <is>
-          <t>UKR</t>
-        </is>
-      </c>
-      <c r="E360" t="n">
-        <v>0.7222222222222222</v>
+      <c r="D360" t="n">
+        <v>6.842105263157895</v>
       </c>
     </row>
     <row r="361">
@@ -6930,12 +6142,7 @@
       <c r="C361" t="n">
         <v>18.71144246625639</v>
       </c>
-      <c r="D361" t="inlineStr">
-        <is>
-          <t>UZB</t>
-        </is>
-      </c>
-      <c r="E361" t="n">
+      <c r="D361" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6951,13 +6158,8 @@
       <c r="C362" t="n">
         <v>80.86095993212011</v>
       </c>
-      <c r="D362" t="inlineStr">
-        <is>
-          <t>ARM</t>
-        </is>
-      </c>
-      <c r="E362" t="n">
-        <v>0.7777777777777778</v>
+      <c r="D362" t="n">
+        <v>7.368421052631579</v>
       </c>
     </row>
     <row r="363">
@@ -6972,13 +6174,8 @@
       <c r="C363" t="n">
         <v>43.01628128244243</v>
       </c>
-      <c r="D363" t="inlineStr">
-        <is>
-          <t>AZE</t>
-        </is>
-      </c>
-      <c r="E363" t="n">
-        <v>0.1111111111111111</v>
+      <c r="D363" t="n">
+        <v>1.052631578947368</v>
       </c>
     </row>
     <row r="364">
@@ -6993,13 +6190,8 @@
       <c r="C364" t="n">
         <v>58.83326272510079</v>
       </c>
-      <c r="D364" t="inlineStr">
-        <is>
-          <t>BLR</t>
-        </is>
-      </c>
-      <c r="E364" t="n">
-        <v>0.1111111111111111</v>
+      <c r="D364" t="n">
+        <v>1.052631578947368</v>
       </c>
     </row>
     <row r="365">
@@ -7014,13 +6206,8 @@
       <c r="C365" t="n">
         <v>41.98432435812556</v>
       </c>
-      <c r="D365" t="inlineStr">
-        <is>
-          <t>EST</t>
-        </is>
-      </c>
-      <c r="E365" t="n">
-        <v>1</v>
+      <c r="D365" t="n">
+        <v>9.473684210526315</v>
       </c>
     </row>
     <row r="366">
@@ -7035,8 +6222,9 @@
       <c r="C366" t="n">
         <v>56.97891957319904</v>
       </c>
-      <c r="D366" t="inlineStr"/>
-      <c r="E366" t="inlineStr"/>
+      <c r="D366" t="n">
+        <v>8.421052631578947</v>
+      </c>
     </row>
     <row r="367">
       <c r="A367" t="n">
@@ -7050,8 +6238,9 @@
       <c r="C367" t="n">
         <v>24.51532139027631</v>
       </c>
-      <c r="D367" t="inlineStr"/>
-      <c r="E367" t="inlineStr"/>
+      <c r="D367" t="n">
+        <v>1.578947368421053</v>
+      </c>
     </row>
     <row r="368">
       <c r="A368" t="n">
@@ -7065,8 +6254,9 @@
       <c r="C368" t="n">
         <v>34.30778976966883</v>
       </c>
-      <c r="D368" t="inlineStr"/>
-      <c r="E368" t="inlineStr"/>
+      <c r="D368" t="n">
+        <v>8.421052631578947</v>
+      </c>
     </row>
     <row r="369">
       <c r="A369" t="n">
@@ -7080,8 +6270,9 @@
       <c r="C369" t="n">
         <v>56.53698972790549</v>
       </c>
-      <c r="D369" t="inlineStr"/>
-      <c r="E369" t="inlineStr"/>
+      <c r="D369" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="370">
       <c r="A370" t="n">
@@ -7095,8 +6286,9 @@
       <c r="C370" t="n">
         <v>49.38378141300375</v>
       </c>
-      <c r="D370" t="inlineStr"/>
-      <c r="E370" t="inlineStr"/>
+      <c r="D370" t="n">
+        <v>8.947368421052632</v>
+      </c>
     </row>
     <row r="371">
       <c r="A371" t="n">
@@ -7110,8 +6302,9 @@
       <c r="C371" t="n">
         <v>25.92167567361679</v>
       </c>
-      <c r="D371" t="inlineStr"/>
-      <c r="E371" t="inlineStr"/>
+      <c r="D371" t="n">
+        <v>9.473684210526315</v>
+      </c>
     </row>
     <row r="372">
       <c r="A372" t="n">
@@ -7125,13 +6318,8 @@
       <c r="C372" t="n">
         <v>41.36504510395377</v>
       </c>
-      <c r="D372" t="inlineStr">
-        <is>
-          <t>RUS</t>
-        </is>
-      </c>
-      <c r="E372" t="n">
-        <v>0.7222222222222222</v>
+      <c r="D372" t="n">
+        <v>6.842105263157895</v>
       </c>
     </row>
     <row r="373">
@@ -7146,8 +6334,9 @@
       <c r="C373" t="n">
         <v>-10.60319459879946</v>
       </c>
-      <c r="D373" t="inlineStr"/>
-      <c r="E373" t="inlineStr"/>
+      <c r="D373" t="n">
+        <v>3.157894736842105</v>
+      </c>
     </row>
     <row r="374">
       <c r="A374" t="n">
@@ -7161,13 +6350,8 @@
       <c r="C374" t="n">
         <v>17.36174250812176</v>
       </c>
-      <c r="D374" t="inlineStr">
-        <is>
-          <t>TKM</t>
-        </is>
-      </c>
-      <c r="E374" t="n">
-        <v>0.05555555555555555</v>
+      <c r="D374" t="n">
+        <v>0.5263157894736842</v>
       </c>
     </row>
     <row r="375">
@@ -7182,13 +6366,8 @@
       <c r="C375" t="n">
         <v>37.78941206084798</v>
       </c>
-      <c r="D375" t="inlineStr">
-        <is>
-          <t>UKR</t>
-        </is>
-      </c>
-      <c r="E375" t="n">
-        <v>0.7222222222222222</v>
+      <c r="D375" t="n">
+        <v>6.842105263157895</v>
       </c>
     </row>
     <row r="376">
@@ -7203,12 +6382,7 @@
       <c r="C376" t="n">
         <v>26.03846768333329</v>
       </c>
-      <c r="D376" t="inlineStr">
-        <is>
-          <t>UZB</t>
-        </is>
-      </c>
-      <c r="E376" t="n">
+      <c r="D376" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7224,13 +6398,8 @@
       <c r="C377" t="n">
         <v>79.52540835410696</v>
       </c>
-      <c r="D377" t="inlineStr">
-        <is>
-          <t>ARM</t>
-        </is>
-      </c>
-      <c r="E377" t="n">
-        <v>0.7777777777777778</v>
+      <c r="D377" t="n">
+        <v>7.368421052631579</v>
       </c>
     </row>
     <row r="378">
@@ -7245,13 +6414,8 @@
       <c r="C378" t="n">
         <v>40.22762107286495</v>
       </c>
-      <c r="D378" t="inlineStr">
-        <is>
-          <t>AZE</t>
-        </is>
-      </c>
-      <c r="E378" t="n">
-        <v>0.1111111111111111</v>
+      <c r="D378" t="n">
+        <v>1.052631578947368</v>
       </c>
     </row>
     <row r="379">
@@ -7266,13 +6430,8 @@
       <c r="C379" t="n">
         <v>56.99442662804308</v>
       </c>
-      <c r="D379" t="inlineStr">
-        <is>
-          <t>BLR</t>
-        </is>
-      </c>
-      <c r="E379" t="n">
-        <v>0.1111111111111111</v>
+      <c r="D379" t="n">
+        <v>1.052631578947368</v>
       </c>
     </row>
     <row r="380">
@@ -7287,13 +6446,8 @@
       <c r="C380" t="n">
         <v>40.1709716443436</v>
       </c>
-      <c r="D380" t="inlineStr">
-        <is>
-          <t>EST</t>
-        </is>
-      </c>
-      <c r="E380" t="n">
-        <v>1</v>
+      <c r="D380" t="n">
+        <v>9.473684210526315</v>
       </c>
     </row>
     <row r="381">
@@ -7308,8 +6462,9 @@
       <c r="C381" t="n">
         <v>55.17901241021904</v>
       </c>
-      <c r="D381" t="inlineStr"/>
-      <c r="E381" t="inlineStr"/>
+      <c r="D381" t="n">
+        <v>8.421052631578947</v>
+      </c>
     </row>
     <row r="382">
       <c r="A382" t="n">
@@ -7323,8 +6478,9 @@
       <c r="C382" t="n">
         <v>26.2577464638654</v>
       </c>
-      <c r="D382" t="inlineStr"/>
-      <c r="E382" t="inlineStr"/>
+      <c r="D382" t="n">
+        <v>1.578947368421053</v>
+      </c>
     </row>
     <row r="383">
       <c r="A383" t="n">
@@ -7338,8 +6494,9 @@
       <c r="C383" t="n">
         <v>32.53816484769516</v>
       </c>
-      <c r="D383" t="inlineStr"/>
-      <c r="E383" t="inlineStr"/>
+      <c r="D383" t="n">
+        <v>8.421052631578947</v>
+      </c>
     </row>
     <row r="384">
       <c r="A384" t="n">
@@ -7353,8 +6510,9 @@
       <c r="C384" t="n">
         <v>56.75820763140621</v>
       </c>
-      <c r="D384" t="inlineStr"/>
-      <c r="E384" t="inlineStr"/>
+      <c r="D384" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="385">
       <c r="A385" t="n">
@@ -7368,8 +6526,9 @@
       <c r="C385" t="n">
         <v>49.5757754920773</v>
       </c>
-      <c r="D385" t="inlineStr"/>
-      <c r="E385" t="inlineStr"/>
+      <c r="D385" t="n">
+        <v>8.947368421052632</v>
+      </c>
     </row>
     <row r="386">
       <c r="A386" t="n">
@@ -7383,8 +6542,9 @@
       <c r="C386" t="n">
         <v>25.00325742740584</v>
       </c>
-      <c r="D386" t="inlineStr"/>
-      <c r="E386" t="inlineStr"/>
+      <c r="D386" t="n">
+        <v>9.473684210526315</v>
+      </c>
     </row>
     <row r="387">
       <c r="A387" t="n">
@@ -7398,13 +6558,8 @@
       <c r="C387" t="n">
         <v>38.6932729531026</v>
       </c>
-      <c r="D387" t="inlineStr">
-        <is>
-          <t>RUS</t>
-        </is>
-      </c>
-      <c r="E387" t="n">
-        <v>0.7222222222222222</v>
+      <c r="D387" t="n">
+        <v>6.842105263157895</v>
       </c>
     </row>
     <row r="388">
@@ -7419,8 +6574,9 @@
       <c r="C388" t="n">
         <v>-10.87403571336631</v>
       </c>
-      <c r="D388" t="inlineStr"/>
-      <c r="E388" t="inlineStr"/>
+      <c r="D388" t="n">
+        <v>3.157894736842105</v>
+      </c>
     </row>
     <row r="389">
       <c r="A389" t="n">
@@ -7434,13 +6590,8 @@
       <c r="C389" t="n">
         <v>19.1596373317326</v>
       </c>
-      <c r="D389" t="inlineStr">
-        <is>
-          <t>TKM</t>
-        </is>
-      </c>
-      <c r="E389" t="n">
-        <v>0.05555555555555555</v>
+      <c r="D389" t="n">
+        <v>0.5263157894736842</v>
       </c>
     </row>
     <row r="390">
@@ -7455,13 +6606,8 @@
       <c r="C390" t="n">
         <v>36.04905423380627</v>
       </c>
-      <c r="D390" t="inlineStr">
-        <is>
-          <t>UKR</t>
-        </is>
-      </c>
-      <c r="E390" t="n">
-        <v>0.7222222222222222</v>
+      <c r="D390" t="n">
+        <v>6.842105263157895</v>
       </c>
     </row>
     <row r="391">
@@ -7476,12 +6622,7 @@
       <c r="C391" t="n">
         <v>26.37842377167838</v>
       </c>
-      <c r="D391" t="inlineStr">
-        <is>
-          <t>UZB</t>
-        </is>
-      </c>
-      <c r="E391" t="n">
+      <c r="D391" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7497,13 +6638,8 @@
       <c r="C392" t="n">
         <v>78.2983869976165</v>
       </c>
-      <c r="D392" t="inlineStr">
-        <is>
-          <t>ARM</t>
-        </is>
-      </c>
-      <c r="E392" t="n">
-        <v>0.7777777777777778</v>
+      <c r="D392" t="n">
+        <v>7.368421052631579</v>
       </c>
     </row>
     <row r="393">
@@ -7518,13 +6654,8 @@
       <c r="C393" t="n">
         <v>35.77505568873183</v>
       </c>
-      <c r="D393" t="inlineStr">
-        <is>
-          <t>AZE</t>
-        </is>
-      </c>
-      <c r="E393" t="n">
-        <v>0.1111111111111111</v>
+      <c r="D393" t="n">
+        <v>1.052631578947368</v>
       </c>
     </row>
     <row r="394">
@@ -7539,13 +6670,8 @@
       <c r="C394" t="n">
         <v>53.8666343803521</v>
       </c>
-      <c r="D394" t="inlineStr">
-        <is>
-          <t>BLR</t>
-        </is>
-      </c>
-      <c r="E394" t="n">
-        <v>0.1111111111111111</v>
+      <c r="D394" t="n">
+        <v>1.052631578947368</v>
       </c>
     </row>
     <row r="395">
@@ -7560,13 +6686,8 @@
       <c r="C395" t="n">
         <v>34.98760102258424</v>
       </c>
-      <c r="D395" t="inlineStr">
-        <is>
-          <t>EST</t>
-        </is>
-      </c>
-      <c r="E395" t="n">
-        <v>1</v>
+      <c r="D395" t="n">
+        <v>9.473684210526315</v>
       </c>
     </row>
     <row r="396">
@@ -7581,8 +6702,9 @@
       <c r="C396" t="n">
         <v>52.12914474433785</v>
       </c>
-      <c r="D396" t="inlineStr"/>
-      <c r="E396" t="inlineStr"/>
+      <c r="D396" t="n">
+        <v>8.421052631578947</v>
+      </c>
     </row>
     <row r="397">
       <c r="A397" t="n">
@@ -7596,8 +6718,9 @@
       <c r="C397" t="n">
         <v>24.90758360216851</v>
       </c>
-      <c r="D397" t="inlineStr"/>
-      <c r="E397" t="inlineStr"/>
+      <c r="D397" t="n">
+        <v>1.578947368421053</v>
+      </c>
     </row>
     <row r="398">
       <c r="A398" t="n">
@@ -7611,8 +6734,9 @@
       <c r="C398" t="n">
         <v>36.69853749930462</v>
       </c>
-      <c r="D398" t="inlineStr"/>
-      <c r="E398" t="inlineStr"/>
+      <c r="D398" t="n">
+        <v>8.947368421052632</v>
+      </c>
     </row>
     <row r="399">
       <c r="A399" t="n">
@@ -7626,8 +6750,9 @@
       <c r="C399" t="n">
         <v>58.62917951074496</v>
       </c>
-      <c r="D399" t="inlineStr"/>
-      <c r="E399" t="inlineStr"/>
+      <c r="D399" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="400">
       <c r="A400" t="n">
@@ -7641,8 +6766,9 @@
       <c r="C400" t="n">
         <v>50.46056170796781</v>
       </c>
-      <c r="D400" t="inlineStr"/>
-      <c r="E400" t="inlineStr"/>
+      <c r="D400" t="n">
+        <v>8.947368421052632</v>
+      </c>
     </row>
     <row r="401">
       <c r="A401" t="n">
@@ -7656,8 +6782,9 @@
       <c r="C401" t="n">
         <v>26.07376988520489</v>
       </c>
-      <c r="D401" t="inlineStr"/>
-      <c r="E401" t="inlineStr"/>
+      <c r="D401" t="n">
+        <v>9.473684210526315</v>
+      </c>
     </row>
     <row r="402">
       <c r="A402" t="n">
@@ -7671,13 +6798,8 @@
       <c r="C402" t="n">
         <v>39.01161585977686</v>
       </c>
-      <c r="D402" t="inlineStr">
-        <is>
-          <t>RUS</t>
-        </is>
-      </c>
-      <c r="E402" t="n">
-        <v>0.7222222222222222</v>
+      <c r="D402" t="n">
+        <v>6.842105263157895</v>
       </c>
     </row>
     <row r="403">
@@ -7692,8 +6814,9 @@
       <c r="C403" t="n">
         <v>-10.72041177126775</v>
       </c>
-      <c r="D403" t="inlineStr"/>
-      <c r="E403" t="inlineStr"/>
+      <c r="D403" t="n">
+        <v>3.157894736842105</v>
+      </c>
     </row>
     <row r="404">
       <c r="A404" t="n">
@@ -7707,13 +6830,8 @@
       <c r="C404" t="n">
         <v>19.18286121501872</v>
       </c>
-      <c r="D404" t="inlineStr">
-        <is>
-          <t>TKM</t>
-        </is>
-      </c>
-      <c r="E404" t="n">
-        <v>0.05555555555555555</v>
+      <c r="D404" t="n">
+        <v>0.5263157894736842</v>
       </c>
     </row>
     <row r="405">
@@ -7728,13 +6846,8 @@
       <c r="C405" t="n">
         <v>36.87730376233884</v>
       </c>
-      <c r="D405" t="inlineStr">
-        <is>
-          <t>UKR</t>
-        </is>
-      </c>
-      <c r="E405" t="n">
-        <v>0.7222222222222222</v>
+      <c r="D405" t="n">
+        <v>6.842105263157895</v>
       </c>
     </row>
     <row r="406">
@@ -7749,12 +6862,7 @@
       <c r="C406" t="n">
         <v>20.72321993460944</v>
       </c>
-      <c r="D406" t="inlineStr">
-        <is>
-          <t>UZB</t>
-        </is>
-      </c>
-      <c r="E406" t="n">
+      <c r="D406" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7770,13 +6878,8 @@
       <c r="C407" t="n">
         <v>23.66913694188593</v>
       </c>
-      <c r="D407" t="inlineStr">
-        <is>
-          <t>ARM</t>
-        </is>
-      </c>
-      <c r="E407" t="n">
-        <v>0.8888888888888888</v>
+      <c r="D407" t="n">
+        <v>8.421052631578947</v>
       </c>
     </row>
     <row r="408">
@@ -7791,13 +6894,8 @@
       <c r="C408" t="n">
         <v>-7.892156862745098</v>
       </c>
-      <c r="D408" t="inlineStr">
-        <is>
-          <t>AZE</t>
-        </is>
-      </c>
-      <c r="E408" t="n">
-        <v>0.1111111111111111</v>
+      <c r="D408" t="n">
+        <v>1.052631578947368</v>
       </c>
     </row>
     <row r="409">
@@ -7812,13 +6910,8 @@
       <c r="C409" t="n">
         <v>-7.098765432098765</v>
       </c>
-      <c r="D409" t="inlineStr">
-        <is>
-          <t>BLR</t>
-        </is>
-      </c>
-      <c r="E409" t="n">
-        <v>0.1111111111111111</v>
+      <c r="D409" t="n">
+        <v>1.052631578947368</v>
       </c>
     </row>
     <row r="410">
@@ -7833,13 +6926,8 @@
       <c r="C410" t="n">
         <v>-15.78431372549019</v>
       </c>
-      <c r="D410" t="inlineStr">
-        <is>
-          <t>EST</t>
-        </is>
-      </c>
-      <c r="E410" t="n">
-        <v>1</v>
+      <c r="D410" t="n">
+        <v>9.473684210526315</v>
       </c>
     </row>
     <row r="411">
@@ -7854,8 +6942,9 @@
       <c r="C411" t="n">
         <v>22.6797385620915</v>
       </c>
-      <c r="D411" t="inlineStr"/>
-      <c r="E411" t="inlineStr"/>
+      <c r="D411" t="n">
+        <v>8.421052631578947</v>
+      </c>
     </row>
     <row r="412">
       <c r="A412" t="n">
@@ -7869,8 +6958,9 @@
       <c r="C412" t="n">
         <v>-2.311118352161479</v>
       </c>
-      <c r="D412" t="inlineStr"/>
-      <c r="E412" t="inlineStr"/>
+      <c r="D412" t="n">
+        <v>1.578947368421053</v>
+      </c>
     </row>
     <row r="413">
       <c r="A413" t="n">
@@ -7884,8 +6974,9 @@
       <c r="C413" t="n">
         <v>13.55819615209842</v>
       </c>
-      <c r="D413" t="inlineStr"/>
-      <c r="E413" t="inlineStr"/>
+      <c r="D413" t="n">
+        <v>8.947368421052632</v>
+      </c>
     </row>
     <row r="414">
       <c r="A414" t="n">
@@ -7899,8 +6990,9 @@
       <c r="C414" t="n">
         <v>-0.5846042120551924</v>
       </c>
-      <c r="D414" t="inlineStr"/>
-      <c r="E414" t="inlineStr"/>
+      <c r="D414" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="415">
       <c r="A415" t="n">
@@ -7914,8 +7006,9 @@
       <c r="C415" t="n">
         <v>-5.052650689905592</v>
       </c>
-      <c r="D415" t="inlineStr"/>
-      <c r="E415" t="inlineStr"/>
+      <c r="D415" t="n">
+        <v>8.947368421052632</v>
+      </c>
     </row>
     <row r="416">
       <c r="A416" t="n">
@@ -7929,8 +7022,9 @@
       <c r="C416" t="n">
         <v>3.826996740745167</v>
       </c>
-      <c r="D416" t="inlineStr"/>
-      <c r="E416" t="inlineStr"/>
+      <c r="D416" t="n">
+        <v>9.473684210526315</v>
+      </c>
     </row>
     <row r="417">
       <c r="A417" t="n">
@@ -7944,13 +7038,8 @@
       <c r="C417" t="n">
         <v>-1.920842411038489</v>
       </c>
-      <c r="D417" t="inlineStr">
-        <is>
-          <t>RUS</t>
-        </is>
-      </c>
-      <c r="E417" t="n">
-        <v>0.7222222222222222</v>
+      <c r="D417" t="n">
+        <v>6.842105263157895</v>
       </c>
     </row>
     <row r="418">
@@ -7965,8 +7054,9 @@
       <c r="C418" t="n">
         <v>-13.44589687726943</v>
       </c>
-      <c r="D418" t="inlineStr"/>
-      <c r="E418" t="inlineStr"/>
+      <c r="D418" t="n">
+        <v>3.157894736842105</v>
+      </c>
     </row>
     <row r="419">
       <c r="A419" t="n">
@@ -7980,13 +7070,8 @@
       <c r="C419" t="n">
         <v>-18.03921568627451</v>
       </c>
-      <c r="D419" t="inlineStr">
-        <is>
-          <t>TKM</t>
-        </is>
-      </c>
-      <c r="E419" t="n">
-        <v>0.05555555555555555</v>
+      <c r="D419" t="n">
+        <v>0.5263157894736842</v>
       </c>
     </row>
     <row r="420">
@@ -8001,13 +7086,8 @@
       <c r="C420" t="n">
         <v>4.94056930102228</v>
       </c>
-      <c r="D420" t="inlineStr">
-        <is>
-          <t>UKR</t>
-        </is>
-      </c>
-      <c r="E420" t="n">
-        <v>0.7222222222222222</v>
+      <c r="D420" t="n">
+        <v>6.842105263157895</v>
       </c>
     </row>
     <row r="421">
@@ -8022,12 +7102,7 @@
       <c r="C421" t="n">
         <v>1.815824448165345</v>
       </c>
-      <c r="D421" t="inlineStr">
-        <is>
-          <t>UZB</t>
-        </is>
-      </c>
-      <c r="E421" t="n">
+      <c r="D421" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8044,7 +7119,6 @@
         <v>0</v>
       </c>
       <c r="D422" t="inlineStr"/>
-      <c r="E422" t="inlineStr"/>
     </row>
     <row r="423">
       <c r="A423" t="n">
@@ -8059,7 +7133,6 @@
         <v>0</v>
       </c>
       <c r="D423" t="inlineStr"/>
-      <c r="E423" t="inlineStr"/>
     </row>
     <row r="424">
       <c r="A424" t="n">
@@ -8074,7 +7147,6 @@
         <v>0</v>
       </c>
       <c r="D424" t="inlineStr"/>
-      <c r="E424" t="inlineStr"/>
     </row>
     <row r="425">
       <c r="A425" t="n">
@@ -8089,7 +7161,6 @@
         <v>0</v>
       </c>
       <c r="D425" t="inlineStr"/>
-      <c r="E425" t="inlineStr"/>
     </row>
     <row r="426">
       <c r="A426" t="n">
@@ -8104,7 +7175,6 @@
         <v>0</v>
       </c>
       <c r="D426" t="inlineStr"/>
-      <c r="E426" t="inlineStr"/>
     </row>
     <row r="427">
       <c r="A427" t="n">
@@ -8119,7 +7189,6 @@
         <v>0</v>
       </c>
       <c r="D427" t="inlineStr"/>
-      <c r="E427" t="inlineStr"/>
     </row>
     <row r="428">
       <c r="A428" t="n">
@@ -8134,7 +7203,6 @@
         <v>0</v>
       </c>
       <c r="D428" t="inlineStr"/>
-      <c r="E428" t="inlineStr"/>
     </row>
     <row r="429">
       <c r="A429" t="n">
@@ -8149,7 +7217,6 @@
         <v>0</v>
       </c>
       <c r="D429" t="inlineStr"/>
-      <c r="E429" t="inlineStr"/>
     </row>
     <row r="430">
       <c r="A430" t="n">
@@ -8164,7 +7231,6 @@
         <v>0</v>
       </c>
       <c r="D430" t="inlineStr"/>
-      <c r="E430" t="inlineStr"/>
     </row>
     <row r="431">
       <c r="A431" t="n">
@@ -8179,7 +7245,6 @@
         <v>0</v>
       </c>
       <c r="D431" t="inlineStr"/>
-      <c r="E431" t="inlineStr"/>
     </row>
     <row r="432">
       <c r="A432" t="n">
@@ -8194,7 +7259,6 @@
         <v>0</v>
       </c>
       <c r="D432" t="inlineStr"/>
-      <c r="E432" t="inlineStr"/>
     </row>
     <row r="433">
       <c r="A433" t="n">
@@ -8209,7 +7273,6 @@
         <v>0</v>
       </c>
       <c r="D433" t="inlineStr"/>
-      <c r="E433" t="inlineStr"/>
     </row>
     <row r="434">
       <c r="A434" t="n">
@@ -8224,7 +7287,6 @@
         <v>0</v>
       </c>
       <c r="D434" t="inlineStr"/>
-      <c r="E434" t="inlineStr"/>
     </row>
     <row r="435">
       <c r="A435" t="n">
@@ -8239,7 +7301,6 @@
         <v>0</v>
       </c>
       <c r="D435" t="inlineStr"/>
-      <c r="E435" t="inlineStr"/>
     </row>
     <row r="436">
       <c r="A436" t="n">
@@ -8254,7 +7315,6 @@
         <v>0</v>
       </c>
       <c r="D436" t="inlineStr"/>
-      <c r="E436" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/processed/stateness_2020-05-23.xlsx
+++ b/data/processed/stateness_2020-05-23.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D436"/>
+  <dimension ref="A1:D289"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -390,7 +390,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1991</v>
+        <v>1999</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -398,15 +398,15 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-6.367963666535656</v>
+        <v>15.13675427970335</v>
       </c>
       <c r="D2" t="n">
-        <v>7.894736842105264</v>
+        <v>73.68421052631578</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1991</v>
+        <v>1999</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -414,15 +414,15 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-16.19110004803703</v>
+        <v>11.17057200235179</v>
       </c>
       <c r="D3" t="n">
-        <v>3.157894736842105</v>
+        <v>10.52631578947368</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1991</v>
+        <v>1999</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -430,15 +430,15 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>19.63834212954214</v>
       </c>
       <c r="D4" t="n">
-        <v>7.894736842105264</v>
+        <v>10.52631578947368</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1991</v>
+        <v>1999</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -446,15 +446,15 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-0.4620289095593695</v>
+        <v>17.54812642682802</v>
       </c>
       <c r="D5" t="n">
-        <v>7.894736842105264</v>
+        <v>84.21052631578947</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1991</v>
+        <v>1999</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -462,15 +462,15 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-6.488492947290274</v>
+        <v>6.537742913214093</v>
       </c>
       <c r="D6" t="n">
-        <v>6.315789473684211</v>
+        <v>68.42105263157895</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1991</v>
+        <v>1999</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -478,15 +478,15 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-7.412550766409014</v>
+        <v>8.156931101257364</v>
       </c>
       <c r="D7" t="n">
-        <v>3.157894736842105</v>
+        <v>15.78947368421053</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1991</v>
+        <v>1999</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -494,15 +494,15 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-9.903489235337789</v>
+        <v>7.281151136145916</v>
       </c>
       <c r="D8" t="n">
-        <v>3.157894736842105</v>
+        <v>31.57894736842105</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1991</v>
+        <v>1999</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -510,15 +510,15 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-0.3013232018865453</v>
+        <v>16.72491443523531</v>
       </c>
       <c r="D9" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1991</v>
+        <v>1999</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -526,15 +526,15 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-0.6428228306912964</v>
+        <v>14.77873161244258</v>
       </c>
       <c r="D10" t="n">
-        <v>8.947368421052632</v>
+        <v>89.47368421052632</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1991</v>
+        <v>1999</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -542,15 +542,15 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-3.676143063015852</v>
+        <v>10.43655002138673</v>
       </c>
       <c r="D11" t="n">
-        <v>7.368421052631579</v>
+        <v>84.21052631578947</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1991</v>
+        <v>1999</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -558,309 +558,307 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-1.26555744792349</v>
-      </c>
-      <c r="D12" t="inlineStr"/>
+        <v>20.80698920899453</v>
+      </c>
+      <c r="D12" t="n">
+        <v>63.1578947368421</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1991</v>
+        <v>1999</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>TJK</t>
+          <t>SRB</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-18.03921568627451</v>
-      </c>
-      <c r="D13" t="n">
-        <v>3.684210526315789</v>
-      </c>
+        <v>19.58196631093008</v>
+      </c>
+      <c r="D13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1991</v>
+        <v>1999</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>TKM</t>
+          <t>TJK</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-13.76042621948557</v>
+        <v>3.62897932774973</v>
       </c>
       <c r="D14" t="n">
-        <v>0.5263157894736842</v>
+        <v>42.10526315789473</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1991</v>
+        <v>1999</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>UKR</t>
+          <t>TKM</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-0.8437049652823265</v>
+        <v>4.584355716934071</v>
       </c>
       <c r="D15" t="n">
-        <v>7.894736842105264</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1991</v>
+        <v>1999</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>UZB</t>
+          <t>UKR</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-11.45028167168872</v>
+        <v>16.38560395392816</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>84.21052631578947</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1992</v>
+        <v>1999</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>ARM</t>
+          <t>UZB</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>12.06617700032973</v>
+        <v>5.038522444718992</v>
       </c>
       <c r="D17" t="n">
-        <v>7.894736842105264</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1992</v>
+        <v>2000</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>AZE</t>
+          <t>ARM</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2.577846272274839</v>
+        <v>13.60775906340222</v>
       </c>
       <c r="D18" t="n">
-        <v>5.263157894736842</v>
+        <v>73.68421052631578</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1992</v>
+        <v>2000</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>BLR</t>
+          <t>AZE</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>29.38343756579082</v>
+        <v>9.206925902801762</v>
       </c>
       <c r="D19" t="n">
-        <v>7.894736842105264</v>
+        <v>10.52631578947368</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1992</v>
+        <v>2000</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>EST</t>
+          <t>BLR</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2.138418559832807</v>
+        <v>19.64731225904561</v>
       </c>
       <c r="D20" t="n">
-        <v>7.894736842105264</v>
+        <v>10.52631578947368</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1992</v>
+        <v>2000</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>GEO</t>
+          <t>EST</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>-6.115313287908148</v>
+        <v>17.76234049839705</v>
       </c>
       <c r="D21" t="n">
-        <v>4.736842105263158</v>
+        <v>94.73684210526315</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>1992</v>
+        <v>2000</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>KAZ</t>
+          <t>GEO</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>-7.092996603529827</v>
+        <v>6.421468214953572</v>
       </c>
       <c r="D22" t="n">
-        <v>3.157894736842105</v>
+        <v>57.89473684210527</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>1992</v>
+        <v>2000</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>KGZ</t>
+          <t>KAZ</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>-2.700466672364366</v>
+        <v>9.815842165054232</v>
       </c>
       <c r="D23" t="n">
-        <v>3.157894736842105</v>
+        <v>15.78947368421053</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>1992</v>
+        <v>2000</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>LTU</t>
+          <t>KGZ</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4.434425094158013</v>
+        <v>7.006128580305533</v>
       </c>
       <c r="D24" t="n">
-        <v>10</v>
+        <v>31.57894736842105</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>1992</v>
+        <v>2000</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>LVA</t>
+          <t>LTU</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>1.755876033457886</v>
+        <v>16.43304819406706</v>
       </c>
       <c r="D25" t="n">
-        <v>8.947368421052632</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>1992</v>
+        <v>2000</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>MDA</t>
+          <t>LVA</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2.965197037611203</v>
+        <v>15.13845109237192</v>
       </c>
       <c r="D26" t="n">
-        <v>7.368421052631579</v>
+        <v>89.47368421052632</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>1992</v>
+        <v>2000</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>RUS</t>
+          <t>MDA</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>33.10599904148695</v>
+        <v>9.462095301079277</v>
       </c>
       <c r="D27" t="n">
-        <v>7.368421052631579</v>
+        <v>84.21052631578947</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>1992</v>
+        <v>2000</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>TJK</t>
+          <t>RUS</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>-18.03921568627451</v>
+        <v>21.57849177622685</v>
       </c>
       <c r="D28" t="n">
-        <v>1.578947368421053</v>
+        <v>78.94736842105263</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>1992</v>
+        <v>2000</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>TKM</t>
+          <t>SRB</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>12.81157905360636</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
+        <v>19.81579703500943</v>
+      </c>
+      <c r="D29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>1992</v>
+        <v>2000</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>UKR</t>
+          <t>TJK</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>22.06683717490765</v>
+        <v>2.302054115926833</v>
       </c>
       <c r="D30" t="n">
-        <v>7.894736842105264</v>
+        <v>42.10526315789473</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>1992</v>
+        <v>2000</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>UZB</t>
+          <t>TKM</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>-6.787786015710131</v>
+        <v>4.361937299884612</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -868,2847 +866,2837 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>1993</v>
+        <v>2000</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>ARM</t>
+          <t>UKR</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>15.08722798352633</v>
+        <v>17.13362352470185</v>
       </c>
       <c r="D32" t="n">
-        <v>7.894736842105264</v>
+        <v>78.94736842105263</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>1993</v>
+        <v>2000</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>AZE</t>
+          <t>UZB</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4.247998300305097</v>
+        <v>4.308478896061779</v>
       </c>
       <c r="D33" t="n">
-        <v>3.157894736842105</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>1993</v>
+        <v>2001</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>BLR</t>
+          <t>ARM</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>64.50980392156862</v>
+        <v>12.01375958030735</v>
       </c>
       <c r="D34" t="n">
-        <v>7.894736842105264</v>
+        <v>73.68421052631578</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1993</v>
+        <v>2001</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>EST</t>
+          <t>AZE</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>7.290624723684688</v>
+        <v>8.756305243800321</v>
       </c>
       <c r="D35" t="n">
-        <v>7.894736842105264</v>
+        <v>10.52631578947368</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1993</v>
+        <v>2001</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>GEO</t>
+          <t>BLR</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>6.442581320496579</v>
+        <v>21.24458088891648</v>
       </c>
       <c r="D36" t="n">
-        <v>4.736842105263158</v>
+        <v>10.52631578947368</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1993</v>
+        <v>2001</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>KAZ</t>
+          <t>EST</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>-6.90115635997989</v>
+        <v>17.70153095703981</v>
       </c>
       <c r="D37" t="n">
-        <v>3.157894736842105</v>
+        <v>94.73684210526315</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1993</v>
+        <v>2001</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>KGZ</t>
+          <t>GEO</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>-1.7289728434814</v>
+        <v>5.766002951281806</v>
       </c>
       <c r="D38" t="n">
-        <v>3.157894736842105</v>
+        <v>57.89473684210527</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1993</v>
+        <v>2001</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>LTU</t>
+          <t>KAZ</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5.279041594729275</v>
+        <v>10.10761780428992</v>
       </c>
       <c r="D39" t="n">
-        <v>10</v>
+        <v>15.78947368421053</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1993</v>
+        <v>2001</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>LVA</t>
+          <t>KGZ</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2.550030365806163</v>
+        <v>6.133463784700122</v>
       </c>
       <c r="D40" t="n">
-        <v>8.947368421052632</v>
+        <v>31.57894736842105</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1993</v>
+        <v>2001</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>MDA</t>
+          <t>LTU</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>8.117577560755452</v>
+        <v>16.3354242834038</v>
       </c>
       <c r="D41" t="n">
-        <v>7.368421052631579</v>
+        <v>100</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1993</v>
+        <v>2001</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>RUS</t>
+          <t>LVA</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>26.75954275999322</v>
+        <v>15.4075824052487</v>
       </c>
       <c r="D42" t="n">
-        <v>6.315789473684211</v>
+        <v>89.47368421052632</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1993</v>
+        <v>2001</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>TJK</t>
+          <t>MDA</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>-17.39034134777499</v>
+        <v>8.662428695176146</v>
       </c>
       <c r="D43" t="n">
-        <v>1.578947368421053</v>
+        <v>89.47368421052632</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1993</v>
+        <v>2001</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>TKM</t>
+          <t>RUS</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>13.05757700583964</v>
+        <v>22.60477153663494</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>78.94736842105263</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>1993</v>
+        <v>2001</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>UKR</t>
+          <t>SRB</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>19.76384479591412</v>
-      </c>
-      <c r="D45" t="n">
-        <v>7.368421052631579</v>
-      </c>
+        <v>20.00470990236352</v>
+      </c>
+      <c r="D45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1993</v>
+        <v>2001</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>UZB</t>
+          <t>TJK</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>-5.600566912654729</v>
+        <v>2.881047398427174</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>42.10526315789473</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1994</v>
+        <v>2001</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>ARM</t>
+          <t>TKM</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>29.65190570610267</v>
+        <v>3.913715808633179</v>
       </c>
       <c r="D47" t="n">
-        <v>7.894736842105264</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1994</v>
+        <v>2001</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>AZE</t>
+          <t>UKR</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>30.2857694322024</v>
+        <v>15.89817049773682</v>
       </c>
       <c r="D48" t="n">
-        <v>3.157894736842105</v>
+        <v>78.94736842105263</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1994</v>
+        <v>2001</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>BLR</t>
+          <t>UZB</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>41.96413676372367</v>
+        <v>3.967275490480825</v>
       </c>
       <c r="D49" t="n">
-        <v>8.947368421052632</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>1994</v>
+        <v>2002</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>EST</t>
+          <t>ARM</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3.564136124295984</v>
+        <v>12.87306350680467</v>
       </c>
       <c r="D50" t="n">
-        <v>7.894736842105264</v>
+        <v>73.68421052631578</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>1994</v>
+        <v>2002</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>GEO</t>
+          <t>AZE</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>-5.017639249294909</v>
+        <v>10.64303207676063</v>
       </c>
       <c r="D51" t="n">
-        <v>5.789473684210527</v>
+        <v>10.52631578947368</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>1994</v>
+        <v>2002</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>KAZ</t>
+          <t>BLR</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>-6.891385767790265</v>
+        <v>22.7682882080518</v>
       </c>
       <c r="D52" t="n">
-        <v>3.157894736842105</v>
+        <v>10.52631578947368</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>1994</v>
+        <v>2002</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>KGZ</t>
+          <t>EST</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>-3.484141505727131</v>
+        <v>18.77690127075177</v>
       </c>
       <c r="D53" t="n">
-        <v>3.157894736842105</v>
+        <v>94.73684210526315</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>1994</v>
+        <v>2002</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>LTU</t>
+          <t>GEO</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3.585618261316423</v>
+        <v>7.457057421336395</v>
       </c>
       <c r="D54" t="n">
-        <v>10</v>
+        <v>57.89473684210527</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>1994</v>
+        <v>2002</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>LVA</t>
+          <t>KAZ</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>15.812650982095</v>
+        <v>11.88928065300806</v>
       </c>
       <c r="D55" t="n">
-        <v>8.947368421052632</v>
+        <v>15.78947368421053</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>1994</v>
+        <v>2002</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>MDA</t>
+          <t>KGZ</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2.296779851819496</v>
+        <v>6.376439591511521</v>
       </c>
       <c r="D56" t="n">
-        <v>8.421052631578947</v>
+        <v>31.57894736842105</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>1994</v>
+        <v>2002</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>RUS</t>
+          <t>LTU</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>17.85477143703816</v>
+        <v>18.06111328299987</v>
       </c>
       <c r="D57" t="n">
-        <v>6.315789473684211</v>
+        <v>100</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>1994</v>
+        <v>2002</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>TJK</t>
+          <t>LVA</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>-18.03247131964422</v>
+        <v>16.19577898740907</v>
       </c>
       <c r="D58" t="n">
-        <v>1.578947368421053</v>
+        <v>89.47368421052632</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>1994</v>
+        <v>2002</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>TKM</t>
+          <t>MDA</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>-4.455845755896081</v>
+        <v>10.09000864652085</v>
       </c>
       <c r="D59" t="n">
-        <v>0</v>
+        <v>89.47368421052632</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>1994</v>
+        <v>2002</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>UKR</t>
+          <t>RUS</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>12.37793126396974</v>
+        <v>23.29800283395932</v>
       </c>
       <c r="D60" t="n">
-        <v>8.421052631578947</v>
+        <v>78.94736842105263</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>1994</v>
+        <v>2002</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>UZB</t>
+          <t>SRB</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>-10.08857876358261</v>
-      </c>
-      <c r="D61" t="n">
-        <v>0</v>
-      </c>
+        <v>20.24848787931241</v>
+      </c>
+      <c r="D61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>1995</v>
+        <v>2002</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>ARM</t>
+          <t>TJK</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>29.83193277310925</v>
+        <v>3.95649830790433</v>
       </c>
       <c r="D62" t="n">
-        <v>5.263157894736842</v>
+        <v>42.10526315789473</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>1995</v>
+        <v>2002</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>AZE</t>
+          <t>TKM</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>13.65072716101228</v>
+        <v>4.467747912097039</v>
       </c>
       <c r="D63" t="n">
-        <v>1.578947368421053</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>1995</v>
+        <v>2002</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>BLR</t>
+          <t>UKR</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>51.32200893874547</v>
+        <v>17.34037321216293</v>
       </c>
       <c r="D64" t="n">
-        <v>4.736842105263158</v>
+        <v>78.94736842105263</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>1995</v>
+        <v>2002</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>EST</t>
+          <t>UZB</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>57.70705158999714</v>
+        <v>4.303316880225744</v>
       </c>
       <c r="D65" t="n">
-        <v>7.894736842105264</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>1995</v>
+        <v>2003</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>GEO</t>
+          <t>ARM</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>-4.067882424131189</v>
+        <v>14.00287208834848</v>
       </c>
       <c r="D66" t="n">
-        <v>6.842105263157895</v>
+        <v>73.68421052631578</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>1995</v>
+        <v>2003</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>KAZ</t>
+          <t>AZE</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>-2.523000677312331</v>
+        <v>11.15408937048033</v>
       </c>
       <c r="D67" t="n">
-        <v>1.578947368421053</v>
+        <v>10.52631578947368</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>1995</v>
+        <v>2003</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>KGZ</t>
+          <t>BLR</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>-8.907563025210083</v>
+        <v>23.93723119689978</v>
       </c>
       <c r="D68" t="n">
-        <v>3.157894736842105</v>
+        <v>10.52631578947368</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>1995</v>
+        <v>2003</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>LTU</t>
+          <t>EST</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>36.83465800661262</v>
+        <v>19.27955470095651</v>
       </c>
       <c r="D69" t="n">
-        <v>10</v>
+        <v>94.73684210526315</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>1995</v>
+        <v>2003</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>LVA</t>
+          <t>GEO</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>37.04300809529716</v>
+        <v>7.487507483873912</v>
       </c>
       <c r="D70" t="n">
-        <v>8.947368421052632</v>
+        <v>57.89473684210527</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>1995</v>
+        <v>2003</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>MDA</t>
+          <t>KAZ</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>25.86260339592634</v>
+        <v>13.27635113128109</v>
       </c>
       <c r="D71" t="n">
-        <v>8.421052631578947</v>
+        <v>15.78947368421053</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>1995</v>
+        <v>2003</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>RUS</t>
+          <t>KGZ</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>40.34966380419985</v>
+        <v>6.886838601783815</v>
       </c>
       <c r="D72" t="n">
-        <v>6.315789473684211</v>
+        <v>31.57894736842105</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>1995</v>
+        <v>2003</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>TJK</t>
+          <t>LTU</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>-10.36857277758354</v>
+        <v>18.09826603866763</v>
       </c>
       <c r="D73" t="n">
-        <v>1.578947368421053</v>
+        <v>100</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>1995</v>
+        <v>2003</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>TKM</t>
+          <t>LVA</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>-10.62867820167286</v>
+        <v>16.85217755323951</v>
       </c>
       <c r="D74" t="n">
-        <v>0</v>
+        <v>89.47368421052632</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>1995</v>
+        <v>2003</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>UKR</t>
+          <t>MDA</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>19.30457835840407</v>
+        <v>11.78704521766326</v>
       </c>
       <c r="D75" t="n">
-        <v>8.421052631578947</v>
+        <v>89.47368421052632</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>1995</v>
+        <v>2003</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>UZB</t>
+          <t>RUS</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>-9.485687749544876</v>
+        <v>24.1294995568726</v>
       </c>
       <c r="D76" t="n">
-        <v>0</v>
+        <v>78.94736842105263</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>1996</v>
+        <v>2003</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>ARM</t>
+          <t>SRB</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>29.76570289132603</v>
-      </c>
-      <c r="D77" t="n">
-        <v>1.578947368421053</v>
-      </c>
+        <v>19.10374025457739</v>
+      </c>
+      <c r="D77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>1996</v>
+        <v>2003</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>AZE</t>
+          <t>TJK</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>9.508444057506749</v>
+        <v>5.388632197463775</v>
       </c>
       <c r="D78" t="n">
-        <v>1.578947368421053</v>
+        <v>31.57894736842105</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>1996</v>
+        <v>2003</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>BLR</t>
+          <t>TKM</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>59.04174466952075</v>
+        <v>5.686736832751962</v>
       </c>
       <c r="D79" t="n">
-        <v>1.052631578947368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>1996</v>
+        <v>2003</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>EST</t>
+          <t>UKR</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>56.64753462126971</v>
+        <v>18.42245453677836</v>
       </c>
       <c r="D80" t="n">
-        <v>7.894736842105264</v>
+        <v>78.94736842105263</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>1996</v>
+        <v>2003</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>GEO</t>
+          <t>UZB</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>-4.842117478748508</v>
+        <v>4.267969215064096</v>
       </c>
       <c r="D81" t="n">
-        <v>6.842105263157895</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>1996</v>
+        <v>2004</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>KAZ</t>
+          <t>ARM</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>-3.63901683029547</v>
+        <v>16.32814702164256</v>
       </c>
       <c r="D82" t="n">
-        <v>1.578947368421053</v>
+        <v>73.68421052631578</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>1996</v>
+        <v>2004</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>KGZ</t>
+          <t>AZE</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>-7.967085230685934</v>
+        <v>12.03561716052448</v>
       </c>
       <c r="D83" t="n">
-        <v>3.157894736842105</v>
+        <v>10.52631578947368</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>1996</v>
+        <v>2004</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>LTU</t>
+          <t>BLR</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>47.47672718205288</v>
+        <v>23.74533571373245</v>
       </c>
       <c r="D84" t="n">
-        <v>10</v>
+        <v>10.52631578947368</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>1996</v>
+        <v>2004</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>LVA</t>
+          <t>EST</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>50.1270831116463</v>
+        <v>19.20930141728144</v>
       </c>
       <c r="D85" t="n">
-        <v>8.947368421052632</v>
+        <v>94.73684210526315</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>1996</v>
+        <v>2004</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>MDA</t>
+          <t>GEO</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>30.12700479316965</v>
+        <v>7.694124538411932</v>
       </c>
       <c r="D86" t="n">
-        <v>8.421052631578947</v>
+        <v>78.94736842105263</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>1996</v>
+        <v>2004</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>RUS</t>
+          <t>KAZ</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>38.09331625474439</v>
+        <v>13.34653130564761</v>
       </c>
       <c r="D87" t="n">
-        <v>6.315789473684211</v>
+        <v>15.78947368421053</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>1996</v>
+        <v>2004</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>TJK</t>
+          <t>KGZ</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>-7.859976609663562</v>
+        <v>6.803466239613634</v>
       </c>
       <c r="D88" t="n">
-        <v>1.578947368421053</v>
+        <v>31.57894736842105</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>1996</v>
+        <v>2004</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>TKM</t>
+          <t>LTU</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>-8.846825346241161</v>
+        <v>18.39721110014841</v>
       </c>
       <c r="D89" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>1996</v>
+        <v>2004</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>UKR</t>
+          <t>LVA</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>17.11822512703538</v>
+        <v>16.7575980435653</v>
       </c>
       <c r="D90" t="n">
-        <v>8.421052631578947</v>
+        <v>89.47368421052632</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>1996</v>
+        <v>2004</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>UZB</t>
+          <t>MDA</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>7.149299233352103</v>
+        <v>11.42467011757784</v>
       </c>
       <c r="D91" t="n">
-        <v>0</v>
+        <v>89.47368421052632</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>1997</v>
+        <v>2004</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>ARM</t>
+          <t>RUS</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>29.66937493229336</v>
+        <v>23.40754293516529</v>
       </c>
       <c r="D92" t="n">
-        <v>1.578947368421053</v>
+        <v>78.94736842105263</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>1997</v>
+        <v>2004</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>AZE</t>
+          <t>SRB</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>13.96191440827229</v>
-      </c>
-      <c r="D93" t="n">
-        <v>1.578947368421053</v>
-      </c>
+        <v>18.35951027392545</v>
+      </c>
+      <c r="D93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>1997</v>
+        <v>2004</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>BLR</t>
+          <t>TJK</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>61.82404830181611</v>
+        <v>4.962644722535643</v>
       </c>
       <c r="D94" t="n">
-        <v>1.052631578947368</v>
+        <v>31.57894736842105</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>1997</v>
+        <v>2004</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>EST</t>
+          <t>TKM</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>56.3058473391398</v>
+        <v>5.441805192342892</v>
       </c>
       <c r="D95" t="n">
-        <v>7.894736842105264</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>1997</v>
+        <v>2004</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>GEO</t>
+          <t>UKR</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>6.550261947521976</v>
+        <v>16.86664702721189</v>
       </c>
       <c r="D96" t="n">
-        <v>6.842105263157895</v>
+        <v>78.94736842105263</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>1997</v>
+        <v>2004</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>KAZ</t>
+          <t>UZB</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>-4.913322906473725</v>
+        <v>4.032408363629612</v>
       </c>
       <c r="D97" t="n">
-        <v>1.578947368421053</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>1997</v>
+        <v>2005</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>KGZ</t>
+          <t>ARM</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>13.59562250145308</v>
+        <v>19.2409179434695</v>
       </c>
       <c r="D98" t="n">
-        <v>3.157894736842105</v>
+        <v>73.68421052631578</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>1997</v>
+        <v>2005</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>LTU</t>
+          <t>AZE</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>53.23736181664064</v>
+        <v>13.77411305383529</v>
       </c>
       <c r="D99" t="n">
-        <v>10</v>
+        <v>10.52631578947368</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>1997</v>
+        <v>2005</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>LVA</t>
+          <t>BLR</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>54.33015747692558</v>
+        <v>24.16083506412444</v>
       </c>
       <c r="D100" t="n">
-        <v>8.947368421052632</v>
+        <v>10.52631578947368</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>1997</v>
+        <v>2005</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>MDA</t>
+          <t>EST</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>39.31767991373134</v>
+        <v>18.74126055128555</v>
       </c>
       <c r="D101" t="n">
-        <v>8.421052631578947</v>
+        <v>94.73684210526315</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>1997</v>
+        <v>2005</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>RUS</t>
+          <t>GEO</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>39.44423931437469</v>
+        <v>11.88734460310405</v>
       </c>
       <c r="D102" t="n">
-        <v>6.315789473684211</v>
+        <v>84.21052631578947</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>1997</v>
+        <v>2005</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>TJK</t>
+          <t>KAZ</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>-16.88457584443223</v>
+        <v>11.91080745829701</v>
       </c>
       <c r="D103" t="n">
-        <v>2.105263157894737</v>
+        <v>15.78947368421053</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>1997</v>
+        <v>2005</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>TKM</t>
+          <t>KGZ</t>
         </is>
       </c>
       <c r="C104" t="n">
-        <v>-10.62548120542097</v>
+        <v>6.685357865648113</v>
       </c>
       <c r="D104" t="n">
-        <v>0</v>
+        <v>63.1578947368421</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>1997</v>
+        <v>2005</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>UKR</t>
+          <t>LTU</t>
         </is>
       </c>
       <c r="C105" t="n">
-        <v>15.66160961180648</v>
+        <v>17.71283575319659</v>
       </c>
       <c r="D105" t="n">
-        <v>8.421052631578947</v>
+        <v>100</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>1997</v>
+        <v>2005</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>UZB</t>
+          <t>LVA</t>
         </is>
       </c>
       <c r="C106" t="n">
-        <v>6.75753508670149</v>
+        <v>16.77725356121049</v>
       </c>
       <c r="D106" t="n">
-        <v>0</v>
+        <v>89.47368421052632</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>1998</v>
+        <v>2005</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>ARM</t>
+          <t>MDA</t>
         </is>
       </c>
       <c r="C107" t="n">
-        <v>29.59219368498573</v>
+        <v>11.99159596727663</v>
       </c>
       <c r="D107" t="n">
-        <v>7.368421052631579</v>
+        <v>94.73684210526315</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>1998</v>
+        <v>2005</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>AZE</t>
+          <t>RUS</t>
         </is>
       </c>
       <c r="C108" t="n">
-        <v>12.65883418351695</v>
+        <v>23.70430994764814</v>
       </c>
       <c r="D108" t="n">
-        <v>1.052631578947368</v>
+        <v>78.94736842105263</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>1998</v>
+        <v>2005</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>BLR</t>
+          <t>SRB</t>
         </is>
       </c>
       <c r="C109" t="n">
-        <v>53.6507596679146</v>
-      </c>
-      <c r="D109" t="n">
-        <v>1.052631578947368</v>
-      </c>
+        <v>20.38852880856451</v>
+      </c>
+      <c r="D109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>1998</v>
+        <v>2005</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>EST</t>
+          <t>TJK</t>
         </is>
       </c>
       <c r="C110" t="n">
-        <v>54.71030576232899</v>
+        <v>5.3344569479121</v>
       </c>
       <c r="D110" t="n">
-        <v>7.894736842105264</v>
+        <v>31.57894736842105</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>1998</v>
+        <v>2005</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>GEO</t>
+          <t>TKM</t>
         </is>
       </c>
       <c r="C111" t="n">
-        <v>4.270691079999959</v>
+        <v>5.657700525423811</v>
       </c>
       <c r="D111" t="n">
-        <v>6.842105263157895</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>1998</v>
+        <v>2005</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>KAZ</t>
+          <t>UKR</t>
         </is>
       </c>
       <c r="C112" t="n">
-        <v>-3.10967304986716</v>
+        <v>18.39843671102014</v>
       </c>
       <c r="D112" t="n">
-        <v>1.578947368421053</v>
+        <v>78.94736842105263</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>1998</v>
+        <v>2005</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>KGZ</t>
+          <t>UZB</t>
         </is>
       </c>
       <c r="C113" t="n">
-        <v>9.251323957560386</v>
+        <v>4.339720425489038</v>
       </c>
       <c r="D113" t="n">
-        <v>3.157894736842105</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>1998</v>
+        <v>2006</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>LTU</t>
+          <t>ARM</t>
         </is>
       </c>
       <c r="C114" t="n">
-        <v>53.38748046606941</v>
+        <v>16.78112314023627</v>
       </c>
       <c r="D114" t="n">
-        <v>10</v>
+        <v>73.68421052631578</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>1998</v>
+        <v>2006</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>LVA</t>
+          <t>AZE</t>
         </is>
       </c>
       <c r="C115" t="n">
-        <v>53.96727969459677</v>
+        <v>13.45720471269597</v>
       </c>
       <c r="D115" t="n">
-        <v>8.947368421052632</v>
+        <v>10.52631578947368</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>1998</v>
+        <v>2006</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>MDA</t>
+          <t>BLR</t>
         </is>
       </c>
       <c r="C116" t="n">
-        <v>33.02673254708883</v>
+        <v>24.46336126081381</v>
       </c>
       <c r="D116" t="n">
-        <v>8.421052631578947</v>
+        <v>10.52631578947368</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>1998</v>
+        <v>2006</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>RUS</t>
+          <t>EST</t>
         </is>
       </c>
       <c r="C117" t="n">
-        <v>39.59424534545348</v>
+        <v>17.17796204476199</v>
       </c>
       <c r="D117" t="n">
-        <v>6.315789473684211</v>
+        <v>94.73684210526315</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>1998</v>
+        <v>2006</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>TJK</t>
+          <t>GEO</t>
         </is>
       </c>
       <c r="C118" t="n">
-        <v>-17.22051515509202</v>
+        <v>14.19623672378169</v>
       </c>
       <c r="D118" t="n">
-        <v>4.210526315789473</v>
+        <v>84.21052631578947</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>1998</v>
+        <v>2006</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>TKM</t>
+          <t>KAZ</t>
         </is>
       </c>
       <c r="C119" t="n">
-        <v>-11.68808848191284</v>
+        <v>10.83421999832063</v>
       </c>
       <c r="D119" t="n">
-        <v>0</v>
+        <v>15.78947368421053</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>1998</v>
+        <v>2006</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>UKR</t>
+          <t>KGZ</t>
         </is>
       </c>
       <c r="C120" t="n">
-        <v>16.37920889575978</v>
+        <v>5.833111069290252</v>
       </c>
       <c r="D120" t="n">
-        <v>8.421052631578947</v>
+        <v>68.42105263157895</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>1998</v>
+        <v>2006</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>UZB</t>
+          <t>LTU</t>
         </is>
       </c>
       <c r="C121" t="n">
-        <v>6.777747344815602</v>
+        <v>16.24419088066347</v>
       </c>
       <c r="D121" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>1999</v>
+        <v>2006</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>ARM</t>
+          <t>LVA</t>
         </is>
       </c>
       <c r="C122" t="n">
-        <v>29.50782333135275</v>
+        <v>17.60699028824942</v>
       </c>
       <c r="D122" t="n">
-        <v>7.368421052631579</v>
+        <v>89.47368421052632</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>1999</v>
+        <v>2006</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>AZE</t>
+          <t>MDA</t>
         </is>
       </c>
       <c r="C123" t="n">
-        <v>13.49689742230152</v>
+        <v>12.28981941652653</v>
       </c>
       <c r="D123" t="n">
-        <v>1.052631578947368</v>
+        <v>94.73684210526315</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>1999</v>
+        <v>2006</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>BLR</t>
+          <t>RUS</t>
         </is>
       </c>
       <c r="C124" t="n">
-        <v>56.71858219927757</v>
+        <v>20.74046040150782</v>
       </c>
       <c r="D124" t="n">
-        <v>1.052631578947368</v>
+        <v>78.94736842105263</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>1999</v>
+        <v>2006</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>EST</t>
+          <t>SRB</t>
         </is>
       </c>
       <c r="C125" t="n">
-        <v>52.05301882171619</v>
+        <v>12.19395225683708</v>
       </c>
       <c r="D125" t="n">
-        <v>8.421052631578947</v>
+        <v>89.47368421052632</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>1999</v>
+        <v>2006</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>GEO</t>
+          <t>TJK</t>
         </is>
       </c>
       <c r="C126" t="n">
-        <v>2.64446018486836</v>
+        <v>5.289313803510233</v>
       </c>
       <c r="D126" t="n">
-        <v>6.842105263157895</v>
+        <v>31.57894736842105</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>1999</v>
+        <v>2006</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>KAZ</t>
+          <t>TKM</t>
         </is>
       </c>
       <c r="C127" t="n">
-        <v>-1.122021628949754</v>
+        <v>4.798939776406067</v>
       </c>
       <c r="D127" t="n">
-        <v>1.578947368421053</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>1999</v>
+        <v>2006</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>KGZ</t>
+          <t>UKR</t>
         </is>
       </c>
       <c r="C128" t="n">
-        <v>13.07111058794599</v>
+        <v>15.6756307482289</v>
       </c>
       <c r="D128" t="n">
-        <v>3.157894736842105</v>
+        <v>84.21052631578947</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>1999</v>
+        <v>2006</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>LTU</t>
+          <t>UZB</t>
         </is>
       </c>
       <c r="C129" t="n">
-        <v>56.632443606371</v>
+        <v>3.824203289153404</v>
       </c>
       <c r="D129" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>1999</v>
+        <v>2007</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>LVA</t>
+          <t>ARM</t>
         </is>
       </c>
       <c r="C130" t="n">
-        <v>52.20458956427719</v>
+        <v>15.26270260859867</v>
       </c>
       <c r="D130" t="n">
-        <v>8.947368421052632</v>
+        <v>73.68421052631578</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>1999</v>
+        <v>2007</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>MDA</t>
+          <t>AZE</t>
         </is>
       </c>
       <c r="C131" t="n">
-        <v>30.27251183293977</v>
+        <v>11.69054614233609</v>
       </c>
       <c r="D131" t="n">
-        <v>8.421052631578947</v>
+        <v>10.52631578947368</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>1999</v>
+        <v>2007</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>RUS</t>
+          <t>BLR</t>
         </is>
       </c>
       <c r="C132" t="n">
-        <v>42.83044525795717</v>
+        <v>24.04967886489863</v>
       </c>
       <c r="D132" t="n">
-        <v>6.315789473684211</v>
+        <v>10.52631578947368</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>1999</v>
+        <v>2007</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>TJK</t>
+          <t>EST</t>
         </is>
       </c>
       <c r="C133" t="n">
-        <v>-8.375095636276381</v>
+        <v>16.29674492249174</v>
       </c>
       <c r="D133" t="n">
-        <v>4.210526315789473</v>
+        <v>94.73684210526315</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>1999</v>
+        <v>2007</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>TKM</t>
+          <t>GEO</t>
         </is>
       </c>
       <c r="C134" t="n">
-        <v>-11.99376487915243</v>
+        <v>14.76185638597872</v>
       </c>
       <c r="D134" t="n">
-        <v>0</v>
+        <v>78.94736842105263</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>1999</v>
+        <v>2007</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>UKR</t>
+          <t>KAZ</t>
         </is>
       </c>
       <c r="C135" t="n">
-        <v>26.95562108311358</v>
+        <v>10.80397865431707</v>
       </c>
       <c r="D135" t="n">
-        <v>8.421052631578947</v>
+        <v>15.78947368421053</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>1999</v>
+        <v>2007</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>UZB</t>
+          <t>KGZ</t>
         </is>
       </c>
       <c r="C136" t="n">
-        <v>12.59044323995289</v>
+        <v>6.312688993612257</v>
       </c>
       <c r="D136" t="n">
-        <v>0</v>
+        <v>63.1578947368421</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>2000</v>
+        <v>2007</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>ARM</t>
+          <t>LTU</t>
         </is>
       </c>
       <c r="C137" t="n">
-        <v>35.63449466219708</v>
+        <v>15.36465923105813</v>
       </c>
       <c r="D137" t="n">
-        <v>7.368421052631579</v>
+        <v>100</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>2000</v>
+        <v>2007</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>AZE</t>
+          <t>LVA</t>
         </is>
       </c>
       <c r="C138" t="n">
-        <v>9.19046883564261</v>
+        <v>16.05308009668376</v>
       </c>
       <c r="D138" t="n">
-        <v>1.052631578947368</v>
+        <v>89.47368421052632</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>2000</v>
+        <v>2007</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>BLR</t>
+          <t>MDA</t>
         </is>
       </c>
       <c r="C139" t="n">
-        <v>61.78348237446229</v>
+        <v>11.92513437685255</v>
       </c>
       <c r="D139" t="n">
-        <v>1.052631578947368</v>
+        <v>94.73684210526315</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>2000</v>
+        <v>2007</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>EST</t>
+          <t>RUS</t>
         </is>
       </c>
       <c r="C140" t="n">
-        <v>48.93128579018828</v>
+        <v>18.65138271946512</v>
       </c>
       <c r="D140" t="n">
-        <v>9.473684210526315</v>
+        <v>68.42105263157895</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>2000</v>
+        <v>2007</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>GEO</t>
+          <t>SRB</t>
         </is>
       </c>
       <c r="C141" t="n">
-        <v>7.615063552643528</v>
+        <v>14.35642576729918</v>
       </c>
       <c r="D141" t="n">
-        <v>5.789473684210527</v>
+        <v>89.47368421052632</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>2000</v>
+        <v>2007</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>KAZ</t>
+          <t>TJK</t>
         </is>
       </c>
       <c r="C142" t="n">
-        <v>10.81445806105198</v>
+        <v>4.949980247380948</v>
       </c>
       <c r="D142" t="n">
-        <v>1.578947368421053</v>
+        <v>31.57894736842105</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>2000</v>
+        <v>2007</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>KGZ</t>
+          <t>TKM</t>
         </is>
       </c>
       <c r="C143" t="n">
-        <v>12.24727015304525</v>
+        <v>4.609999587305551</v>
       </c>
       <c r="D143" t="n">
-        <v>3.157894736842105</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>2000</v>
+        <v>2007</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>LTU</t>
+          <t>UKR</t>
         </is>
       </c>
       <c r="C144" t="n">
-        <v>59.60840297947753</v>
+        <v>13.27968356707435</v>
       </c>
       <c r="D144" t="n">
-        <v>10</v>
+        <v>84.21052631578947</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>2000</v>
+        <v>2007</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>LVA</t>
+          <t>UZB</t>
         </is>
       </c>
       <c r="C145" t="n">
-        <v>53.77669860606782</v>
+        <v>3.808957114806892</v>
       </c>
       <c r="D145" t="n">
-        <v>8.947368421052632</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>2000</v>
+        <v>2008</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>MDA</t>
+          <t>ARM</t>
         </is>
       </c>
       <c r="C146" t="n">
-        <v>33.55273744125673</v>
+        <v>16.10643111066468</v>
       </c>
       <c r="D146" t="n">
-        <v>8.421052631578947</v>
+        <v>73.68421052631578</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>2000</v>
+        <v>2008</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>RUS</t>
+          <t>AZE</t>
         </is>
       </c>
       <c r="C147" t="n">
-        <v>54.07195880035005</v>
+        <v>12.57779469797606</v>
       </c>
       <c r="D147" t="n">
-        <v>7.894736842105264</v>
+        <v>10.52631578947368</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>2000</v>
+        <v>2008</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>TJK</t>
+          <t>BLR</t>
         </is>
       </c>
       <c r="C148" t="n">
-        <v>-17.92102800594672</v>
+        <v>24.0231198360255</v>
       </c>
       <c r="D148" t="n">
-        <v>4.210526315789473</v>
+        <v>10.52631578947368</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>2000</v>
+        <v>2008</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>TKM</t>
+          <t>EST</t>
         </is>
       </c>
       <c r="C149" t="n">
-        <v>4.964715032206549</v>
+        <v>16.14909768795389</v>
       </c>
       <c r="D149" t="n">
-        <v>0</v>
+        <v>94.73684210526315</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>2000</v>
+        <v>2008</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>UKR</t>
+          <t>GEO</t>
         </is>
       </c>
       <c r="C150" t="n">
-        <v>35.50511331824693</v>
+        <v>17.96528235600941</v>
       </c>
       <c r="D150" t="n">
-        <v>7.894736842105264</v>
+        <v>78.94736842105263</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>2000</v>
+        <v>2008</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>UZB</t>
+          <t>KAZ</t>
         </is>
       </c>
       <c r="C151" t="n">
-        <v>7.469874342018132</v>
+        <v>11.48961866780795</v>
       </c>
       <c r="D151" t="n">
-        <v>0</v>
+        <v>15.78947368421053</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>2001</v>
+        <v>2008</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>ARM</t>
+          <t>KGZ</t>
         </is>
       </c>
       <c r="C152" t="n">
-        <v>47.28741049867832</v>
+        <v>6.757175712290898</v>
       </c>
       <c r="D152" t="n">
-        <v>7.368421052631579</v>
+        <v>63.1578947368421</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>2001</v>
+        <v>2008</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>AZE</t>
+          <t>LTU</t>
         </is>
       </c>
       <c r="C153" t="n">
-        <v>3.617984867565495</v>
+        <v>15.61645946796078</v>
       </c>
       <c r="D153" t="n">
-        <v>1.052631578947368</v>
+        <v>100</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>2001</v>
+        <v>2008</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>BLR</t>
+          <t>LVA</t>
         </is>
       </c>
       <c r="C154" t="n">
-        <v>77.18773950137764</v>
+        <v>13.74249907503973</v>
       </c>
       <c r="D154" t="n">
-        <v>1.052631578947368</v>
+        <v>89.47368421052632</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>2001</v>
+        <v>2008</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>EST</t>
+          <t>MDA</t>
         </is>
       </c>
       <c r="C155" t="n">
-        <v>39.19451090291866</v>
+        <v>11.93920088563276</v>
       </c>
       <c r="D155" t="n">
-        <v>9.473684210526315</v>
+        <v>94.73684210526315</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>2001</v>
+        <v>2008</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>GEO</t>
+          <t>RUS</t>
         </is>
       </c>
       <c r="C156" t="n">
-        <v>2.353521688477131</v>
+        <v>18.59939091351238</v>
       </c>
       <c r="D156" t="n">
-        <v>5.789473684210527</v>
+        <v>68.42105263157895</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>2001</v>
+        <v>2008</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>KAZ</t>
+          <t>SRB</t>
         </is>
       </c>
       <c r="C157" t="n">
-        <v>14.33907856839032</v>
+        <v>14.41647498930416</v>
       </c>
       <c r="D157" t="n">
-        <v>1.578947368421053</v>
+        <v>89.47368421052632</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>2001</v>
+        <v>2008</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>KGZ</t>
+          <t>TJK</t>
         </is>
       </c>
       <c r="C158" t="n">
-        <v>13.14104609223054</v>
+        <v>4.67080617831621</v>
       </c>
       <c r="D158" t="n">
-        <v>3.157894736842105</v>
+        <v>31.57894736842105</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>2001</v>
+        <v>2008</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>LTU</t>
+          <t>TKM</t>
         </is>
       </c>
       <c r="C159" t="n">
-        <v>57.13728286308818</v>
+        <v>5.108234035072596</v>
       </c>
       <c r="D159" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>2001</v>
+        <v>2008</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>LVA</t>
+          <t>UKR</t>
         </is>
       </c>
       <c r="C160" t="n">
-        <v>55.1262589336087</v>
+        <v>14.39191384749662</v>
       </c>
       <c r="D160" t="n">
-        <v>8.947368421052632</v>
+        <v>84.21052631578947</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>2001</v>
+        <v>2008</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>MDA</t>
+          <t>UZB</t>
         </is>
       </c>
       <c r="C161" t="n">
-        <v>24.84206753946236</v>
+        <v>5.460154453902692</v>
       </c>
       <c r="D161" t="n">
-        <v>8.947368421052632</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>2001</v>
+        <v>2009</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>RUS</t>
+          <t>ARM</t>
         </is>
       </c>
       <c r="C162" t="n">
-        <v>55.43179468096666</v>
+        <v>18.933707012076</v>
       </c>
       <c r="D162" t="n">
-        <v>7.894736842105264</v>
+        <v>73.68421052631578</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>2001</v>
+        <v>2009</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>TJK</t>
+          <t>AZE</t>
         </is>
       </c>
       <c r="C163" t="n">
-        <v>-10.02659637226525</v>
+        <v>12.82750600325791</v>
       </c>
       <c r="D163" t="n">
-        <v>4.210526315789473</v>
+        <v>10.52631578947368</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>2001</v>
+        <v>2009</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>TKM</t>
+          <t>BLR</t>
         </is>
       </c>
       <c r="C164" t="n">
-        <v>6.850704255844539</v>
+        <v>21.23693533830918</v>
       </c>
       <c r="D164" t="n">
-        <v>0</v>
+        <v>10.52631578947368</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>2001</v>
+        <v>2009</v>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>UKR</t>
+          <t>EST</t>
         </is>
       </c>
       <c r="C165" t="n">
-        <v>28.47652674018615</v>
+        <v>17.9944263836481</v>
       </c>
       <c r="D165" t="n">
-        <v>7.894736842105264</v>
+        <v>94.73684210526315</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>2001</v>
+        <v>2009</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>UZB</t>
+          <t>GEO</t>
         </is>
       </c>
       <c r="C166" t="n">
-        <v>7.992296829870238</v>
+        <v>18.03262368758013</v>
       </c>
       <c r="D166" t="n">
-        <v>0</v>
+        <v>78.94736842105263</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>2002</v>
+        <v>2009</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>ARM</t>
+          <t>KAZ</t>
         </is>
       </c>
       <c r="C167" t="n">
-        <v>25.65360205334688</v>
+        <v>11.76733157314948</v>
       </c>
       <c r="D167" t="n">
-        <v>7.368421052631579</v>
+        <v>15.78947368421053</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>2002</v>
+        <v>2009</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>AZE</t>
+          <t>KGZ</t>
         </is>
       </c>
       <c r="C168" t="n">
-        <v>28.84577365693811</v>
+        <v>6.831607615214247</v>
       </c>
       <c r="D168" t="n">
-        <v>1.052631578947368</v>
+        <v>52.63157894736842</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>2002</v>
+        <v>2009</v>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>BLR</t>
+          <t>LTU</t>
         </is>
       </c>
       <c r="C169" t="n">
-        <v>74.26954001133447</v>
+        <v>15.20867353512183</v>
       </c>
       <c r="D169" t="n">
-        <v>1.052631578947368</v>
+        <v>100</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>2002</v>
+        <v>2009</v>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>EST</t>
+          <t>LVA</t>
         </is>
       </c>
       <c r="C170" t="n">
-        <v>45.97900671956249</v>
+        <v>13.49870751735707</v>
       </c>
       <c r="D170" t="n">
-        <v>9.473684210526315</v>
+        <v>89.47368421052632</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>2002</v>
+        <v>2009</v>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>GEO</t>
+          <t>MDA</t>
         </is>
       </c>
       <c r="C171" t="n">
-        <v>27.05568103624845</v>
+        <v>10.4386285274689</v>
       </c>
       <c r="D171" t="n">
-        <v>5.789473684210527</v>
+        <v>94.73684210526315</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>2002</v>
+        <v>2009</v>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>KAZ</t>
+          <t>RUS</t>
         </is>
       </c>
       <c r="C172" t="n">
-        <v>28.34677475895946</v>
+        <v>19.5246289095346</v>
       </c>
       <c r="D172" t="n">
-        <v>1.578947368421053</v>
+        <v>68.42105263157895</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>2002</v>
+        <v>2009</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>KGZ</t>
+          <t>SRB</t>
         </is>
       </c>
       <c r="C173" t="n">
-        <v>17.76195013564583</v>
+        <v>15.85275294604911</v>
       </c>
       <c r="D173" t="n">
-        <v>3.157894736842105</v>
+        <v>89.47368421052632</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>2002</v>
+        <v>2009</v>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>LTU</t>
+          <t>TJK</t>
         </is>
       </c>
       <c r="C174" t="n">
-        <v>64.56839528974747</v>
+        <v>4.601699056262165</v>
       </c>
       <c r="D174" t="n">
-        <v>10</v>
+        <v>31.57894736842105</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>2002</v>
+        <v>2009</v>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>LVA</t>
+          <t>TKM</t>
         </is>
       </c>
       <c r="C175" t="n">
-        <v>54.37116919284024</v>
+        <v>4.729017117683599</v>
       </c>
       <c r="D175" t="n">
-        <v>8.947368421052632</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>2002</v>
+        <v>2009</v>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>MDA</t>
+          <t>UKR</t>
         </is>
       </c>
       <c r="C176" t="n">
-        <v>28.01907225685156</v>
+        <v>15.92403282470108</v>
       </c>
       <c r="D176" t="n">
-        <v>8.947368421052632</v>
+        <v>84.21052631578947</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>2002</v>
+        <v>2009</v>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>RUS</t>
+          <t>UZB</t>
         </is>
       </c>
       <c r="C177" t="n">
-        <v>51.43988108098891</v>
+        <v>5.276811983494134</v>
       </c>
       <c r="D177" t="n">
-        <v>7.894736842105264</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>2002</v>
+        <v>2010</v>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>TJK</t>
+          <t>ARM</t>
         </is>
       </c>
       <c r="C178" t="n">
-        <v>0.6117300634264775</v>
+        <v>21.64796030316371</v>
       </c>
       <c r="D178" t="n">
-        <v>4.210526315789473</v>
+        <v>73.68421052631578</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>2002</v>
+        <v>2010</v>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>TKM</t>
+          <t>AZE</t>
         </is>
       </c>
       <c r="C179" t="n">
-        <v>9.405237520294619</v>
+        <v>11.45173168638525</v>
       </c>
       <c r="D179" t="n">
-        <v>0</v>
+        <v>10.52631578947368</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>2002</v>
+        <v>2010</v>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>UKR</t>
+          <t>BLR</t>
         </is>
       </c>
       <c r="C180" t="n">
-        <v>31.5202064767768</v>
+        <v>21.54228004072572</v>
       </c>
       <c r="D180" t="n">
-        <v>7.894736842105264</v>
+        <v>10.52631578947368</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>2002</v>
+        <v>2010</v>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>UZB</t>
+          <t>EST</t>
         </is>
       </c>
       <c r="C181" t="n">
-        <v>11.27987470666112</v>
+        <v>18.36354422457757</v>
       </c>
       <c r="D181" t="n">
-        <v>0</v>
+        <v>94.73684210526315</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>2003</v>
+        <v>2010</v>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>ARM</t>
+          <t>GEO</t>
         </is>
       </c>
       <c r="C182" t="n">
-        <v>37.65292932722776</v>
+        <v>18.15768061978068</v>
       </c>
       <c r="D182" t="n">
-        <v>7.368421052631579</v>
+        <v>78.94736842105263</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>2003</v>
+        <v>2010</v>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>AZE</t>
+          <t>KAZ</t>
         </is>
       </c>
       <c r="C183" t="n">
-        <v>4.17300866098816</v>
+        <v>13.43349069433972</v>
       </c>
       <c r="D183" t="n">
-        <v>1.052631578947368</v>
+        <v>15.78947368421053</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>2003</v>
+        <v>2010</v>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>BLR</t>
+          <t>KGZ</t>
         </is>
       </c>
       <c r="C184" t="n">
-        <v>82.55583372523975</v>
+        <v>7.717180623153168</v>
       </c>
       <c r="D184" t="n">
-        <v>1.052631578947368</v>
+        <v>68.42105263157895</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>2003</v>
+        <v>2010</v>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>EST</t>
+          <t>LTU</t>
         </is>
       </c>
       <c r="C185" t="n">
-        <v>45.99476810724752</v>
+        <v>15.27771270368035</v>
       </c>
       <c r="D185" t="n">
-        <v>9.473684210526315</v>
+        <v>100</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>2003</v>
+        <v>2010</v>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>GEO</t>
+          <t>LVA</t>
         </is>
       </c>
       <c r="C186" t="n">
-        <v>8.861340948728509</v>
+        <v>14.15856800613474</v>
       </c>
       <c r="D186" t="n">
-        <v>5.789473684210527</v>
+        <v>89.47368421052632</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>2003</v>
+        <v>2010</v>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>KAZ</t>
+          <t>MDA</t>
         </is>
       </c>
       <c r="C187" t="n">
-        <v>22.89241171672663</v>
+        <v>9.828713514209038</v>
       </c>
       <c r="D187" t="n">
-        <v>1.578947368421053</v>
+        <v>94.73684210526315</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>2003</v>
+        <v>2010</v>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>KGZ</t>
+          <t>RUS</t>
         </is>
       </c>
       <c r="C188" t="n">
-        <v>13.74996996952848</v>
+        <v>20.35969462308195</v>
       </c>
       <c r="D188" t="n">
-        <v>3.157894736842105</v>
+        <v>68.42105263157895</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>2003</v>
+        <v>2010</v>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>LTU</t>
+          <t>SRB</t>
         </is>
       </c>
       <c r="C189" t="n">
-        <v>63.8163669597952</v>
+        <v>17.41785513066109</v>
       </c>
       <c r="D189" t="n">
-        <v>10</v>
+        <v>89.47368421052632</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>2003</v>
+        <v>2010</v>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>LVA</t>
+          <t>TJK</t>
         </is>
       </c>
       <c r="C190" t="n">
-        <v>54.22780954303355</v>
+        <v>4.789190565621766</v>
       </c>
       <c r="D190" t="n">
-        <v>8.947368421052632</v>
+        <v>31.57894736842105</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>2003</v>
+        <v>2010</v>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>MDA</t>
+          <t>TKM</t>
         </is>
       </c>
       <c r="C191" t="n">
-        <v>33.02871406388397</v>
+        <v>4.895894682415562</v>
       </c>
       <c r="D191" t="n">
-        <v>8.947368421052632</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>2003</v>
+        <v>2010</v>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>RUS</t>
+          <t>UKR</t>
         </is>
       </c>
       <c r="C192" t="n">
-        <v>51.66693614132563</v>
+        <v>16.92280225465582</v>
       </c>
       <c r="D192" t="n">
-        <v>7.894736842105264</v>
+        <v>78.94736842105263</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>2003</v>
+        <v>2010</v>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>TJK</t>
+          <t>UZB</t>
         </is>
       </c>
       <c r="C193" t="n">
-        <v>14.7516726845671</v>
+        <v>5.451750026020961</v>
       </c>
       <c r="D193" t="n">
-        <v>3.157894736842105</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>2003</v>
+        <v>2011</v>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>TKM</t>
+          <t>ARM</t>
         </is>
       </c>
       <c r="C194" t="n">
-        <v>14.10275384178381</v>
+        <v>20.28131070610548</v>
       </c>
       <c r="D194" t="n">
-        <v>0</v>
+        <v>73.68421052631578</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>2003</v>
+        <v>2011</v>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>UKR</t>
+          <t>AZE</t>
         </is>
       </c>
       <c r="C195" t="n">
-        <v>33.61167162322367</v>
+        <v>10.9318321560398</v>
       </c>
       <c r="D195" t="n">
-        <v>7.894736842105264</v>
+        <v>10.52631578947368</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>2003</v>
+        <v>2011</v>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>UZB</t>
+          <t>BLR</t>
         </is>
       </c>
       <c r="C196" t="n">
-        <v>7.429420510305384</v>
+        <v>19.44853122437929</v>
       </c>
       <c r="D196" t="n">
-        <v>0</v>
+        <v>10.52631578947368</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>2004</v>
+        <v>2011</v>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>ARM</t>
+          <t>EST</t>
         </is>
       </c>
       <c r="C197" t="n">
-        <v>53.02971507074423</v>
+        <v>17.22998880339508</v>
       </c>
       <c r="D197" t="n">
-        <v>7.368421052631579</v>
+        <v>94.73684210526315</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>2004</v>
+        <v>2011</v>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>AZE</t>
+          <t>GEO</t>
         </is>
       </c>
       <c r="C198" t="n">
-        <v>8.091649034594184</v>
+        <v>17.16947455288636</v>
       </c>
       <c r="D198" t="n">
-        <v>1.052631578947368</v>
+        <v>78.94736842105263</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>2004</v>
+        <v>2011</v>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>BLR</t>
+          <t>KAZ</t>
         </is>
       </c>
       <c r="C199" t="n">
-        <v>81.81412579486134</v>
+        <v>14.06875097698243</v>
       </c>
       <c r="D199" t="n">
-        <v>1.052631578947368</v>
+        <v>15.78947368421053</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>2004</v>
+        <v>2011</v>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>EST</t>
+          <t>KGZ</t>
         </is>
       </c>
       <c r="C200" t="n">
-        <v>42.9489100001971</v>
+        <v>7.521164813183977</v>
       </c>
       <c r="D200" t="n">
-        <v>9.473684210526315</v>
+        <v>84.21052631578947</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>2004</v>
+        <v>2011</v>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>GEO</t>
+          <t>LTU</t>
         </is>
       </c>
       <c r="C201" t="n">
-        <v>7.291056029648919</v>
+        <v>14.528865700042</v>
       </c>
       <c r="D201" t="n">
-        <v>7.894736842105264</v>
+        <v>100</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>2004</v>
+        <v>2011</v>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>KAZ</t>
+          <t>LVA</t>
         </is>
       </c>
       <c r="C202" t="n">
-        <v>21.56705779206542</v>
+        <v>13.62913236139327</v>
       </c>
       <c r="D202" t="n">
-        <v>1.578947368421053</v>
+        <v>89.47368421052632</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>2004</v>
+        <v>2011</v>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>KGZ</t>
+          <t>MDA</t>
         </is>
       </c>
       <c r="C203" t="n">
-        <v>13.41251455314646</v>
+        <v>9.047155521569772</v>
       </c>
       <c r="D203" t="n">
-        <v>3.157894736842105</v>
+        <v>94.73684210526315</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>2004</v>
+        <v>2011</v>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>LTU</t>
+          <t>RUS</t>
         </is>
       </c>
       <c r="C204" t="n">
-        <v>64.50536812077274</v>
+        <v>19.90238536702633</v>
       </c>
       <c r="D204" t="n">
-        <v>10</v>
+        <v>68.42105263157895</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>2004</v>
+        <v>2011</v>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>LVA</t>
+          <t>SRB</t>
         </is>
       </c>
       <c r="C205" t="n">
-        <v>51.02255639097744</v>
+        <v>15.94525130167414</v>
       </c>
       <c r="D205" t="n">
-        <v>8.947368421052632</v>
+        <v>89.47368421052632</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>2004</v>
+        <v>2011</v>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>MDA</t>
+          <t>TJK</t>
         </is>
       </c>
       <c r="C206" t="n">
-        <v>33.21491918332234</v>
+        <v>5.458407762363301</v>
       </c>
       <c r="D206" t="n">
-        <v>8.947368421052632</v>
+        <v>31.57894736842105</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>2004</v>
+        <v>2011</v>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>RUS</t>
+          <t>TKM</t>
         </is>
       </c>
       <c r="C207" t="n">
-        <v>47.83131713299524</v>
+        <v>4.627105308480442</v>
       </c>
       <c r="D207" t="n">
-        <v>7.894736842105264</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>2004</v>
+        <v>2011</v>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>TJK</t>
+          <t>UKR</t>
         </is>
       </c>
       <c r="C208" t="n">
-        <v>-12.28621006703385</v>
+        <v>16.76736241052945</v>
       </c>
       <c r="D208" t="n">
-        <v>3.157894736842105</v>
+        <v>78.94736842105263</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>2004</v>
+        <v>2011</v>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>TKM</t>
+          <t>UZB</t>
         </is>
       </c>
       <c r="C209" t="n">
-        <v>12.16063964906313</v>
+        <v>5.421211320370872</v>
       </c>
       <c r="D209" t="n">
         <v>0</v>
@@ -3716,455 +3704,455 @@
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>2004</v>
+        <v>2012</v>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>UKR</t>
+          <t>ARM</t>
         </is>
       </c>
       <c r="C210" t="n">
-        <v>22.0267319696206</v>
+        <v>20.34269294462235</v>
       </c>
       <c r="D210" t="n">
-        <v>7.894736842105264</v>
+        <v>73.68421052631578</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>2004</v>
+        <v>2012</v>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>UZB</t>
+          <t>AZE</t>
         </is>
       </c>
       <c r="C211" t="n">
-        <v>7.033870981699427</v>
+        <v>11.84764590571312</v>
       </c>
       <c r="D211" t="n">
-        <v>0</v>
+        <v>10.52631578947368</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>2005</v>
+        <v>2012</v>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>ARM</t>
+          <t>BLR</t>
         </is>
       </c>
       <c r="C212" t="n">
-        <v>57.31392382715325</v>
+        <v>19.98445536184119</v>
       </c>
       <c r="D212" t="n">
-        <v>7.368421052631579</v>
+        <v>10.52631578947368</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>2005</v>
+        <v>2012</v>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>AZE</t>
+          <t>EST</t>
         </is>
       </c>
       <c r="C213" t="n">
-        <v>18.6166540612599</v>
+        <v>18.08078257784992</v>
       </c>
       <c r="D213" t="n">
-        <v>1.052631578947368</v>
+        <v>94.73684210526315</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>2005</v>
+        <v>2012</v>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>BLR</t>
+          <t>GEO</t>
         </is>
       </c>
       <c r="C214" t="n">
-        <v>83.33985587468746</v>
+        <v>17.52417020454951</v>
       </c>
       <c r="D214" t="n">
-        <v>1.052631578947368</v>
+        <v>78.94736842105263</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>2005</v>
+        <v>2012</v>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>EST</t>
+          <t>KAZ</t>
         </is>
       </c>
       <c r="C215" t="n">
-        <v>40.81636684837027</v>
+        <v>12.27446663208602</v>
       </c>
       <c r="D215" t="n">
-        <v>9.473684210526315</v>
+        <v>15.78947368421053</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>2005</v>
+        <v>2012</v>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>GEO</t>
+          <t>KGZ</t>
         </is>
       </c>
       <c r="C216" t="n">
-        <v>2.466615290544414</v>
+        <v>7.311583806404897</v>
       </c>
       <c r="D216" t="n">
-        <v>8.421052631578947</v>
+        <v>84.21052631578947</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>2005</v>
+        <v>2012</v>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>KAZ</t>
+          <t>LTU</t>
         </is>
       </c>
       <c r="C217" t="n">
-        <v>16.57401419851015</v>
+        <v>14.70375314659319</v>
       </c>
       <c r="D217" t="n">
-        <v>1.578947368421053</v>
+        <v>100</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>2005</v>
+        <v>2012</v>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>KGZ</t>
+          <t>LVA</t>
         </is>
       </c>
       <c r="C218" t="n">
-        <v>11.34314763883826</v>
+        <v>14.11931974436801</v>
       </c>
       <c r="D218" t="n">
-        <v>6.315789473684211</v>
+        <v>89.47368421052632</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>2005</v>
+        <v>2012</v>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>LTU</t>
+          <t>MDA</t>
         </is>
       </c>
       <c r="C219" t="n">
-        <v>62.87719390177411</v>
+        <v>9.224635481826045</v>
       </c>
       <c r="D219" t="n">
-        <v>10</v>
+        <v>94.73684210526315</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>2005</v>
+        <v>2012</v>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>LVA</t>
+          <t>RUS</t>
         </is>
       </c>
       <c r="C220" t="n">
-        <v>49.06721357322645</v>
+        <v>20.12096105242762</v>
       </c>
       <c r="D220" t="n">
-        <v>8.947368421052632</v>
+        <v>68.42105263157895</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>2005</v>
+        <v>2012</v>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>MDA</t>
+          <t>SRB</t>
         </is>
       </c>
       <c r="C221" t="n">
-        <v>36.94826877160295</v>
+        <v>15.61655581607462</v>
       </c>
       <c r="D221" t="n">
-        <v>9.473684210526315</v>
+        <v>89.47368421052632</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>2005</v>
+        <v>2012</v>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>RUS</t>
+          <t>TJK</t>
         </is>
       </c>
       <c r="C222" t="n">
-        <v>52.5277907298962</v>
+        <v>5.440509645574016</v>
       </c>
       <c r="D222" t="n">
-        <v>7.894736842105264</v>
+        <v>31.57894736842105</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>2005</v>
+        <v>2012</v>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>TJK</t>
+          <t>TKM</t>
         </is>
       </c>
       <c r="C223" t="n">
-        <v>4.929154040164961</v>
+        <v>4.771216405631343</v>
       </c>
       <c r="D223" t="n">
-        <v>3.157894736842105</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>2005</v>
+        <v>2012</v>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>TKM</t>
+          <t>UKR</t>
         </is>
       </c>
       <c r="C224" t="n">
-        <v>12.65991458451861</v>
+        <v>16.68597104554517</v>
       </c>
       <c r="D224" t="n">
-        <v>0</v>
+        <v>78.94736842105263</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>2005</v>
+        <v>2012</v>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>UKR</t>
+          <t>UZB</t>
         </is>
       </c>
       <c r="C225" t="n">
-        <v>28.35343280374618</v>
+        <v>5.768614102273376</v>
       </c>
       <c r="D225" t="n">
-        <v>7.894736842105264</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>2005</v>
+        <v>2013</v>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>UZB</t>
+          <t>ARM</t>
         </is>
       </c>
       <c r="C226" t="n">
-        <v>10.71140750065024</v>
+        <v>23.13692076383275</v>
       </c>
       <c r="D226" t="n">
-        <v>0</v>
+        <v>73.68421052631578</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>2006</v>
+        <v>2013</v>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>ARM</t>
+          <t>AZE</t>
         </is>
       </c>
       <c r="C227" t="n">
-        <v>37.17734274486563</v>
+        <v>12.25066196522557</v>
       </c>
       <c r="D227" t="n">
-        <v>7.368421052631579</v>
+        <v>10.52631578947368</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>2006</v>
+        <v>2013</v>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>AZE</t>
+          <t>BLR</t>
         </is>
       </c>
       <c r="C228" t="n">
-        <v>15.04066744513833</v>
+        <v>19.48043140891672</v>
       </c>
       <c r="D228" t="n">
-        <v>1.052631578947368</v>
+        <v>10.52631578947368</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>2006</v>
+        <v>2013</v>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>BLR</t>
+          <t>EST</t>
         </is>
       </c>
       <c r="C229" t="n">
-        <v>88.33886109232333</v>
+        <v>18.37079928371021</v>
       </c>
       <c r="D229" t="n">
-        <v>1.052631578947368</v>
+        <v>94.73684210526315</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>2006</v>
+        <v>2013</v>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>EST</t>
+          <t>GEO</t>
         </is>
       </c>
       <c r="C230" t="n">
-        <v>37.00342871506527</v>
+        <v>17.38163104933247</v>
       </c>
       <c r="D230" t="n">
-        <v>9.473684210526315</v>
+        <v>84.21052631578947</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>2006</v>
+        <v>2013</v>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>GEO</t>
+          <t>KAZ</t>
         </is>
       </c>
       <c r="C231" t="n">
-        <v>17.98258152861374</v>
+        <v>13.8907700066771</v>
       </c>
       <c r="D231" t="n">
-        <v>8.421052631578947</v>
+        <v>15.78947368421053</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>2006</v>
+        <v>2013</v>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>KAZ</t>
+          <t>KGZ</t>
         </is>
       </c>
       <c r="C232" t="n">
-        <v>17.43489218187464</v>
+        <v>7.289404895126875</v>
       </c>
       <c r="D232" t="n">
-        <v>1.578947368421053</v>
+        <v>84.21052631578947</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>2006</v>
+        <v>2013</v>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>KGZ</t>
+          <t>LTU</t>
         </is>
       </c>
       <c r="C233" t="n">
-        <v>10.75296918714737</v>
+        <v>14.74829006110579</v>
       </c>
       <c r="D233" t="n">
-        <v>6.842105263157895</v>
+        <v>100</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>2006</v>
+        <v>2013</v>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>LTU</t>
+          <t>LVA</t>
         </is>
       </c>
       <c r="C234" t="n">
-        <v>58.20940688739127</v>
+        <v>14.82279524948236</v>
       </c>
       <c r="D234" t="n">
-        <v>10</v>
+        <v>89.47368421052632</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>2006</v>
+        <v>2013</v>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>LVA</t>
+          <t>MDA</t>
         </is>
       </c>
       <c r="C235" t="n">
-        <v>59.4867402059932</v>
+        <v>8.810586172985548</v>
       </c>
       <c r="D235" t="n">
-        <v>8.947368421052632</v>
+        <v>94.73684210526315</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>2006</v>
+        <v>2013</v>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>MDA</t>
+          <t>RUS</t>
         </is>
       </c>
       <c r="C236" t="n">
-        <v>33.8916570315004</v>
+        <v>19.72412757964452</v>
       </c>
       <c r="D236" t="n">
-        <v>9.473684210526315</v>
+        <v>68.42105263157895</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>2006</v>
+        <v>2013</v>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>RUS</t>
+          <t>SRB</t>
         </is>
       </c>
       <c r="C237" t="n">
-        <v>45.94918496828573</v>
+        <v>11.4390588653087</v>
       </c>
       <c r="D237" t="n">
-        <v>7.894736842105264</v>
+        <v>89.47368421052632</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>2006</v>
+        <v>2013</v>
       </c>
       <c r="B238" t="inlineStr">
         <is>
@@ -4172,15 +4160,15 @@
         </is>
       </c>
       <c r="C238" t="n">
-        <v>-9.6465391515534</v>
+        <v>4.597434381319149</v>
       </c>
       <c r="D238" t="n">
-        <v>3.157894736842105</v>
+        <v>31.57894736842105</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>2006</v>
+        <v>2013</v>
       </c>
       <c r="B239" t="inlineStr">
         <is>
@@ -4188,15 +4176,15 @@
         </is>
       </c>
       <c r="C239" t="n">
-        <v>8.739082183890369</v>
+        <v>4.936439545528621</v>
       </c>
       <c r="D239" t="n">
-        <v>0</v>
+        <v>5.263157894736842</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>2006</v>
+        <v>2013</v>
       </c>
       <c r="B240" t="inlineStr">
         <is>
@@ -4204,15 +4192,15 @@
         </is>
       </c>
       <c r="C240" t="n">
-        <v>21.48286735749966</v>
+        <v>15.92178814443348</v>
       </c>
       <c r="D240" t="n">
-        <v>8.421052631578947</v>
+        <v>78.94736842105263</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>2006</v>
+        <v>2013</v>
       </c>
       <c r="B241" t="inlineStr">
         <is>
@@ -4220,7 +4208,7 @@
         </is>
       </c>
       <c r="C241" t="n">
-        <v>1.901755822490008</v>
+        <v>6.129137615745472</v>
       </c>
       <c r="D241" t="n">
         <v>0</v>
@@ -4228,7 +4216,7 @@
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>2007</v>
+        <v>2014</v>
       </c>
       <c r="B242" t="inlineStr">
         <is>
@@ -4236,15 +4224,15 @@
         </is>
       </c>
       <c r="C242" t="n">
-        <v>31.69439327970501</v>
+        <v>19.41951087410771</v>
       </c>
       <c r="D242" t="n">
-        <v>7.368421052631579</v>
+        <v>73.68421052631578</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>2007</v>
+        <v>2014</v>
       </c>
       <c r="B243" t="inlineStr">
         <is>
@@ -4252,15 +4240,15 @@
         </is>
       </c>
       <c r="C243" t="n">
-        <v>17.51343116442987</v>
+        <v>11.74405621909341</v>
       </c>
       <c r="D243" t="n">
-        <v>1.052631578947368</v>
+        <v>10.52631578947368</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>2007</v>
+        <v>2014</v>
       </c>
       <c r="B244" t="inlineStr">
         <is>
@@ -4268,15 +4256,15 @@
         </is>
       </c>
       <c r="C244" t="n">
-        <v>88.47254575707154</v>
+        <v>14.29989052370975</v>
       </c>
       <c r="D244" t="n">
-        <v>1.052631578947368</v>
+        <v>10.52631578947368</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>2007</v>
+        <v>2014</v>
       </c>
       <c r="B245" t="inlineStr">
         <is>
@@ -4284,15 +4272,15 @@
         </is>
       </c>
       <c r="C245" t="n">
-        <v>31.33708723198735</v>
+        <v>17.26265180459384</v>
       </c>
       <c r="D245" t="n">
-        <v>9.473684210526315</v>
+        <v>94.73684210526315</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>2007</v>
+        <v>2014</v>
       </c>
       <c r="B246" t="inlineStr">
         <is>
@@ -4300,15 +4288,15 @@
         </is>
       </c>
       <c r="C246" t="n">
-        <v>20.47774259351383</v>
+        <v>15.43326507806269</v>
       </c>
       <c r="D246" t="n">
-        <v>7.894736842105264</v>
+        <v>84.21052631578947</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>2007</v>
+        <v>2014</v>
       </c>
       <c r="B247" t="inlineStr">
         <is>
@@ -4316,15 +4304,15 @@
         </is>
       </c>
       <c r="C247" t="n">
-        <v>5.340321666856537</v>
+        <v>10.99160897808671</v>
       </c>
       <c r="D247" t="n">
-        <v>1.578947368421053</v>
+        <v>15.78947368421053</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>2007</v>
+        <v>2014</v>
       </c>
       <c r="B248" t="inlineStr">
         <is>
@@ -4332,15 +4320,15 @@
         </is>
       </c>
       <c r="C248" t="n">
-        <v>8.13037478669755</v>
+        <v>8.799339528303332</v>
       </c>
       <c r="D248" t="n">
-        <v>6.315789473684211</v>
+        <v>84.21052631578947</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>2007</v>
+        <v>2014</v>
       </c>
       <c r="B249" t="inlineStr">
         <is>
@@ -4348,15 +4336,15 @@
         </is>
       </c>
       <c r="C249" t="n">
-        <v>51.33590293177757</v>
+        <v>13.06051486309715</v>
       </c>
       <c r="D249" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>2007</v>
+        <v>2014</v>
       </c>
       <c r="B250" t="inlineStr">
         <is>
@@ -4364,15 +4352,15 @@
         </is>
       </c>
       <c r="C250" t="n">
-        <v>50.71286783427047</v>
+        <v>13.20640064458641</v>
       </c>
       <c r="D250" t="n">
-        <v>8.947368421052632</v>
+        <v>89.47368421052632</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>2007</v>
+        <v>2014</v>
       </c>
       <c r="B251" t="inlineStr">
         <is>
@@ -4380,15 +4368,15 @@
         </is>
       </c>
       <c r="C251" t="n">
-        <v>29.57716498686093</v>
+        <v>7.629701196174057</v>
       </c>
       <c r="D251" t="n">
-        <v>9.473684210526315</v>
+        <v>94.73684210526315</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>2007</v>
+        <v>2014</v>
       </c>
       <c r="B252" t="inlineStr">
         <is>
@@ -4396,2925 +4384,603 @@
         </is>
       </c>
       <c r="C252" t="n">
-        <v>39.61151008149227</v>
+        <v>17.0324674473002</v>
       </c>
       <c r="D252" t="n">
-        <v>6.842105263157895</v>
+        <v>68.42105263157895</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>2007</v>
+        <v>2014</v>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>TJK</t>
+          <t>SRB</t>
         </is>
       </c>
       <c r="C253" t="n">
-        <v>-12.73906604634116</v>
+        <v>11.36510027725105</v>
       </c>
       <c r="D253" t="n">
-        <v>3.157894736842105</v>
+        <v>89.47368421052632</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>2007</v>
+        <v>2014</v>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>TKM</t>
+          <t>TJK</t>
         </is>
       </c>
       <c r="C254" t="n">
-        <v>4.007308762105055</v>
+        <v>3.052446757155697</v>
       </c>
       <c r="D254" t="n">
-        <v>0</v>
+        <v>31.57894736842105</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>2007</v>
+        <v>2014</v>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>UKR</t>
+          <t>TKM</t>
         </is>
       </c>
       <c r="C255" t="n">
-        <v>9.738865125571724</v>
+        <v>3.352600537809489</v>
       </c>
       <c r="D255" t="n">
-        <v>8.421052631578947</v>
+        <v>5.263157894736842</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>2007</v>
+        <v>2014</v>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>UZB</t>
+          <t>UKR</t>
         </is>
       </c>
       <c r="C256" t="n">
-        <v>1.655082542121267</v>
+        <v>13.51736657715224</v>
       </c>
       <c r="D256" t="n">
-        <v>0</v>
+        <v>68.42105263157895</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>2008</v>
+        <v>2014</v>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>ARM</t>
+          <t>UZB</t>
         </is>
       </c>
       <c r="C257" t="n">
-        <v>35.96216561888605</v>
+        <v>7.432967775162284</v>
       </c>
       <c r="D257" t="n">
-        <v>7.368421052631579</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>2008</v>
+        <v>2015</v>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>AZE</t>
+          <t>ARM</t>
         </is>
       </c>
       <c r="C258" t="n">
-        <v>23.69479393605545</v>
+        <v>18.3088119809287</v>
       </c>
       <c r="D258" t="n">
-        <v>1.052631578947368</v>
+        <v>73.68421052631578</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>2008</v>
+        <v>2015</v>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>BLR</t>
+          <t>AZE</t>
         </is>
       </c>
       <c r="C259" t="n">
-        <v>86.23780794369029</v>
+        <v>12.46019756926478</v>
       </c>
       <c r="D259" t="n">
-        <v>1.052631578947368</v>
+        <v>10.52631578947368</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>2008</v>
+        <v>2015</v>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>EST</t>
+          <t>BLR</t>
         </is>
       </c>
       <c r="C260" t="n">
-        <v>27.87818777423208</v>
+        <v>13.66243630579826</v>
       </c>
       <c r="D260" t="n">
-        <v>9.473684210526315</v>
+        <v>10.52631578947368</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>2008</v>
+        <v>2015</v>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>GEO</t>
+          <t>EST</t>
         </is>
       </c>
       <c r="C261" t="n">
-        <v>38.7331928208925</v>
+        <v>18.0041775830952</v>
       </c>
       <c r="D261" t="n">
-        <v>7.894736842105264</v>
+        <v>94.73684210526315</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>2008</v>
+        <v>2015</v>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>KAZ</t>
+          <t>GEO</t>
         </is>
       </c>
       <c r="C262" t="n">
-        <v>7.255651052284037</v>
+        <v>12.97403239328831</v>
       </c>
       <c r="D262" t="n">
-        <v>1.578947368421053</v>
+        <v>84.21052631578947</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>2008</v>
+        <v>2015</v>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>KGZ</t>
+          <t>KAZ</t>
         </is>
       </c>
       <c r="C263" t="n">
-        <v>9.03687984231096</v>
+        <v>6.822430499890357</v>
       </c>
       <c r="D263" t="n">
-        <v>6.315789473684211</v>
+        <v>15.78947368421053</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>2008</v>
+        <v>2015</v>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>LTU</t>
+          <t>KGZ</t>
         </is>
       </c>
       <c r="C264" t="n">
-        <v>50.78997675712891</v>
+        <v>8.369930455300212</v>
       </c>
       <c r="D264" t="n">
-        <v>10</v>
+        <v>84.21052631578947</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>2008</v>
+        <v>2015</v>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>LVA</t>
+          <t>LTU</t>
         </is>
       </c>
       <c r="C265" t="n">
-        <v>34.55971379068345</v>
+        <v>12.16105492831249</v>
       </c>
       <c r="D265" t="n">
-        <v>8.947368421052632</v>
+        <v>100</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>2008</v>
+        <v>2015</v>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>MDA</t>
+          <t>LVA</t>
         </is>
       </c>
       <c r="C266" t="n">
-        <v>28.10385244527541</v>
+        <v>11.50054991348279</v>
       </c>
       <c r="D266" t="n">
-        <v>9.473684210526315</v>
+        <v>89.47368421052632</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>2008</v>
+        <v>2015</v>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>RUS</t>
+          <t>MDA</t>
         </is>
       </c>
       <c r="C267" t="n">
-        <v>38.71957993151572</v>
+        <v>7.674439215676462</v>
       </c>
       <c r="D267" t="n">
-        <v>6.842105263157895</v>
+        <v>94.73684210526315</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>2008</v>
+        <v>2015</v>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>TJK</t>
+          <t>RUS</t>
         </is>
       </c>
       <c r="C268" t="n">
-        <v>-10.42286092934071</v>
+        <v>13.12492050916803</v>
       </c>
       <c r="D268" t="n">
-        <v>3.157894736842105</v>
+        <v>68.42105263157895</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>2008</v>
+        <v>2015</v>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>TKM</t>
+          <t>SRB</t>
         </is>
       </c>
       <c r="C269" t="n">
-        <v>4.560109410896066</v>
+        <v>8.561411385739</v>
       </c>
       <c r="D269" t="n">
-        <v>0</v>
+        <v>89.47368421052632</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>2008</v>
+        <v>2015</v>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>UKR</t>
+          <t>TJK</t>
         </is>
       </c>
       <c r="C270" t="n">
-        <v>16.44588902641755</v>
+        <v>2.916227806180228</v>
       </c>
       <c r="D270" t="n">
-        <v>8.421052631578947</v>
+        <v>31.57894736842105</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>2008</v>
+        <v>2015</v>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>UZB</t>
+          <t>TKM</t>
         </is>
       </c>
       <c r="C271" t="n">
-        <v>3.096590373233205</v>
+        <v>2.28544037606986</v>
       </c>
       <c r="D271" t="n">
-        <v>0</v>
+        <v>5.263157894736842</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>2009</v>
+        <v>2015</v>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>ARM</t>
+          <t>UKR</t>
         </is>
       </c>
       <c r="C272" t="n">
-        <v>40.360778253597</v>
+        <v>14.12029720936523</v>
       </c>
       <c r="D272" t="n">
-        <v>7.368421052631579</v>
+        <v>68.42105263157895</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>2009</v>
+        <v>2015</v>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>AZE</t>
+          <t>UZB</t>
         </is>
       </c>
       <c r="C273" t="n">
-        <v>24.63339036515893</v>
+        <v>8.242519284098272</v>
       </c>
       <c r="D273" t="n">
-        <v>1.052631578947368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>2009</v>
+        <v>2016</v>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>BLR</t>
+          <t>ARM</t>
         </is>
       </c>
       <c r="C274" t="n">
-        <v>67.47908923487208</v>
+        <v>17.97963645370199</v>
       </c>
       <c r="D274" t="n">
-        <v>1.052631578947368</v>
+        <v>73.68421052631578</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>2009</v>
+        <v>2016</v>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>EST</t>
+          <t>AZE</t>
         </is>
       </c>
       <c r="C275" t="n">
-        <v>38.38601246046218</v>
+        <v>10.51904581240074</v>
       </c>
       <c r="D275" t="n">
-        <v>9.473684210526315</v>
+        <v>10.52631578947368</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>2009</v>
+        <v>2016</v>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>GEO</t>
+          <t>BLR</t>
         </is>
       </c>
       <c r="C276" t="n">
-        <v>35.72542831090649</v>
+        <v>13.2885458326253</v>
       </c>
       <c r="D276" t="n">
-        <v>7.894736842105264</v>
+        <v>10.52631578947368</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>2009</v>
+        <v>2016</v>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>KAZ</t>
+          <t>EST</t>
         </is>
       </c>
       <c r="C277" t="n">
-        <v>22.76009531127883</v>
+        <v>12.76097861562655</v>
       </c>
       <c r="D277" t="n">
-        <v>1.578947368421053</v>
+        <v>94.73684210526315</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>2009</v>
+        <v>2016</v>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>KGZ</t>
+          <t>GEO</t>
         </is>
       </c>
       <c r="C278" t="n">
-        <v>2.299341431387641</v>
+        <v>12.63913309613943</v>
       </c>
       <c r="D278" t="n">
-        <v>5.263157894736842</v>
+        <v>84.21052631578947</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>2009</v>
+        <v>2016</v>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>LTU</t>
+          <t>KAZ</t>
         </is>
       </c>
       <c r="C279" t="n">
-        <v>46.48678381140824</v>
+        <v>6.916128555554366</v>
       </c>
       <c r="D279" t="n">
-        <v>10</v>
+        <v>15.78947368421053</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>2009</v>
+        <v>2016</v>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>LVA</t>
+          <t>KGZ</t>
         </is>
       </c>
       <c r="C280" t="n">
-        <v>36.08175076368898</v>
+        <v>9.804923113780383</v>
       </c>
       <c r="D280" t="n">
-        <v>8.947368421052632</v>
+        <v>84.21052631578947</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>2009</v>
+        <v>2016</v>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>MDA</t>
+          <t>LTU</t>
         </is>
       </c>
       <c r="C281" t="n">
-        <v>26.28123706511536</v>
+        <v>12.44889052118705</v>
       </c>
       <c r="D281" t="n">
-        <v>9.473684210526315</v>
+        <v>100</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>2009</v>
+        <v>2016</v>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>RUS</t>
+          <t>LVA</t>
         </is>
       </c>
       <c r="C282" t="n">
-        <v>36.04675023397176</v>
+        <v>11.87277455642856</v>
       </c>
       <c r="D282" t="n">
-        <v>6.842105263157895</v>
+        <v>89.47368421052632</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="n">
-        <v>2009</v>
+        <v>2016</v>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>TJK</t>
+          <t>MDA</t>
         </is>
       </c>
       <c r="C283" t="n">
-        <v>-12.23023562087879</v>
+        <v>9.020565869363018</v>
       </c>
       <c r="D283" t="n">
-        <v>3.157894736842105</v>
+        <v>94.73684210526315</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="n">
-        <v>2009</v>
+        <v>2016</v>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>TKM</t>
+          <t>RUS</t>
         </is>
       </c>
       <c r="C284" t="n">
-        <v>-1.112374712662654</v>
+        <v>13.28844388252171</v>
       </c>
       <c r="D284" t="n">
-        <v>0</v>
+        <v>68.42105263157895</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="n">
-        <v>2009</v>
+        <v>2016</v>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>UKR</t>
+          <t>SRB</t>
         </is>
       </c>
       <c r="C285" t="n">
-        <v>18.55580627689087</v>
+        <v>8.579495138268651</v>
       </c>
       <c r="D285" t="n">
-        <v>8.421052631578947</v>
+        <v>89.47368421052632</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="n">
-        <v>2009</v>
+        <v>2016</v>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>UZB</t>
+          <t>TJK</t>
         </is>
       </c>
       <c r="C286" t="n">
-        <v>-2.888560933986964</v>
+        <v>2.067612875953942</v>
       </c>
       <c r="D286" t="n">
-        <v>0</v>
+        <v>31.57894736842105</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="n">
-        <v>2010</v>
+        <v>2016</v>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>ARM</t>
+          <t>TKM</t>
         </is>
       </c>
       <c r="C287" t="n">
-        <v>68.12441270054747</v>
+        <v>2.573389816426474</v>
       </c>
       <c r="D287" t="n">
-        <v>7.368421052631579</v>
+        <v>5.263157894736842</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="n">
-        <v>2010</v>
+        <v>2016</v>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>AZE</t>
+          <t>UKR</t>
         </is>
       </c>
       <c r="C288" t="n">
-        <v>25.71258936726611</v>
+        <v>13.60521513811305</v>
       </c>
       <c r="D288" t="n">
-        <v>1.052631578947368</v>
+        <v>68.42105263157895</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="n">
-        <v>2010</v>
+        <v>2016</v>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>BLR</t>
+          <t>UZB</t>
         </is>
       </c>
       <c r="C289" t="n">
-        <v>64.7904020716899</v>
+        <v>8.313251694060215</v>
       </c>
       <c r="D289" t="n">
-        <v>1.052631578947368</v>
-      </c>
-    </row>
-    <row r="290">
-      <c r="A290" t="n">
-        <v>2010</v>
-      </c>
-      <c r="B290" t="inlineStr">
-        <is>
-          <t>EST</t>
-        </is>
-      </c>
-      <c r="C290" t="n">
-        <v>40.21474249002686</v>
-      </c>
-      <c r="D290" t="n">
-        <v>9.473684210526315</v>
-      </c>
-    </row>
-    <row r="291">
-      <c r="A291" t="n">
-        <v>2010</v>
-      </c>
-      <c r="B291" t="inlineStr">
-        <is>
-          <t>GEO</t>
-        </is>
-      </c>
-      <c r="C291" t="n">
-        <v>43.37565443553555</v>
-      </c>
-      <c r="D291" t="n">
-        <v>7.894736842105264</v>
-      </c>
-    </row>
-    <row r="292">
-      <c r="A292" t="n">
-        <v>2010</v>
-      </c>
-      <c r="B292" t="inlineStr">
-        <is>
-          <t>KAZ</t>
-        </is>
-      </c>
-      <c r="C292" t="n">
-        <v>19.32402614939342</v>
-      </c>
-      <c r="D292" t="n">
-        <v>1.578947368421053</v>
-      </c>
-    </row>
-    <row r="293">
-      <c r="A293" t="n">
-        <v>2010</v>
-      </c>
-      <c r="B293" t="inlineStr">
-        <is>
-          <t>KGZ</t>
-        </is>
-      </c>
-      <c r="C293" t="n">
-        <v>-3.969403805148255</v>
-      </c>
-      <c r="D293" t="n">
-        <v>6.842105263157895</v>
-      </c>
-    </row>
-    <row r="294">
-      <c r="A294" t="n">
-        <v>2010</v>
-      </c>
-      <c r="B294" t="inlineStr">
-        <is>
-          <t>LTU</t>
-        </is>
-      </c>
-      <c r="C294" t="n">
-        <v>48.88462774113889</v>
-      </c>
-      <c r="D294" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="295">
-      <c r="A295" t="n">
-        <v>2010</v>
-      </c>
-      <c r="B295" t="inlineStr">
-        <is>
-          <t>LVA</t>
-        </is>
-      </c>
-      <c r="C295" t="n">
-        <v>44.73073740423983</v>
-      </c>
-      <c r="D295" t="n">
-        <v>8.947368421052632</v>
-      </c>
-    </row>
-    <row r="296">
-      <c r="A296" t="n">
-        <v>2010</v>
-      </c>
-      <c r="B296" t="inlineStr">
-        <is>
-          <t>MDA</t>
-        </is>
-      </c>
-      <c r="C296" t="n">
-        <v>23.244708352081</v>
-      </c>
-      <c r="D296" t="n">
-        <v>9.473684210526315</v>
-      </c>
-    </row>
-    <row r="297">
-      <c r="A297" t="n">
-        <v>2010</v>
-      </c>
-      <c r="B297" t="inlineStr">
-        <is>
-          <t>RUS</t>
-        </is>
-      </c>
-      <c r="C297" t="n">
-        <v>39.37632349360715</v>
-      </c>
-      <c r="D297" t="n">
-        <v>6.842105263157895</v>
-      </c>
-    </row>
-    <row r="298">
-      <c r="A298" t="n">
-        <v>2010</v>
-      </c>
-      <c r="B298" t="inlineStr">
-        <is>
-          <t>TJK</t>
-        </is>
-      </c>
-      <c r="C298" t="n">
-        <v>-11.54258515914679</v>
-      </c>
-      <c r="D298" t="n">
-        <v>3.157894736842105</v>
-      </c>
-    </row>
-    <row r="299">
-      <c r="A299" t="n">
-        <v>2010</v>
-      </c>
-      <c r="B299" t="inlineStr">
-        <is>
-          <t>TKM</t>
-        </is>
-      </c>
-      <c r="C299" t="n">
-        <v>11.34273524511335</v>
-      </c>
-      <c r="D299" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="300">
-      <c r="A300" t="n">
-        <v>2010</v>
-      </c>
-      <c r="B300" t="inlineStr">
-        <is>
-          <t>UKR</t>
-        </is>
-      </c>
-      <c r="C300" t="n">
-        <v>20.9311776016462</v>
-      </c>
-      <c r="D300" t="n">
-        <v>7.894736842105264</v>
-      </c>
-    </row>
-    <row r="301">
-      <c r="A301" t="n">
-        <v>2010</v>
-      </c>
-      <c r="B301" t="inlineStr">
-        <is>
-          <t>UZB</t>
-        </is>
-      </c>
-      <c r="C301" t="n">
-        <v>2.768615864872559</v>
-      </c>
-      <c r="D301" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="302">
-      <c r="A302" t="n">
-        <v>2011</v>
-      </c>
-      <c r="B302" t="inlineStr">
-        <is>
-          <t>ARM</t>
-        </is>
-      </c>
-      <c r="C302" t="n">
-        <v>64.8150534122211</v>
-      </c>
-      <c r="D302" t="n">
-        <v>7.368421052631579</v>
-      </c>
-    </row>
-    <row r="303">
-      <c r="A303" t="n">
-        <v>2011</v>
-      </c>
-      <c r="B303" t="inlineStr">
-        <is>
-          <t>AZE</t>
-        </is>
-      </c>
-      <c r="C303" t="n">
-        <v>25.10051255649519</v>
-      </c>
-      <c r="D303" t="n">
-        <v>1.052631578947368</v>
-      </c>
-    </row>
-    <row r="304">
-      <c r="A304" t="n">
-        <v>2011</v>
-      </c>
-      <c r="B304" t="inlineStr">
-        <is>
-          <t>BLR</t>
-        </is>
-      </c>
-      <c r="C304" t="n">
-        <v>51.87302299783453</v>
-      </c>
-      <c r="D304" t="n">
-        <v>1.052631578947368</v>
-      </c>
-    </row>
-    <row r="305">
-      <c r="A305" t="n">
-        <v>2011</v>
-      </c>
-      <c r="B305" t="inlineStr">
-        <is>
-          <t>EST</t>
-        </is>
-      </c>
-      <c r="C305" t="n">
-        <v>31.43579565009922</v>
-      </c>
-      <c r="D305" t="n">
-        <v>9.473684210526315</v>
-      </c>
-    </row>
-    <row r="306">
-      <c r="A306" t="n">
-        <v>2011</v>
-      </c>
-      <c r="B306" t="inlineStr">
-        <is>
-          <t>GEO</t>
-        </is>
-      </c>
-      <c r="C306" t="n">
-        <v>48.90275322952397</v>
-      </c>
-      <c r="D306" t="n">
-        <v>7.894736842105264</v>
-      </c>
-    </row>
-    <row r="307">
-      <c r="A307" t="n">
-        <v>2011</v>
-      </c>
-      <c r="B307" t="inlineStr">
-        <is>
-          <t>KAZ</t>
-        </is>
-      </c>
-      <c r="C307" t="n">
-        <v>32.24629611030598</v>
-      </c>
-      <c r="D307" t="n">
-        <v>1.578947368421053</v>
-      </c>
-    </row>
-    <row r="308">
-      <c r="A308" t="n">
-        <v>2011</v>
-      </c>
-      <c r="B308" t="inlineStr">
-        <is>
-          <t>KGZ</t>
-        </is>
-      </c>
-      <c r="C308" t="n">
-        <v>5.964445862869361</v>
-      </c>
-      <c r="D308" t="n">
-        <v>8.421052631578947</v>
-      </c>
-    </row>
-    <row r="309">
-      <c r="A309" t="n">
-        <v>2011</v>
-      </c>
-      <c r="B309" t="inlineStr">
-        <is>
-          <t>LTU</t>
-        </is>
-      </c>
-      <c r="C309" t="n">
-        <v>43.85010070189863</v>
-      </c>
-      <c r="D309" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="310">
-      <c r="A310" t="n">
-        <v>2011</v>
-      </c>
-      <c r="B310" t="inlineStr">
-        <is>
-          <t>LVA</t>
-        </is>
-      </c>
-      <c r="C310" t="n">
-        <v>41.28442497451222</v>
-      </c>
-      <c r="D310" t="n">
-        <v>8.947368421052632</v>
-      </c>
-    </row>
-    <row r="311">
-      <c r="A311" t="n">
-        <v>2011</v>
-      </c>
-      <c r="B311" t="inlineStr">
-        <is>
-          <t>MDA</t>
-        </is>
-      </c>
-      <c r="C311" t="n">
-        <v>18.47494300905738</v>
-      </c>
-      <c r="D311" t="n">
-        <v>9.473684210526315</v>
-      </c>
-    </row>
-    <row r="312">
-      <c r="A312" t="n">
-        <v>2011</v>
-      </c>
-      <c r="B312" t="inlineStr">
-        <is>
-          <t>RUS</t>
-        </is>
-      </c>
-      <c r="C312" t="n">
-        <v>40.00715869028912</v>
-      </c>
-      <c r="D312" t="n">
-        <v>6.842105263157895</v>
-      </c>
-    </row>
-    <row r="313">
-      <c r="A313" t="n">
-        <v>2011</v>
-      </c>
-      <c r="B313" t="inlineStr">
-        <is>
-          <t>TJK</t>
-        </is>
-      </c>
-      <c r="C313" t="n">
-        <v>-12.41681996232959</v>
-      </c>
-      <c r="D313" t="n">
-        <v>3.157894736842105</v>
-      </c>
-    </row>
-    <row r="314">
-      <c r="A314" t="n">
-        <v>2011</v>
-      </c>
-      <c r="B314" t="inlineStr">
-        <is>
-          <t>TKM</t>
-        </is>
-      </c>
-      <c r="C314" t="n">
-        <v>8.901402093040703</v>
-      </c>
-      <c r="D314" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="315">
-      <c r="A315" t="n">
-        <v>2011</v>
-      </c>
-      <c r="B315" t="inlineStr">
-        <is>
-          <t>UKR</t>
-        </is>
-      </c>
-      <c r="C315" t="n">
-        <v>26.80911164113662</v>
-      </c>
-      <c r="D315" t="n">
-        <v>7.894736842105264</v>
-      </c>
-    </row>
-    <row r="316">
-      <c r="A316" t="n">
-        <v>2011</v>
-      </c>
-      <c r="B316" t="inlineStr">
-        <is>
-          <t>UZB</t>
-        </is>
-      </c>
-      <c r="C316" t="n">
-        <v>3.3419076940013</v>
-      </c>
-      <c r="D316" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="317">
-      <c r="A317" t="n">
-        <v>2012</v>
-      </c>
-      <c r="B317" t="inlineStr">
-        <is>
-          <t>ARM</t>
-        </is>
-      </c>
-      <c r="C317" t="n">
-        <v>65.66396430665155</v>
-      </c>
-      <c r="D317" t="n">
-        <v>7.368421052631579</v>
-      </c>
-    </row>
-    <row r="318">
-      <c r="A318" t="n">
-        <v>2012</v>
-      </c>
-      <c r="B318" t="inlineStr">
-        <is>
-          <t>AZE</t>
-        </is>
-      </c>
-      <c r="C318" t="n">
-        <v>28.94040226329016</v>
-      </c>
-      <c r="D318" t="n">
-        <v>1.052631578947368</v>
-      </c>
-    </row>
-    <row r="319">
-      <c r="A319" t="n">
-        <v>2012</v>
-      </c>
-      <c r="B319" t="inlineStr">
-        <is>
-          <t>BLR</t>
-        </is>
-      </c>
-      <c r="C319" t="n">
-        <v>54.66632082240126</v>
-      </c>
-      <c r="D319" t="n">
-        <v>1.052631578947368</v>
-      </c>
-    </row>
-    <row r="320">
-      <c r="A320" t="n">
-        <v>2012</v>
-      </c>
-      <c r="B320" t="inlineStr">
-        <is>
-          <t>EST</t>
-        </is>
-      </c>
-      <c r="C320" t="n">
-        <v>32.88386298907461</v>
-      </c>
-      <c r="D320" t="n">
-        <v>9.473684210526315</v>
-      </c>
-    </row>
-    <row r="321">
-      <c r="A321" t="n">
-        <v>2012</v>
-      </c>
-      <c r="B321" t="inlineStr">
-        <is>
-          <t>GEO</t>
-        </is>
-      </c>
-      <c r="C321" t="n">
-        <v>59.55242993061521</v>
-      </c>
-      <c r="D321" t="n">
-        <v>7.894736842105264</v>
-      </c>
-    </row>
-    <row r="322">
-      <c r="A322" t="n">
-        <v>2012</v>
-      </c>
-      <c r="B322" t="inlineStr">
-        <is>
-          <t>KAZ</t>
-        </is>
-      </c>
-      <c r="C322" t="n">
-        <v>19.92031728232141</v>
-      </c>
-      <c r="D322" t="n">
-        <v>1.578947368421053</v>
-      </c>
-    </row>
-    <row r="323">
-      <c r="A323" t="n">
-        <v>2012</v>
-      </c>
-      <c r="B323" t="inlineStr">
-        <is>
-          <t>KGZ</t>
-        </is>
-      </c>
-      <c r="C323" t="n">
-        <v>13.86059711268876</v>
-      </c>
-      <c r="D323" t="n">
-        <v>8.421052631578947</v>
-      </c>
-    </row>
-    <row r="324">
-      <c r="A324" t="n">
-        <v>2012</v>
-      </c>
-      <c r="B324" t="inlineStr">
-        <is>
-          <t>LTU</t>
-        </is>
-      </c>
-      <c r="C324" t="n">
-        <v>44.28125457937939</v>
-      </c>
-      <c r="D324" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="325">
-      <c r="A325" t="n">
-        <v>2012</v>
-      </c>
-      <c r="B325" t="inlineStr">
-        <is>
-          <t>LVA</t>
-        </is>
-      </c>
-      <c r="C325" t="n">
-        <v>40.89087217991504</v>
-      </c>
-      <c r="D325" t="n">
-        <v>8.947368421052632</v>
-      </c>
-    </row>
-    <row r="326">
-      <c r="A326" t="n">
-        <v>2012</v>
-      </c>
-      <c r="B326" t="inlineStr">
-        <is>
-          <t>MDA</t>
-        </is>
-      </c>
-      <c r="C326" t="n">
-        <v>18.39687611366344</v>
-      </c>
-      <c r="D326" t="n">
-        <v>9.473684210526315</v>
-      </c>
-    </row>
-    <row r="327">
-      <c r="A327" t="n">
-        <v>2012</v>
-      </c>
-      <c r="B327" t="inlineStr">
-        <is>
-          <t>RUS</t>
-        </is>
-      </c>
-      <c r="C327" t="n">
-        <v>39.96844691398413</v>
-      </c>
-      <c r="D327" t="n">
-        <v>6.842105263157895</v>
-      </c>
-    </row>
-    <row r="328">
-      <c r="A328" t="n">
-        <v>2012</v>
-      </c>
-      <c r="B328" t="inlineStr">
-        <is>
-          <t>TJK</t>
-        </is>
-      </c>
-      <c r="C328" t="n">
-        <v>-12.19176711321771</v>
-      </c>
-      <c r="D328" t="n">
-        <v>3.157894736842105</v>
-      </c>
-    </row>
-    <row r="329">
-      <c r="A329" t="n">
-        <v>2012</v>
-      </c>
-      <c r="B329" t="inlineStr">
-        <is>
-          <t>TKM</t>
-        </is>
-      </c>
-      <c r="C329" t="n">
-        <v>10.72403348003162</v>
-      </c>
-      <c r="D329" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="330">
-      <c r="A330" t="n">
-        <v>2012</v>
-      </c>
-      <c r="B330" t="inlineStr">
-        <is>
-          <t>UKR</t>
-        </is>
-      </c>
-      <c r="C330" t="n">
-        <v>25.87070642289325</v>
-      </c>
-      <c r="D330" t="n">
-        <v>7.894736842105264</v>
-      </c>
-    </row>
-    <row r="331">
-      <c r="A331" t="n">
-        <v>2012</v>
-      </c>
-      <c r="B331" t="inlineStr">
-        <is>
-          <t>UZB</t>
-        </is>
-      </c>
-      <c r="C331" t="n">
-        <v>7.694550745279059</v>
-      </c>
-      <c r="D331" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="332">
-      <c r="A332" t="n">
-        <v>2013</v>
-      </c>
-      <c r="B332" t="inlineStr">
-        <is>
-          <t>ARM</t>
-        </is>
-      </c>
-      <c r="C332" t="n">
-        <v>80.87929993579083</v>
-      </c>
-      <c r="D332" t="n">
-        <v>7.368421052631579</v>
-      </c>
-    </row>
-    <row r="333">
-      <c r="A333" t="n">
-        <v>2013</v>
-      </c>
-      <c r="B333" t="inlineStr">
-        <is>
-          <t>AZE</t>
-        </is>
-      </c>
-      <c r="C333" t="n">
-        <v>30.80690511370581</v>
-      </c>
-      <c r="D333" t="n">
-        <v>1.052631578947368</v>
-      </c>
-    </row>
-    <row r="334">
-      <c r="A334" t="n">
-        <v>2013</v>
-      </c>
-      <c r="B334" t="inlineStr">
-        <is>
-          <t>BLR</t>
-        </is>
-      </c>
-      <c r="C334" t="n">
-        <v>50.9878280350602</v>
-      </c>
-      <c r="D334" t="n">
-        <v>1.052631578947368</v>
-      </c>
-    </row>
-    <row r="335">
-      <c r="A335" t="n">
-        <v>2013</v>
-      </c>
-      <c r="B335" t="inlineStr">
-        <is>
-          <t>EST</t>
-        </is>
-      </c>
-      <c r="C335" t="n">
-        <v>36.3993360674683</v>
-      </c>
-      <c r="D335" t="n">
-        <v>9.473684210526315</v>
-      </c>
-    </row>
-    <row r="336">
-      <c r="A336" t="n">
-        <v>2013</v>
-      </c>
-      <c r="B336" t="inlineStr">
-        <is>
-          <t>GEO</t>
-        </is>
-      </c>
-      <c r="C336" t="n">
-        <v>57.04689129935008</v>
-      </c>
-      <c r="D336" t="n">
-        <v>8.421052631578947</v>
-      </c>
-    </row>
-    <row r="337">
-      <c r="A337" t="n">
-        <v>2013</v>
-      </c>
-      <c r="B337" t="inlineStr">
-        <is>
-          <t>KAZ</t>
-        </is>
-      </c>
-      <c r="C337" t="n">
-        <v>28.60762923795459</v>
-      </c>
-      <c r="D337" t="n">
-        <v>1.578947368421053</v>
-      </c>
-    </row>
-    <row r="338">
-      <c r="A338" t="n">
-        <v>2013</v>
-      </c>
-      <c r="B338" t="inlineStr">
-        <is>
-          <t>KGZ</t>
-        </is>
-      </c>
-      <c r="C338" t="n">
-        <v>12.20488036720892</v>
-      </c>
-      <c r="D338" t="n">
-        <v>8.421052631578947</v>
-      </c>
-    </row>
-    <row r="339">
-      <c r="A339" t="n">
-        <v>2013</v>
-      </c>
-      <c r="B339" t="inlineStr">
-        <is>
-          <t>LTU</t>
-        </is>
-      </c>
-      <c r="C339" t="n">
-        <v>44.3983792978619</v>
-      </c>
-      <c r="D339" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="340">
-      <c r="A340" t="n">
-        <v>2013</v>
-      </c>
-      <c r="B340" t="inlineStr">
-        <is>
-          <t>LVA</t>
-        </is>
-      </c>
-      <c r="C340" t="n">
-        <v>46.34533700400269</v>
-      </c>
-      <c r="D340" t="n">
-        <v>8.947368421052632</v>
-      </c>
-    </row>
-    <row r="341">
-      <c r="A341" t="n">
-        <v>2013</v>
-      </c>
-      <c r="B341" t="inlineStr">
-        <is>
-          <t>MDA</t>
-        </is>
-      </c>
-      <c r="C341" t="n">
-        <v>18.56409992760575</v>
-      </c>
-      <c r="D341" t="n">
-        <v>9.473684210526315</v>
-      </c>
-    </row>
-    <row r="342">
-      <c r="A342" t="n">
-        <v>2013</v>
-      </c>
-      <c r="B342" t="inlineStr">
-        <is>
-          <t>RUS</t>
-        </is>
-      </c>
-      <c r="C342" t="n">
-        <v>35.85569273719916</v>
-      </c>
-      <c r="D342" t="n">
-        <v>6.842105263157895</v>
-      </c>
-    </row>
-    <row r="343">
-      <c r="A343" t="n">
-        <v>2013</v>
-      </c>
-      <c r="B343" t="inlineStr">
-        <is>
-          <t>TJK</t>
-        </is>
-      </c>
-      <c r="C343" t="n">
-        <v>-12.40143044025761</v>
-      </c>
-      <c r="D343" t="n">
-        <v>3.157894736842105</v>
-      </c>
-    </row>
-    <row r="344">
-      <c r="A344" t="n">
-        <v>2013</v>
-      </c>
-      <c r="B344" t="inlineStr">
-        <is>
-          <t>TKM</t>
-        </is>
-      </c>
-      <c r="C344" t="n">
-        <v>11.10619502955764</v>
-      </c>
-      <c r="D344" t="n">
-        <v>0.5263157894736842</v>
-      </c>
-    </row>
-    <row r="345">
-      <c r="A345" t="n">
-        <v>2013</v>
-      </c>
-      <c r="B345" t="inlineStr">
-        <is>
-          <t>UKR</t>
-        </is>
-      </c>
-      <c r="C345" t="n">
-        <v>20.33803402822821</v>
-      </c>
-      <c r="D345" t="n">
-        <v>7.894736842105264</v>
-      </c>
-    </row>
-    <row r="346">
-      <c r="A346" t="n">
-        <v>2013</v>
-      </c>
-      <c r="B346" t="inlineStr">
-        <is>
-          <t>UZB</t>
-        </is>
-      </c>
-      <c r="C346" t="n">
-        <v>14.14347906181439</v>
-      </c>
-      <c r="D346" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="347">
-      <c r="A347" t="n">
-        <v>2014</v>
-      </c>
-      <c r="B347" t="inlineStr">
-        <is>
-          <t>ARM</t>
-        </is>
-      </c>
-      <c r="C347" t="n">
-        <v>83.20208756475679</v>
-      </c>
-      <c r="D347" t="n">
-        <v>7.368421052631579</v>
-      </c>
-    </row>
-    <row r="348">
-      <c r="A348" t="n">
-        <v>2014</v>
-      </c>
-      <c r="B348" t="inlineStr">
-        <is>
-          <t>AZE</t>
-        </is>
-      </c>
-      <c r="C348" t="n">
-        <v>34.21231566291419</v>
-      </c>
-      <c r="D348" t="n">
-        <v>1.052631578947368</v>
-      </c>
-    </row>
-    <row r="349">
-      <c r="A349" t="n">
-        <v>2014</v>
-      </c>
-      <c r="B349" t="inlineStr">
-        <is>
-          <t>BLR</t>
-        </is>
-      </c>
-      <c r="C349" t="n">
-        <v>48.78991489145199</v>
-      </c>
-      <c r="D349" t="n">
-        <v>1.052631578947368</v>
-      </c>
-    </row>
-    <row r="350">
-      <c r="A350" t="n">
-        <v>2014</v>
-      </c>
-      <c r="B350" t="inlineStr">
-        <is>
-          <t>EST</t>
-        </is>
-      </c>
-      <c r="C350" t="n">
-        <v>38.82819321765425</v>
-      </c>
-      <c r="D350" t="n">
-        <v>9.473684210526315</v>
-      </c>
-    </row>
-    <row r="351">
-      <c r="A351" t="n">
-        <v>2014</v>
-      </c>
-      <c r="B351" t="inlineStr">
-        <is>
-          <t>GEO</t>
-        </is>
-      </c>
-      <c r="C351" t="n">
-        <v>61.93554102564307</v>
-      </c>
-      <c r="D351" t="n">
-        <v>8.421052631578947</v>
-      </c>
-    </row>
-    <row r="352">
-      <c r="A352" t="n">
-        <v>2014</v>
-      </c>
-      <c r="B352" t="inlineStr">
-        <is>
-          <t>KAZ</t>
-        </is>
-      </c>
-      <c r="C352" t="n">
-        <v>27.15644673520332</v>
-      </c>
-      <c r="D352" t="n">
-        <v>1.578947368421053</v>
-      </c>
-    </row>
-    <row r="353">
-      <c r="A353" t="n">
-        <v>2014</v>
-      </c>
-      <c r="B353" t="inlineStr">
-        <is>
-          <t>KGZ</t>
-        </is>
-      </c>
-      <c r="C353" t="n">
-        <v>26.67471953732011</v>
-      </c>
-      <c r="D353" t="n">
-        <v>8.421052631578947</v>
-      </c>
-    </row>
-    <row r="354">
-      <c r="A354" t="n">
-        <v>2014</v>
-      </c>
-      <c r="B354" t="inlineStr">
-        <is>
-          <t>LTU</t>
-        </is>
-      </c>
-      <c r="C354" t="n">
-        <v>49.69645840165633</v>
-      </c>
-      <c r="D354" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="355">
-      <c r="A355" t="n">
-        <v>2014</v>
-      </c>
-      <c r="B355" t="inlineStr">
-        <is>
-          <t>LVA</t>
-        </is>
-      </c>
-      <c r="C355" t="n">
-        <v>49.21247626051596</v>
-      </c>
-      <c r="D355" t="n">
-        <v>8.947368421052632</v>
-      </c>
-    </row>
-    <row r="356">
-      <c r="A356" t="n">
-        <v>2014</v>
-      </c>
-      <c r="B356" t="inlineStr">
-        <is>
-          <t>MDA</t>
-        </is>
-      </c>
-      <c r="C356" t="n">
-        <v>23.76275759502418</v>
-      </c>
-      <c r="D356" t="n">
-        <v>9.473684210526315</v>
-      </c>
-    </row>
-    <row r="357">
-      <c r="A357" t="n">
-        <v>2014</v>
-      </c>
-      <c r="B357" t="inlineStr">
-        <is>
-          <t>RUS</t>
-        </is>
-      </c>
-      <c r="C357" t="n">
-        <v>38.18784183278481</v>
-      </c>
-      <c r="D357" t="n">
-        <v>6.842105263157895</v>
-      </c>
-    </row>
-    <row r="358">
-      <c r="A358" t="n">
-        <v>2014</v>
-      </c>
-      <c r="B358" t="inlineStr">
-        <is>
-          <t>TJK</t>
-        </is>
-      </c>
-      <c r="C358" t="n">
-        <v>-10.35503816784775</v>
-      </c>
-      <c r="D358" t="n">
-        <v>3.157894736842105</v>
-      </c>
-    </row>
-    <row r="359">
-      <c r="A359" t="n">
-        <v>2014</v>
-      </c>
-      <c r="B359" t="inlineStr">
-        <is>
-          <t>TKM</t>
-        </is>
-      </c>
-      <c r="C359" t="n">
-        <v>17.7063512218336</v>
-      </c>
-      <c r="D359" t="n">
-        <v>0.5263157894736842</v>
-      </c>
-    </row>
-    <row r="360">
-      <c r="A360" t="n">
-        <v>2014</v>
-      </c>
-      <c r="B360" t="inlineStr">
-        <is>
-          <t>UKR</t>
-        </is>
-      </c>
-      <c r="C360" t="n">
-        <v>24.58187135582346</v>
-      </c>
-      <c r="D360" t="n">
-        <v>6.842105263157895</v>
-      </c>
-    </row>
-    <row r="361">
-      <c r="A361" t="n">
-        <v>2014</v>
-      </c>
-      <c r="B361" t="inlineStr">
-        <is>
-          <t>UZB</t>
-        </is>
-      </c>
-      <c r="C361" t="n">
-        <v>18.71144246625639</v>
-      </c>
-      <c r="D361" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="362">
-      <c r="A362" t="n">
-        <v>2015</v>
-      </c>
-      <c r="B362" t="inlineStr">
-        <is>
-          <t>ARM</t>
-        </is>
-      </c>
-      <c r="C362" t="n">
-        <v>80.86095993212011</v>
-      </c>
-      <c r="D362" t="n">
-        <v>7.368421052631579</v>
-      </c>
-    </row>
-    <row r="363">
-      <c r="A363" t="n">
-        <v>2015</v>
-      </c>
-      <c r="B363" t="inlineStr">
-        <is>
-          <t>AZE</t>
-        </is>
-      </c>
-      <c r="C363" t="n">
-        <v>43.01628128244243</v>
-      </c>
-      <c r="D363" t="n">
-        <v>1.052631578947368</v>
-      </c>
-    </row>
-    <row r="364">
-      <c r="A364" t="n">
-        <v>2015</v>
-      </c>
-      <c r="B364" t="inlineStr">
-        <is>
-          <t>BLR</t>
-        </is>
-      </c>
-      <c r="C364" t="n">
-        <v>58.83326272510079</v>
-      </c>
-      <c r="D364" t="n">
-        <v>1.052631578947368</v>
-      </c>
-    </row>
-    <row r="365">
-      <c r="A365" t="n">
-        <v>2015</v>
-      </c>
-      <c r="B365" t="inlineStr">
-        <is>
-          <t>EST</t>
-        </is>
-      </c>
-      <c r="C365" t="n">
-        <v>41.98432435812556</v>
-      </c>
-      <c r="D365" t="n">
-        <v>9.473684210526315</v>
-      </c>
-    </row>
-    <row r="366">
-      <c r="A366" t="n">
-        <v>2015</v>
-      </c>
-      <c r="B366" t="inlineStr">
-        <is>
-          <t>GEO</t>
-        </is>
-      </c>
-      <c r="C366" t="n">
-        <v>56.97891957319904</v>
-      </c>
-      <c r="D366" t="n">
-        <v>8.421052631578947</v>
-      </c>
-    </row>
-    <row r="367">
-      <c r="A367" t="n">
-        <v>2015</v>
-      </c>
-      <c r="B367" t="inlineStr">
-        <is>
-          <t>KAZ</t>
-        </is>
-      </c>
-      <c r="C367" t="n">
-        <v>24.51532139027631</v>
-      </c>
-      <c r="D367" t="n">
-        <v>1.578947368421053</v>
-      </c>
-    </row>
-    <row r="368">
-      <c r="A368" t="n">
-        <v>2015</v>
-      </c>
-      <c r="B368" t="inlineStr">
-        <is>
-          <t>KGZ</t>
-        </is>
-      </c>
-      <c r="C368" t="n">
-        <v>34.30778976966883</v>
-      </c>
-      <c r="D368" t="n">
-        <v>8.421052631578947</v>
-      </c>
-    </row>
-    <row r="369">
-      <c r="A369" t="n">
-        <v>2015</v>
-      </c>
-      <c r="B369" t="inlineStr">
-        <is>
-          <t>LTU</t>
-        </is>
-      </c>
-      <c r="C369" t="n">
-        <v>56.53698972790549</v>
-      </c>
-      <c r="D369" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="370">
-      <c r="A370" t="n">
-        <v>2015</v>
-      </c>
-      <c r="B370" t="inlineStr">
-        <is>
-          <t>LVA</t>
-        </is>
-      </c>
-      <c r="C370" t="n">
-        <v>49.38378141300375</v>
-      </c>
-      <c r="D370" t="n">
-        <v>8.947368421052632</v>
-      </c>
-    </row>
-    <row r="371">
-      <c r="A371" t="n">
-        <v>2015</v>
-      </c>
-      <c r="B371" t="inlineStr">
-        <is>
-          <t>MDA</t>
-        </is>
-      </c>
-      <c r="C371" t="n">
-        <v>25.92167567361679</v>
-      </c>
-      <c r="D371" t="n">
-        <v>9.473684210526315</v>
-      </c>
-    </row>
-    <row r="372">
-      <c r="A372" t="n">
-        <v>2015</v>
-      </c>
-      <c r="B372" t="inlineStr">
-        <is>
-          <t>RUS</t>
-        </is>
-      </c>
-      <c r="C372" t="n">
-        <v>41.36504510395377</v>
-      </c>
-      <c r="D372" t="n">
-        <v>6.842105263157895</v>
-      </c>
-    </row>
-    <row r="373">
-      <c r="A373" t="n">
-        <v>2015</v>
-      </c>
-      <c r="B373" t="inlineStr">
-        <is>
-          <t>TJK</t>
-        </is>
-      </c>
-      <c r="C373" t="n">
-        <v>-10.60319459879946</v>
-      </c>
-      <c r="D373" t="n">
-        <v>3.157894736842105</v>
-      </c>
-    </row>
-    <row r="374">
-      <c r="A374" t="n">
-        <v>2015</v>
-      </c>
-      <c r="B374" t="inlineStr">
-        <is>
-          <t>TKM</t>
-        </is>
-      </c>
-      <c r="C374" t="n">
-        <v>17.36174250812176</v>
-      </c>
-      <c r="D374" t="n">
-        <v>0.5263157894736842</v>
-      </c>
-    </row>
-    <row r="375">
-      <c r="A375" t="n">
-        <v>2015</v>
-      </c>
-      <c r="B375" t="inlineStr">
-        <is>
-          <t>UKR</t>
-        </is>
-      </c>
-      <c r="C375" t="n">
-        <v>37.78941206084798</v>
-      </c>
-      <c r="D375" t="n">
-        <v>6.842105263157895</v>
-      </c>
-    </row>
-    <row r="376">
-      <c r="A376" t="n">
-        <v>2015</v>
-      </c>
-      <c r="B376" t="inlineStr">
-        <is>
-          <t>UZB</t>
-        </is>
-      </c>
-      <c r="C376" t="n">
-        <v>26.03846768333329</v>
-      </c>
-      <c r="D376" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="377">
-      <c r="A377" t="n">
-        <v>2016</v>
-      </c>
-      <c r="B377" t="inlineStr">
-        <is>
-          <t>ARM</t>
-        </is>
-      </c>
-      <c r="C377" t="n">
-        <v>79.52540835410696</v>
-      </c>
-      <c r="D377" t="n">
-        <v>7.368421052631579</v>
-      </c>
-    </row>
-    <row r="378">
-      <c r="A378" t="n">
-        <v>2016</v>
-      </c>
-      <c r="B378" t="inlineStr">
-        <is>
-          <t>AZE</t>
-        </is>
-      </c>
-      <c r="C378" t="n">
-        <v>40.22762107286495</v>
-      </c>
-      <c r="D378" t="n">
-        <v>1.052631578947368</v>
-      </c>
-    </row>
-    <row r="379">
-      <c r="A379" t="n">
-        <v>2016</v>
-      </c>
-      <c r="B379" t="inlineStr">
-        <is>
-          <t>BLR</t>
-        </is>
-      </c>
-      <c r="C379" t="n">
-        <v>56.99442662804308</v>
-      </c>
-      <c r="D379" t="n">
-        <v>1.052631578947368</v>
-      </c>
-    </row>
-    <row r="380">
-      <c r="A380" t="n">
-        <v>2016</v>
-      </c>
-      <c r="B380" t="inlineStr">
-        <is>
-          <t>EST</t>
-        </is>
-      </c>
-      <c r="C380" t="n">
-        <v>40.1709716443436</v>
-      </c>
-      <c r="D380" t="n">
-        <v>9.473684210526315</v>
-      </c>
-    </row>
-    <row r="381">
-      <c r="A381" t="n">
-        <v>2016</v>
-      </c>
-      <c r="B381" t="inlineStr">
-        <is>
-          <t>GEO</t>
-        </is>
-      </c>
-      <c r="C381" t="n">
-        <v>55.17901241021904</v>
-      </c>
-      <c r="D381" t="n">
-        <v>8.421052631578947</v>
-      </c>
-    </row>
-    <row r="382">
-      <c r="A382" t="n">
-        <v>2016</v>
-      </c>
-      <c r="B382" t="inlineStr">
-        <is>
-          <t>KAZ</t>
-        </is>
-      </c>
-      <c r="C382" t="n">
-        <v>26.2577464638654</v>
-      </c>
-      <c r="D382" t="n">
-        <v>1.578947368421053</v>
-      </c>
-    </row>
-    <row r="383">
-      <c r="A383" t="n">
-        <v>2016</v>
-      </c>
-      <c r="B383" t="inlineStr">
-        <is>
-          <t>KGZ</t>
-        </is>
-      </c>
-      <c r="C383" t="n">
-        <v>32.53816484769516</v>
-      </c>
-      <c r="D383" t="n">
-        <v>8.421052631578947</v>
-      </c>
-    </row>
-    <row r="384">
-      <c r="A384" t="n">
-        <v>2016</v>
-      </c>
-      <c r="B384" t="inlineStr">
-        <is>
-          <t>LTU</t>
-        </is>
-      </c>
-      <c r="C384" t="n">
-        <v>56.75820763140621</v>
-      </c>
-      <c r="D384" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="385">
-      <c r="A385" t="n">
-        <v>2016</v>
-      </c>
-      <c r="B385" t="inlineStr">
-        <is>
-          <t>LVA</t>
-        </is>
-      </c>
-      <c r="C385" t="n">
-        <v>49.5757754920773</v>
-      </c>
-      <c r="D385" t="n">
-        <v>8.947368421052632</v>
-      </c>
-    </row>
-    <row r="386">
-      <c r="A386" t="n">
-        <v>2016</v>
-      </c>
-      <c r="B386" t="inlineStr">
-        <is>
-          <t>MDA</t>
-        </is>
-      </c>
-      <c r="C386" t="n">
-        <v>25.00325742740584</v>
-      </c>
-      <c r="D386" t="n">
-        <v>9.473684210526315</v>
-      </c>
-    </row>
-    <row r="387">
-      <c r="A387" t="n">
-        <v>2016</v>
-      </c>
-      <c r="B387" t="inlineStr">
-        <is>
-          <t>RUS</t>
-        </is>
-      </c>
-      <c r="C387" t="n">
-        <v>38.6932729531026</v>
-      </c>
-      <c r="D387" t="n">
-        <v>6.842105263157895</v>
-      </c>
-    </row>
-    <row r="388">
-      <c r="A388" t="n">
-        <v>2016</v>
-      </c>
-      <c r="B388" t="inlineStr">
-        <is>
-          <t>TJK</t>
-        </is>
-      </c>
-      <c r="C388" t="n">
-        <v>-10.87403571336631</v>
-      </c>
-      <c r="D388" t="n">
-        <v>3.157894736842105</v>
-      </c>
-    </row>
-    <row r="389">
-      <c r="A389" t="n">
-        <v>2016</v>
-      </c>
-      <c r="B389" t="inlineStr">
-        <is>
-          <t>TKM</t>
-        </is>
-      </c>
-      <c r="C389" t="n">
-        <v>19.1596373317326</v>
-      </c>
-      <c r="D389" t="n">
-        <v>0.5263157894736842</v>
-      </c>
-    </row>
-    <row r="390">
-      <c r="A390" t="n">
-        <v>2016</v>
-      </c>
-      <c r="B390" t="inlineStr">
-        <is>
-          <t>UKR</t>
-        </is>
-      </c>
-      <c r="C390" t="n">
-        <v>36.04905423380627</v>
-      </c>
-      <c r="D390" t="n">
-        <v>6.842105263157895</v>
-      </c>
-    </row>
-    <row r="391">
-      <c r="A391" t="n">
-        <v>2016</v>
-      </c>
-      <c r="B391" t="inlineStr">
-        <is>
-          <t>UZB</t>
-        </is>
-      </c>
-      <c r="C391" t="n">
-        <v>26.37842377167838</v>
-      </c>
-      <c r="D391" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="392">
-      <c r="A392" t="n">
-        <v>2017</v>
-      </c>
-      <c r="B392" t="inlineStr">
-        <is>
-          <t>ARM</t>
-        </is>
-      </c>
-      <c r="C392" t="n">
-        <v>78.2983869976165</v>
-      </c>
-      <c r="D392" t="n">
-        <v>7.368421052631579</v>
-      </c>
-    </row>
-    <row r="393">
-      <c r="A393" t="n">
-        <v>2017</v>
-      </c>
-      <c r="B393" t="inlineStr">
-        <is>
-          <t>AZE</t>
-        </is>
-      </c>
-      <c r="C393" t="n">
-        <v>35.77505568873183</v>
-      </c>
-      <c r="D393" t="n">
-        <v>1.052631578947368</v>
-      </c>
-    </row>
-    <row r="394">
-      <c r="A394" t="n">
-        <v>2017</v>
-      </c>
-      <c r="B394" t="inlineStr">
-        <is>
-          <t>BLR</t>
-        </is>
-      </c>
-      <c r="C394" t="n">
-        <v>53.8666343803521</v>
-      </c>
-      <c r="D394" t="n">
-        <v>1.052631578947368</v>
-      </c>
-    </row>
-    <row r="395">
-      <c r="A395" t="n">
-        <v>2017</v>
-      </c>
-      <c r="B395" t="inlineStr">
-        <is>
-          <t>EST</t>
-        </is>
-      </c>
-      <c r="C395" t="n">
-        <v>34.98760102258424</v>
-      </c>
-      <c r="D395" t="n">
-        <v>9.473684210526315</v>
-      </c>
-    </row>
-    <row r="396">
-      <c r="A396" t="n">
-        <v>2017</v>
-      </c>
-      <c r="B396" t="inlineStr">
-        <is>
-          <t>GEO</t>
-        </is>
-      </c>
-      <c r="C396" t="n">
-        <v>52.12914474433785</v>
-      </c>
-      <c r="D396" t="n">
-        <v>8.421052631578947</v>
-      </c>
-    </row>
-    <row r="397">
-      <c r="A397" t="n">
-        <v>2017</v>
-      </c>
-      <c r="B397" t="inlineStr">
-        <is>
-          <t>KAZ</t>
-        </is>
-      </c>
-      <c r="C397" t="n">
-        <v>24.90758360216851</v>
-      </c>
-      <c r="D397" t="n">
-        <v>1.578947368421053</v>
-      </c>
-    </row>
-    <row r="398">
-      <c r="A398" t="n">
-        <v>2017</v>
-      </c>
-      <c r="B398" t="inlineStr">
-        <is>
-          <t>KGZ</t>
-        </is>
-      </c>
-      <c r="C398" t="n">
-        <v>36.69853749930462</v>
-      </c>
-      <c r="D398" t="n">
-        <v>8.947368421052632</v>
-      </c>
-    </row>
-    <row r="399">
-      <c r="A399" t="n">
-        <v>2017</v>
-      </c>
-      <c r="B399" t="inlineStr">
-        <is>
-          <t>LTU</t>
-        </is>
-      </c>
-      <c r="C399" t="n">
-        <v>58.62917951074496</v>
-      </c>
-      <c r="D399" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="400">
-      <c r="A400" t="n">
-        <v>2017</v>
-      </c>
-      <c r="B400" t="inlineStr">
-        <is>
-          <t>LVA</t>
-        </is>
-      </c>
-      <c r="C400" t="n">
-        <v>50.46056170796781</v>
-      </c>
-      <c r="D400" t="n">
-        <v>8.947368421052632</v>
-      </c>
-    </row>
-    <row r="401">
-      <c r="A401" t="n">
-        <v>2017</v>
-      </c>
-      <c r="B401" t="inlineStr">
-        <is>
-          <t>MDA</t>
-        </is>
-      </c>
-      <c r="C401" t="n">
-        <v>26.07376988520489</v>
-      </c>
-      <c r="D401" t="n">
-        <v>9.473684210526315</v>
-      </c>
-    </row>
-    <row r="402">
-      <c r="A402" t="n">
-        <v>2017</v>
-      </c>
-      <c r="B402" t="inlineStr">
-        <is>
-          <t>RUS</t>
-        </is>
-      </c>
-      <c r="C402" t="n">
-        <v>39.01161585977686</v>
-      </c>
-      <c r="D402" t="n">
-        <v>6.842105263157895</v>
-      </c>
-    </row>
-    <row r="403">
-      <c r="A403" t="n">
-        <v>2017</v>
-      </c>
-      <c r="B403" t="inlineStr">
-        <is>
-          <t>TJK</t>
-        </is>
-      </c>
-      <c r="C403" t="n">
-        <v>-10.72041177126775</v>
-      </c>
-      <c r="D403" t="n">
-        <v>3.157894736842105</v>
-      </c>
-    </row>
-    <row r="404">
-      <c r="A404" t="n">
-        <v>2017</v>
-      </c>
-      <c r="B404" t="inlineStr">
-        <is>
-          <t>TKM</t>
-        </is>
-      </c>
-      <c r="C404" t="n">
-        <v>19.18286121501872</v>
-      </c>
-      <c r="D404" t="n">
-        <v>0.5263157894736842</v>
-      </c>
-    </row>
-    <row r="405">
-      <c r="A405" t="n">
-        <v>2017</v>
-      </c>
-      <c r="B405" t="inlineStr">
-        <is>
-          <t>UKR</t>
-        </is>
-      </c>
-      <c r="C405" t="n">
-        <v>36.87730376233884</v>
-      </c>
-      <c r="D405" t="n">
-        <v>6.842105263157895</v>
-      </c>
-    </row>
-    <row r="406">
-      <c r="A406" t="n">
-        <v>2017</v>
-      </c>
-      <c r="B406" t="inlineStr">
-        <is>
-          <t>UZB</t>
-        </is>
-      </c>
-      <c r="C406" t="n">
-        <v>20.72321993460944</v>
-      </c>
-      <c r="D406" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="407">
-      <c r="A407" t="n">
-        <v>2018</v>
-      </c>
-      <c r="B407" t="inlineStr">
-        <is>
-          <t>ARM</t>
-        </is>
-      </c>
-      <c r="C407" t="n">
-        <v>23.66913694188593</v>
-      </c>
-      <c r="D407" t="n">
-        <v>8.421052631578947</v>
-      </c>
-    </row>
-    <row r="408">
-      <c r="A408" t="n">
-        <v>2018</v>
-      </c>
-      <c r="B408" t="inlineStr">
-        <is>
-          <t>AZE</t>
-        </is>
-      </c>
-      <c r="C408" t="n">
-        <v>-7.892156862745098</v>
-      </c>
-      <c r="D408" t="n">
-        <v>1.052631578947368</v>
-      </c>
-    </row>
-    <row r="409">
-      <c r="A409" t="n">
-        <v>2018</v>
-      </c>
-      <c r="B409" t="inlineStr">
-        <is>
-          <t>BLR</t>
-        </is>
-      </c>
-      <c r="C409" t="n">
-        <v>-7.098765432098765</v>
-      </c>
-      <c r="D409" t="n">
-        <v>1.052631578947368</v>
-      </c>
-    </row>
-    <row r="410">
-      <c r="A410" t="n">
-        <v>2018</v>
-      </c>
-      <c r="B410" t="inlineStr">
-        <is>
-          <t>EST</t>
-        </is>
-      </c>
-      <c r="C410" t="n">
-        <v>-15.78431372549019</v>
-      </c>
-      <c r="D410" t="n">
-        <v>9.473684210526315</v>
-      </c>
-    </row>
-    <row r="411">
-      <c r="A411" t="n">
-        <v>2018</v>
-      </c>
-      <c r="B411" t="inlineStr">
-        <is>
-          <t>GEO</t>
-        </is>
-      </c>
-      <c r="C411" t="n">
-        <v>22.6797385620915</v>
-      </c>
-      <c r="D411" t="n">
-        <v>8.421052631578947</v>
-      </c>
-    </row>
-    <row r="412">
-      <c r="A412" t="n">
-        <v>2018</v>
-      </c>
-      <c r="B412" t="inlineStr">
-        <is>
-          <t>KAZ</t>
-        </is>
-      </c>
-      <c r="C412" t="n">
-        <v>-2.311118352161479</v>
-      </c>
-      <c r="D412" t="n">
-        <v>1.578947368421053</v>
-      </c>
-    </row>
-    <row r="413">
-      <c r="A413" t="n">
-        <v>2018</v>
-      </c>
-      <c r="B413" t="inlineStr">
-        <is>
-          <t>KGZ</t>
-        </is>
-      </c>
-      <c r="C413" t="n">
-        <v>13.55819615209842</v>
-      </c>
-      <c r="D413" t="n">
-        <v>8.947368421052632</v>
-      </c>
-    </row>
-    <row r="414">
-      <c r="A414" t="n">
-        <v>2018</v>
-      </c>
-      <c r="B414" t="inlineStr">
-        <is>
-          <t>LTU</t>
-        </is>
-      </c>
-      <c r="C414" t="n">
-        <v>-0.5846042120551924</v>
-      </c>
-      <c r="D414" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="415">
-      <c r="A415" t="n">
-        <v>2018</v>
-      </c>
-      <c r="B415" t="inlineStr">
-        <is>
-          <t>LVA</t>
-        </is>
-      </c>
-      <c r="C415" t="n">
-        <v>-5.052650689905592</v>
-      </c>
-      <c r="D415" t="n">
-        <v>8.947368421052632</v>
-      </c>
-    </row>
-    <row r="416">
-      <c r="A416" t="n">
-        <v>2018</v>
-      </c>
-      <c r="B416" t="inlineStr">
-        <is>
-          <t>MDA</t>
-        </is>
-      </c>
-      <c r="C416" t="n">
-        <v>3.826996740745167</v>
-      </c>
-      <c r="D416" t="n">
-        <v>9.473684210526315</v>
-      </c>
-    </row>
-    <row r="417">
-      <c r="A417" t="n">
-        <v>2018</v>
-      </c>
-      <c r="B417" t="inlineStr">
-        <is>
-          <t>RUS</t>
-        </is>
-      </c>
-      <c r="C417" t="n">
-        <v>-1.920842411038489</v>
-      </c>
-      <c r="D417" t="n">
-        <v>6.842105263157895</v>
-      </c>
-    </row>
-    <row r="418">
-      <c r="A418" t="n">
-        <v>2018</v>
-      </c>
-      <c r="B418" t="inlineStr">
-        <is>
-          <t>TJK</t>
-        </is>
-      </c>
-      <c r="C418" t="n">
-        <v>-13.44589687726943</v>
-      </c>
-      <c r="D418" t="n">
-        <v>3.157894736842105</v>
-      </c>
-    </row>
-    <row r="419">
-      <c r="A419" t="n">
-        <v>2018</v>
-      </c>
-      <c r="B419" t="inlineStr">
-        <is>
-          <t>TKM</t>
-        </is>
-      </c>
-      <c r="C419" t="n">
-        <v>-18.03921568627451</v>
-      </c>
-      <c r="D419" t="n">
-        <v>0.5263157894736842</v>
-      </c>
-    </row>
-    <row r="420">
-      <c r="A420" t="n">
-        <v>2018</v>
-      </c>
-      <c r="B420" t="inlineStr">
-        <is>
-          <t>UKR</t>
-        </is>
-      </c>
-      <c r="C420" t="n">
-        <v>4.94056930102228</v>
-      </c>
-      <c r="D420" t="n">
-        <v>6.842105263157895</v>
-      </c>
-    </row>
-    <row r="421">
-      <c r="A421" t="n">
-        <v>2018</v>
-      </c>
-      <c r="B421" t="inlineStr">
-        <is>
-          <t>UZB</t>
-        </is>
-      </c>
-      <c r="C421" t="n">
-        <v>1.815824448165345</v>
-      </c>
-      <c r="D421" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="422">
-      <c r="A422" t="n">
-        <v>2019</v>
-      </c>
-      <c r="B422" t="inlineStr">
-        <is>
-          <t>ARM</t>
-        </is>
-      </c>
-      <c r="C422" t="n">
-        <v>0</v>
-      </c>
-      <c r="D422" t="inlineStr"/>
-    </row>
-    <row r="423">
-      <c r="A423" t="n">
-        <v>2019</v>
-      </c>
-      <c r="B423" t="inlineStr">
-        <is>
-          <t>AZE</t>
-        </is>
-      </c>
-      <c r="C423" t="n">
-        <v>0</v>
-      </c>
-      <c r="D423" t="inlineStr"/>
-    </row>
-    <row r="424">
-      <c r="A424" t="n">
-        <v>2019</v>
-      </c>
-      <c r="B424" t="inlineStr">
-        <is>
-          <t>BLR</t>
-        </is>
-      </c>
-      <c r="C424" t="n">
-        <v>0</v>
-      </c>
-      <c r="D424" t="inlineStr"/>
-    </row>
-    <row r="425">
-      <c r="A425" t="n">
-        <v>2019</v>
-      </c>
-      <c r="B425" t="inlineStr">
-        <is>
-          <t>EST</t>
-        </is>
-      </c>
-      <c r="C425" t="n">
-        <v>0</v>
-      </c>
-      <c r="D425" t="inlineStr"/>
-    </row>
-    <row r="426">
-      <c r="A426" t="n">
-        <v>2019</v>
-      </c>
-      <c r="B426" t="inlineStr">
-        <is>
-          <t>GEO</t>
-        </is>
-      </c>
-      <c r="C426" t="n">
-        <v>0</v>
-      </c>
-      <c r="D426" t="inlineStr"/>
-    </row>
-    <row r="427">
-      <c r="A427" t="n">
-        <v>2019</v>
-      </c>
-      <c r="B427" t="inlineStr">
-        <is>
-          <t>KAZ</t>
-        </is>
-      </c>
-      <c r="C427" t="n">
-        <v>0</v>
-      </c>
-      <c r="D427" t="inlineStr"/>
-    </row>
-    <row r="428">
-      <c r="A428" t="n">
-        <v>2019</v>
-      </c>
-      <c r="B428" t="inlineStr">
-        <is>
-          <t>KGZ</t>
-        </is>
-      </c>
-      <c r="C428" t="n">
-        <v>0</v>
-      </c>
-      <c r="D428" t="inlineStr"/>
-    </row>
-    <row r="429">
-      <c r="A429" t="n">
-        <v>2019</v>
-      </c>
-      <c r="B429" t="inlineStr">
-        <is>
-          <t>LTU</t>
-        </is>
-      </c>
-      <c r="C429" t="n">
-        <v>0</v>
-      </c>
-      <c r="D429" t="inlineStr"/>
-    </row>
-    <row r="430">
-      <c r="A430" t="n">
-        <v>2019</v>
-      </c>
-      <c r="B430" t="inlineStr">
-        <is>
-          <t>LVA</t>
-        </is>
-      </c>
-      <c r="C430" t="n">
-        <v>0</v>
-      </c>
-      <c r="D430" t="inlineStr"/>
-    </row>
-    <row r="431">
-      <c r="A431" t="n">
-        <v>2019</v>
-      </c>
-      <c r="B431" t="inlineStr">
-        <is>
-          <t>MDA</t>
-        </is>
-      </c>
-      <c r="C431" t="n">
-        <v>0</v>
-      </c>
-      <c r="D431" t="inlineStr"/>
-    </row>
-    <row r="432">
-      <c r="A432" t="n">
-        <v>2019</v>
-      </c>
-      <c r="B432" t="inlineStr">
-        <is>
-          <t>RUS</t>
-        </is>
-      </c>
-      <c r="C432" t="n">
-        <v>0</v>
-      </c>
-      <c r="D432" t="inlineStr"/>
-    </row>
-    <row r="433">
-      <c r="A433" t="n">
-        <v>2019</v>
-      </c>
-      <c r="B433" t="inlineStr">
-        <is>
-          <t>TJK</t>
-        </is>
-      </c>
-      <c r="C433" t="n">
-        <v>0</v>
-      </c>
-      <c r="D433" t="inlineStr"/>
-    </row>
-    <row r="434">
-      <c r="A434" t="n">
-        <v>2019</v>
-      </c>
-      <c r="B434" t="inlineStr">
-        <is>
-          <t>TKM</t>
-        </is>
-      </c>
-      <c r="C434" t="n">
-        <v>0</v>
-      </c>
-      <c r="D434" t="inlineStr"/>
-    </row>
-    <row r="435">
-      <c r="A435" t="n">
-        <v>2019</v>
-      </c>
-      <c r="B435" t="inlineStr">
-        <is>
-          <t>UKR</t>
-        </is>
-      </c>
-      <c r="C435" t="n">
-        <v>0</v>
-      </c>
-      <c r="D435" t="inlineStr"/>
-    </row>
-    <row r="436">
-      <c r="A436" t="n">
-        <v>2019</v>
-      </c>
-      <c r="B436" t="inlineStr">
-        <is>
-          <t>UZB</t>
-        </is>
-      </c>
-      <c r="C436" t="n">
-        <v>0</v>
-      </c>
-      <c r="D436" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
